--- a/suivi qualité.xlsx
+++ b/suivi qualité.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8516B92-040C-4FEA-A7DD-BA0523392B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3162ED2-6313-431C-A26F-31D97638D137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{01F9FB09-8681-4E8C-80DD-926BCF4FD7AA}"/>
   </bookViews>
@@ -1360,240 +1360,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="3" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1601,6 +1367,240 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="16" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2122,106 +2122,106 @@
   <sheetData>
     <row r="1" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:38" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="99"/>
-      <c r="B2" s="93" t="s">
+      <c r="A2" s="103"/>
+      <c r="B2" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="108" t="s">
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="109"/>
-      <c r="J2" s="112" t="s">
+      <c r="I2" s="113"/>
+      <c r="J2" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="113"/>
-      <c r="L2" s="104" t="s">
+      <c r="K2" s="117"/>
+      <c r="L2" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="86" t="s">
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="89" t="s">
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="93" t="s">
+      <c r="AG2" s="94"/>
+      <c r="AH2" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="94"/>
-      <c r="AK2" s="95"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="99"/>
     </row>
     <row r="3" spans="1:38" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="100"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="111"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="115"/>
       <c r="J3" s="46" t="s">
         <v>47</v>
       </c>
       <c r="K3" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="101" t="s">
+      <c r="L3" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="101" t="s">
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="83" t="s">
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="91"/>
-      <c r="AG3" s="92"/>
-      <c r="AH3" s="96"/>
-      <c r="AI3" s="97"/>
-      <c r="AJ3" s="97"/>
-      <c r="AK3" s="98"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="100"/>
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="102"/>
       <c r="AL3" s="18"/>
     </row>
     <row r="4" spans="1:38" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7104,7 +7104,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="86" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -7121,683 +7121,683 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="161">
+      <c r="A2" s="83">
         <f>'le mois 03'!A6</f>
         <v>45717</v>
       </c>
-      <c r="B2" s="162">
+      <c r="B2" s="84">
         <f ca="1">'le mois 03'!AH6</f>
         <v>0</v>
       </c>
-      <c r="C2" s="162">
+      <c r="C2" s="84">
         <f ca="1">'le mois 03'!AI6</f>
         <v>0</v>
       </c>
-      <c r="D2" s="162">
+      <c r="D2" s="84">
         <f ca="1">'le mois 03'!AJ6</f>
         <v>0</v>
       </c>
-      <c r="E2" s="162">
+      <c r="E2" s="84">
         <f ca="1">'le mois 03'!AK6</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="161">
+      <c r="A3" s="83">
         <f>'le mois 03'!A7</f>
         <v>45718</v>
       </c>
-      <c r="B3" s="162">
+      <c r="B3" s="84">
         <f ca="1">'le mois 03'!AH7</f>
         <v>0</v>
       </c>
-      <c r="C3" s="162">
+      <c r="C3" s="84">
         <f ca="1">'le mois 03'!AI7</f>
         <v>0</v>
       </c>
-      <c r="D3" s="162">
+      <c r="D3" s="84">
         <f ca="1">'le mois 03'!AJ7</f>
         <v>0</v>
       </c>
-      <c r="E3" s="162">
+      <c r="E3" s="84">
         <f ca="1">'le mois 03'!AK7</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="161">
+      <c r="A4" s="83">
         <f>'le mois 03'!A8</f>
         <v>45719</v>
       </c>
-      <c r="B4" s="162">
+      <c r="B4" s="84">
         <f ca="1">'le mois 03'!AH8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="162">
+      <c r="C4" s="84">
         <f ca="1">'le mois 03'!AI8</f>
         <v>0</v>
       </c>
-      <c r="D4" s="162">
+      <c r="D4" s="84">
         <f ca="1">'le mois 03'!AJ8</f>
         <v>0</v>
       </c>
-      <c r="E4" s="162">
+      <c r="E4" s="84">
         <f ca="1">'le mois 03'!AK8</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="161">
+      <c r="A5" s="83">
         <f>'le mois 03'!A9</f>
         <v>45720</v>
       </c>
-      <c r="B5" s="162">
+      <c r="B5" s="84">
         <f ca="1">'le mois 03'!AH9</f>
         <v>0</v>
       </c>
-      <c r="C5" s="162">
+      <c r="C5" s="84">
         <f ca="1">'le mois 03'!AI9</f>
         <v>0</v>
       </c>
-      <c r="D5" s="162">
+      <c r="D5" s="84">
         <f ca="1">'le mois 03'!AJ9</f>
         <v>0</v>
       </c>
-      <c r="E5" s="162">
+      <c r="E5" s="84">
         <f ca="1">'le mois 03'!AK9</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="161">
+      <c r="A6" s="83">
         <f>'le mois 03'!A10</f>
         <v>45721</v>
       </c>
-      <c r="B6" s="162">
+      <c r="B6" s="84">
         <f ca="1">'le mois 03'!AH10</f>
         <v>0</v>
       </c>
-      <c r="C6" s="162">
+      <c r="C6" s="84">
         <f ca="1">'le mois 03'!AI10</f>
         <v>0</v>
       </c>
-      <c r="D6" s="162">
+      <c r="D6" s="84">
         <f ca="1">'le mois 03'!AJ10</f>
         <v>0</v>
       </c>
-      <c r="E6" s="162">
+      <c r="E6" s="84">
         <f ca="1">'le mois 03'!AK10</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="161">
+      <c r="A7" s="83">
         <f>'le mois 03'!A11</f>
         <v>45722</v>
       </c>
-      <c r="B7" s="162">
+      <c r="B7" s="84">
         <f ca="1">'le mois 03'!AH11</f>
         <v>0</v>
       </c>
-      <c r="C7" s="162">
+      <c r="C7" s="84">
         <f ca="1">'le mois 03'!AI11</f>
         <v>0</v>
       </c>
-      <c r="D7" s="162">
+      <c r="D7" s="84">
         <f ca="1">'le mois 03'!AJ11</f>
         <v>0</v>
       </c>
-      <c r="E7" s="162">
+      <c r="E7" s="84">
         <f ca="1">'le mois 03'!AK11</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="161">
+      <c r="A8" s="83">
         <f>'le mois 03'!A12</f>
         <v>45723</v>
       </c>
-      <c r="B8" s="162">
+      <c r="B8" s="84">
         <f ca="1">'le mois 03'!AH12</f>
         <v>0</v>
       </c>
-      <c r="C8" s="162">
+      <c r="C8" s="84">
         <f ca="1">'le mois 03'!AI12</f>
         <v>0</v>
       </c>
-      <c r="D8" s="162">
+      <c r="D8" s="84">
         <f ca="1">'le mois 03'!AJ12</f>
         <v>0</v>
       </c>
-      <c r="E8" s="162">
+      <c r="E8" s="84">
         <f ca="1">'le mois 03'!AK12</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="161">
+      <c r="A9" s="83">
         <f>'le mois 03'!A13</f>
         <v>45724</v>
       </c>
-      <c r="B9" s="162">
+      <c r="B9" s="84">
         <f ca="1">'le mois 03'!AH13</f>
         <v>0</v>
       </c>
-      <c r="C9" s="162">
+      <c r="C9" s="84">
         <f ca="1">'le mois 03'!AI13</f>
         <v>0</v>
       </c>
-      <c r="D9" s="162">
+      <c r="D9" s="84">
         <f ca="1">'le mois 03'!AJ13</f>
         <v>0</v>
       </c>
-      <c r="E9" s="162">
+      <c r="E9" s="84">
         <f ca="1">'le mois 03'!AK13</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="161">
+      <c r="A10" s="83">
         <f>'le mois 03'!A14</f>
         <v>45725</v>
       </c>
-      <c r="B10" s="162">
+      <c r="B10" s="84">
         <f ca="1">'le mois 03'!AH14</f>
         <v>0</v>
       </c>
-      <c r="C10" s="162">
+      <c r="C10" s="84">
         <f ca="1">'le mois 03'!AI14</f>
         <v>0</v>
       </c>
-      <c r="D10" s="162">
+      <c r="D10" s="84">
         <f ca="1">'le mois 03'!AJ14</f>
         <v>0</v>
       </c>
-      <c r="E10" s="162">
+      <c r="E10" s="84">
         <f ca="1">'le mois 03'!AK14</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="161">
+      <c r="A11" s="83">
         <f>'le mois 03'!A15</f>
         <v>45726</v>
       </c>
-      <c r="B11" s="162">
+      <c r="B11" s="84">
         <f ca="1">'le mois 03'!AH15</f>
         <v>0</v>
       </c>
-      <c r="C11" s="162">
+      <c r="C11" s="84">
         <f ca="1">'le mois 03'!AI15</f>
         <v>0</v>
       </c>
-      <c r="D11" s="162">
+      <c r="D11" s="84">
         <f ca="1">'le mois 03'!AJ15</f>
         <v>0</v>
       </c>
-      <c r="E11" s="162">
+      <c r="E11" s="84">
         <f ca="1">'le mois 03'!AK15</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="161">
+      <c r="A12" s="83">
         <f>'le mois 03'!A16</f>
         <v>45727</v>
       </c>
-      <c r="B12" s="162">
+      <c r="B12" s="84">
         <f ca="1">'le mois 03'!AH16</f>
         <v>0</v>
       </c>
-      <c r="C12" s="162">
+      <c r="C12" s="84">
         <f ca="1">'le mois 03'!AI16</f>
         <v>0</v>
       </c>
-      <c r="D12" s="162">
+      <c r="D12" s="84">
         <f ca="1">'le mois 03'!AJ16</f>
         <v>0</v>
       </c>
-      <c r="E12" s="162">
+      <c r="E12" s="84">
         <f ca="1">'le mois 03'!AK16</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="161">
+      <c r="A13" s="83">
         <f>'le mois 03'!A17</f>
         <v>45728</v>
       </c>
-      <c r="B13" s="162">
+      <c r="B13" s="84">
         <f ca="1">'le mois 03'!AH17</f>
         <v>0</v>
       </c>
-      <c r="C13" s="162">
+      <c r="C13" s="84">
         <f ca="1">'le mois 03'!AI17</f>
         <v>0</v>
       </c>
-      <c r="D13" s="162">
+      <c r="D13" s="84">
         <f ca="1">'le mois 03'!AJ17</f>
         <v>0</v>
       </c>
-      <c r="E13" s="162">
+      <c r="E13" s="84">
         <f ca="1">'le mois 03'!AK17</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="161">
+      <c r="A14" s="83">
         <f>'le mois 03'!A18</f>
         <v>45729</v>
       </c>
-      <c r="B14" s="162">
+      <c r="B14" s="84">
         <f ca="1">'le mois 03'!AH18</f>
         <v>0</v>
       </c>
-      <c r="C14" s="162">
+      <c r="C14" s="84">
         <f ca="1">'le mois 03'!AI18</f>
         <v>0</v>
       </c>
-      <c r="D14" s="162">
+      <c r="D14" s="84">
         <f ca="1">'le mois 03'!AJ18</f>
         <v>0</v>
       </c>
-      <c r="E14" s="162">
+      <c r="E14" s="84">
         <f ca="1">'le mois 03'!AK18</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="161">
+      <c r="A15" s="83">
         <f>'le mois 03'!A19</f>
         <v>45730</v>
       </c>
-      <c r="B15" s="162">
+      <c r="B15" s="84">
         <f ca="1">'le mois 03'!AH19</f>
         <v>0</v>
       </c>
-      <c r="C15" s="162">
+      <c r="C15" s="84">
         <f ca="1">'le mois 03'!AI19</f>
         <v>0</v>
       </c>
-      <c r="D15" s="162">
+      <c r="D15" s="84">
         <f ca="1">'le mois 03'!AJ19</f>
         <v>0</v>
       </c>
-      <c r="E15" s="162">
+      <c r="E15" s="84">
         <f ca="1">'le mois 03'!AK19</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="161">
+      <c r="A16" s="83">
         <f>'le mois 03'!A20</f>
         <v>45731</v>
       </c>
-      <c r="B16" s="162">
+      <c r="B16" s="84">
         <f ca="1">'le mois 03'!AH20</f>
         <v>0</v>
       </c>
-      <c r="C16" s="162">
+      <c r="C16" s="84">
         <f ca="1">'le mois 03'!AI20</f>
         <v>0</v>
       </c>
-      <c r="D16" s="162">
+      <c r="D16" s="84">
         <f ca="1">'le mois 03'!AJ20</f>
         <v>0</v>
       </c>
-      <c r="E16" s="162">
+      <c r="E16" s="84">
         <f ca="1">'le mois 03'!AK20</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="161">
+      <c r="A17" s="83">
         <f>'le mois 03'!A21</f>
         <v>45732</v>
       </c>
-      <c r="B17" s="162">
+      <c r="B17" s="84">
         <f ca="1">'le mois 03'!AH21</f>
         <v>0</v>
       </c>
-      <c r="C17" s="162">
+      <c r="C17" s="84">
         <f ca="1">'le mois 03'!AI21</f>
         <v>0</v>
       </c>
-      <c r="D17" s="162">
+      <c r="D17" s="84">
         <f ca="1">'le mois 03'!AJ21</f>
         <v>0</v>
       </c>
-      <c r="E17" s="162">
+      <c r="E17" s="84">
         <f ca="1">'le mois 03'!AK21</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="161">
+      <c r="A18" s="83">
         <f>'le mois 03'!A22</f>
         <v>45733</v>
       </c>
-      <c r="B18" s="162">
+      <c r="B18" s="84">
         <f ca="1">'le mois 03'!AH22</f>
         <v>0</v>
       </c>
-      <c r="C18" s="162">
+      <c r="C18" s="84">
         <f ca="1">'le mois 03'!AI22</f>
         <v>0</v>
       </c>
-      <c r="D18" s="162">
+      <c r="D18" s="84">
         <f ca="1">'le mois 03'!AJ22</f>
         <v>0</v>
       </c>
-      <c r="E18" s="162">
+      <c r="E18" s="84">
         <f ca="1">'le mois 03'!AK22</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="161">
+      <c r="A19" s="83">
         <f>'le mois 03'!A23</f>
         <v>45734</v>
       </c>
-      <c r="B19" s="162">
+      <c r="B19" s="84">
         <f ca="1">'le mois 03'!AH23</f>
         <v>0</v>
       </c>
-      <c r="C19" s="162">
+      <c r="C19" s="84">
         <f ca="1">'le mois 03'!AI23</f>
         <v>0</v>
       </c>
-      <c r="D19" s="162">
+      <c r="D19" s="84">
         <f ca="1">'le mois 03'!AJ23</f>
         <v>0</v>
       </c>
-      <c r="E19" s="162">
+      <c r="E19" s="84">
         <f ca="1">'le mois 03'!AK23</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="161">
+      <c r="A20" s="83">
         <f>'le mois 03'!A24</f>
         <v>45735</v>
       </c>
-      <c r="B20" s="162">
+      <c r="B20" s="84">
         <f>'le mois 03'!AH24</f>
         <v>6.38</v>
       </c>
-      <c r="C20" s="162">
+      <c r="C20" s="84">
         <f>'le mois 03'!AI24</f>
         <v>1.25</v>
       </c>
-      <c r="D20" s="162">
+      <c r="D20" s="84">
         <f>'le mois 03'!AJ24</f>
         <v>0.02</v>
       </c>
-      <c r="E20" s="162">
+      <c r="E20" s="84">
         <f>'le mois 03'!AK24</f>
         <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="161">
+      <c r="A21" s="83">
         <f>'le mois 03'!A25</f>
         <v>45736</v>
       </c>
-      <c r="B21" s="162">
+      <c r="B21" s="84">
         <f ca="1">'le mois 03'!AH25</f>
         <v>0</v>
       </c>
-      <c r="C21" s="162">
+      <c r="C21" s="84">
         <f ca="1">'le mois 03'!AI25</f>
         <v>0</v>
       </c>
-      <c r="D21" s="162">
+      <c r="D21" s="84">
         <f ca="1">'le mois 03'!AJ25</f>
         <v>0</v>
       </c>
-      <c r="E21" s="162">
+      <c r="E21" s="84">
         <f ca="1">'le mois 03'!AK25</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="161">
+      <c r="A22" s="83">
         <f>'le mois 03'!A26</f>
         <v>45737</v>
       </c>
-      <c r="B22" s="162">
+      <c r="B22" s="84">
         <f ca="1">'le mois 03'!AH26</f>
         <v>0</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="84">
         <f ca="1">'le mois 03'!AI26</f>
         <v>0</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="84">
         <f ca="1">'le mois 03'!AJ26</f>
         <v>0</v>
       </c>
-      <c r="E22" s="162">
+      <c r="E22" s="84">
         <f ca="1">'le mois 03'!AK26</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="161">
+      <c r="A23" s="83">
         <f>'le mois 03'!A27</f>
         <v>45738</v>
       </c>
-      <c r="B23" s="162">
+      <c r="B23" s="84">
         <f ca="1">'le mois 03'!AH27</f>
         <v>0</v>
       </c>
-      <c r="C23" s="162">
+      <c r="C23" s="84">
         <f ca="1">'le mois 03'!AI27</f>
         <v>0</v>
       </c>
-      <c r="D23" s="162">
+      <c r="D23" s="84">
         <f ca="1">'le mois 03'!AJ27</f>
         <v>0</v>
       </c>
-      <c r="E23" s="162">
+      <c r="E23" s="84">
         <f ca="1">'le mois 03'!AK27</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="161">
+      <c r="A24" s="83">
         <f>'le mois 03'!A28</f>
         <v>45739</v>
       </c>
-      <c r="B24" s="162">
+      <c r="B24" s="84">
         <f ca="1">'le mois 03'!AH28</f>
         <v>0</v>
       </c>
-      <c r="C24" s="162">
+      <c r="C24" s="84">
         <f ca="1">'le mois 03'!AI28</f>
         <v>0</v>
       </c>
-      <c r="D24" s="162">
+      <c r="D24" s="84">
         <f ca="1">'le mois 03'!AJ28</f>
         <v>0</v>
       </c>
-      <c r="E24" s="162">
+      <c r="E24" s="84">
         <f ca="1">'le mois 03'!AK28</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="161">
+      <c r="A25" s="83">
         <f>'le mois 03'!A29</f>
         <v>45740</v>
       </c>
-      <c r="B25" s="162">
+      <c r="B25" s="84">
         <f ca="1">'le mois 03'!AH29</f>
         <v>0</v>
       </c>
-      <c r="C25" s="162">
+      <c r="C25" s="84">
         <f ca="1">'le mois 03'!AI29</f>
         <v>0</v>
       </c>
-      <c r="D25" s="162">
+      <c r="D25" s="84">
         <f ca="1">'le mois 03'!AJ29</f>
         <v>0</v>
       </c>
-      <c r="E25" s="162">
+      <c r="E25" s="84">
         <f ca="1">'le mois 03'!AK29</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="161">
+      <c r="A26" s="83">
         <f>'le mois 03'!A30</f>
         <v>45741</v>
       </c>
-      <c r="B26" s="162">
+      <c r="B26" s="84">
         <f ca="1">'le mois 03'!AH30</f>
         <v>0</v>
       </c>
-      <c r="C26" s="162">
+      <c r="C26" s="84">
         <f ca="1">'le mois 03'!AI30</f>
         <v>0</v>
       </c>
-      <c r="D26" s="162">
+      <c r="D26" s="84">
         <f ca="1">'le mois 03'!AJ30</f>
         <v>0</v>
       </c>
-      <c r="E26" s="162">
+      <c r="E26" s="84">
         <f ca="1">'le mois 03'!AK30</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="161">
+      <c r="A27" s="83">
         <f>'le mois 03'!A31</f>
         <v>45742</v>
       </c>
-      <c r="B27" s="162">
+      <c r="B27" s="84">
         <f ca="1">'le mois 03'!AH31</f>
         <v>0</v>
       </c>
-      <c r="C27" s="162">
+      <c r="C27" s="84">
         <f ca="1">'le mois 03'!AI31</f>
         <v>0</v>
       </c>
-      <c r="D27" s="162">
+      <c r="D27" s="84">
         <f ca="1">'le mois 03'!AJ31</f>
         <v>0</v>
       </c>
-      <c r="E27" s="162">
+      <c r="E27" s="84">
         <f ca="1">'le mois 03'!AK31</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="161">
+      <c r="A28" s="83">
         <f>'le mois 03'!A32</f>
         <v>45743</v>
       </c>
-      <c r="B28" s="162">
+      <c r="B28" s="84">
         <f ca="1">'le mois 03'!AH32</f>
         <v>0</v>
       </c>
-      <c r="C28" s="162">
+      <c r="C28" s="84">
         <f ca="1">'le mois 03'!AI32</f>
         <v>0</v>
       </c>
-      <c r="D28" s="162">
+      <c r="D28" s="84">
         <f ca="1">'le mois 03'!AJ32</f>
         <v>0</v>
       </c>
-      <c r="E28" s="162">
+      <c r="E28" s="84">
         <f ca="1">'le mois 03'!AK32</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="161">
+      <c r="A29" s="83">
         <f>'le mois 03'!A33</f>
         <v>45744</v>
       </c>
-      <c r="B29" s="162">
+      <c r="B29" s="84">
         <f ca="1">'le mois 03'!AH33</f>
         <v>0</v>
       </c>
-      <c r="C29" s="162">
+      <c r="C29" s="84">
         <f ca="1">'le mois 03'!AI33</f>
         <v>0</v>
       </c>
-      <c r="D29" s="162">
+      <c r="D29" s="84">
         <f ca="1">'le mois 03'!AJ33</f>
         <v>0</v>
       </c>
-      <c r="E29" s="162">
+      <c r="E29" s="84">
         <f ca="1">'le mois 03'!AK33</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="161">
+      <c r="A30" s="83">
         <f>'le mois 03'!A34</f>
         <v>45745</v>
       </c>
-      <c r="B30" s="162">
+      <c r="B30" s="84">
         <f ca="1">'le mois 03'!AH34</f>
         <v>0</v>
       </c>
-      <c r="C30" s="162">
+      <c r="C30" s="84">
         <f ca="1">'le mois 03'!AI34</f>
         <v>0</v>
       </c>
-      <c r="D30" s="162">
+      <c r="D30" s="84">
         <f ca="1">'le mois 03'!AJ34</f>
         <v>0</v>
       </c>
-      <c r="E30" s="162">
+      <c r="E30" s="84">
         <f ca="1">'le mois 03'!AK34</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="161">
+      <c r="A31" s="83">
         <f>'le mois 03'!A35</f>
         <v>45746</v>
       </c>
-      <c r="B31" s="162">
+      <c r="B31" s="84">
         <f ca="1">'le mois 03'!AH35</f>
         <v>0</v>
       </c>
-      <c r="C31" s="162">
+      <c r="C31" s="84">
         <f ca="1">'le mois 03'!AI35</f>
         <v>0</v>
       </c>
-      <c r="D31" s="162">
+      <c r="D31" s="84">
         <f ca="1">'le mois 03'!AJ35</f>
         <v>0</v>
       </c>
-      <c r="E31" s="162">
+      <c r="E31" s="84">
         <f ca="1">'le mois 03'!AK35</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="161">
+      <c r="A32" s="83">
         <f>'le mois 03'!A36</f>
         <v>45747</v>
       </c>
-      <c r="B32" s="162">
+      <c r="B32" s="84">
         <f ca="1">'le mois 03'!AH36</f>
         <v>0</v>
       </c>
-      <c r="C32" s="162">
+      <c r="C32" s="84">
         <f ca="1">'le mois 03'!AI36</f>
         <v>0</v>
       </c>
-      <c r="D32" s="162">
+      <c r="D32" s="84">
         <f ca="1">'le mois 03'!AJ36</f>
         <v>0</v>
       </c>
-      <c r="E32" s="162">
+      <c r="E32" s="84">
         <f ca="1">'le mois 03'!AK36</f>
         <v>0</v>
       </c>
@@ -7834,14 +7834,14 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7861,13 +7861,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="131"/>
+      <c r="D7" s="154"/>
       <c r="E7" s="31">
         <v>8.25</v>
       </c>
@@ -7882,11 +7882,11 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="132" t="s">
+      <c r="B8" s="141"/>
+      <c r="C8" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="133"/>
+      <c r="D8" s="156"/>
       <c r="E8" s="32">
         <v>7.43</v>
       </c>
@@ -7901,11 +7901,11 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="132" t="s">
+      <c r="B9" s="141"/>
+      <c r="C9" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="133"/>
+      <c r="D9" s="156"/>
       <c r="E9" s="32">
         <v>50400</v>
       </c>
@@ -7920,11 +7920,11 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="132" t="s">
+      <c r="B10" s="141"/>
+      <c r="C10" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="133"/>
+      <c r="D10" s="156"/>
       <c r="E10" s="32">
         <v>16.2</v>
       </c>
@@ -7939,11 +7939,11 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="132" t="s">
+      <c r="B11" s="141"/>
+      <c r="C11" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="133"/>
+      <c r="D11" s="156"/>
       <c r="E11" s="32">
         <v>0</v>
       </c>
@@ -7958,11 +7958,11 @@
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="136" t="s">
+      <c r="B12" s="142"/>
+      <c r="C12" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="137"/>
+      <c r="D12" s="158"/>
       <c r="E12" s="33">
         <v>170.1</v>
       </c>
@@ -7977,13 +7977,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="139"/>
+      <c r="D13" s="160"/>
       <c r="E13" s="34">
         <v>0.92</v>
       </c>
@@ -7998,11 +7998,11 @@
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="140" t="s">
+      <c r="B14" s="144"/>
+      <c r="C14" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="141"/>
+      <c r="D14" s="162"/>
       <c r="E14" s="35">
         <v>0.01</v>
       </c>
@@ -8017,13 +8017,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="119" t="s">
+      <c r="B15" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="142" t="s">
+      <c r="C15" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="143"/>
+      <c r="D15" s="164"/>
       <c r="E15" s="36">
         <v>2.76</v>
       </c>
@@ -8038,11 +8038,11 @@
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="144" t="s">
+      <c r="B16" s="146"/>
+      <c r="C16" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="145"/>
+      <c r="D16" s="139"/>
       <c r="E16" s="37">
         <v>2.4500000000000002</v>
       </c>
@@ -8057,13 +8057,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="146" t="s">
+      <c r="C17" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="147"/>
+      <c r="D17" s="120"/>
       <c r="E17" s="38">
         <v>16.399999999999999</v>
       </c>
@@ -8078,11 +8078,11 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="148" t="s">
+      <c r="B18" s="126"/>
+      <c r="C18" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="149"/>
+      <c r="D18" s="122"/>
       <c r="E18" s="38">
         <v>48300</v>
       </c>
@@ -8097,11 +8097,11 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="148" t="s">
+      <c r="B19" s="126"/>
+      <c r="C19" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="149"/>
+      <c r="D19" s="122"/>
       <c r="E19" s="38">
         <v>7.21</v>
       </c>
@@ -8116,11 +8116,11 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="148" t="s">
+      <c r="B20" s="126"/>
+      <c r="C20" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="149"/>
+      <c r="D20" s="122"/>
       <c r="E20" s="38">
         <v>0.67</v>
       </c>
@@ -8135,11 +8135,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="148" t="s">
+      <c r="B21" s="126"/>
+      <c r="C21" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="149"/>
+      <c r="D21" s="122"/>
       <c r="E21" s="38">
         <v>0</v>
       </c>
@@ -8154,11 +8154,11 @@
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="134" t="s">
+      <c r="B22" s="127"/>
+      <c r="C22" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="135"/>
+      <c r="D22" s="124"/>
       <c r="E22" s="38">
         <v>172.1</v>
       </c>
@@ -8173,13 +8173,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="121" t="s">
+      <c r="B23" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="146" t="s">
+      <c r="C23" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="147"/>
+      <c r="D23" s="120"/>
       <c r="E23" s="38">
         <v>16.3</v>
       </c>
@@ -8194,11 +8194,11 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="148" t="s">
+      <c r="B24" s="126"/>
+      <c r="C24" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="149"/>
+      <c r="D24" s="122"/>
       <c r="E24" s="39">
         <v>48100</v>
       </c>
@@ -8213,11 +8213,11 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="148" t="s">
+      <c r="B25" s="126"/>
+      <c r="C25" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="149"/>
+      <c r="D25" s="122"/>
       <c r="E25" s="39">
         <v>8.18</v>
       </c>
@@ -8232,11 +8232,11 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="148" t="s">
+      <c r="B26" s="126"/>
+      <c r="C26" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="149"/>
+      <c r="D26" s="122"/>
       <c r="E26" s="39">
         <v>0.46</v>
       </c>
@@ -8251,11 +8251,11 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="148" t="s">
+      <c r="B27" s="126"/>
+      <c r="C27" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="149"/>
+      <c r="D27" s="122"/>
       <c r="E27" s="39">
         <v>0</v>
       </c>
@@ -8270,11 +8270,11 @@
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
-      <c r="B28" s="123"/>
-      <c r="C28" s="134" t="s">
+      <c r="B28" s="127"/>
+      <c r="C28" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="135"/>
+      <c r="D28" s="124"/>
       <c r="E28" s="40">
         <v>173.7</v>
       </c>
@@ -8288,10 +8288,10 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="127" t="s">
+      <c r="B29" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="124" t="s">
+      <c r="C29" s="147" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -8310,8 +8310,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="128"/>
-      <c r="C30" s="125"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="148"/>
       <c r="D30" s="1" t="s">
         <v>14</v>
       </c>
@@ -8326,8 +8326,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="128"/>
-      <c r="C31" s="125"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="148"/>
       <c r="D31" s="1" t="s">
         <v>15</v>
       </c>
@@ -8342,8 +8342,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="128"/>
-      <c r="C32" s="125"/>
+      <c r="B32" s="151"/>
+      <c r="C32" s="148"/>
       <c r="D32" s="1" t="s">
         <v>16</v>
       </c>
@@ -8358,8 +8358,8 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="128"/>
-      <c r="C33" s="125"/>
+      <c r="B33" s="151"/>
+      <c r="C33" s="148"/>
       <c r="D33" s="1" t="s">
         <v>17</v>
       </c>
@@ -8374,8 +8374,8 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="128"/>
-      <c r="C34" s="125"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="148"/>
       <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
@@ -8390,8 +8390,8 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="128"/>
-      <c r="C35" s="125"/>
+      <c r="B35" s="151"/>
+      <c r="C35" s="148"/>
       <c r="D35" s="1" t="s">
         <v>19</v>
       </c>
@@ -8406,8 +8406,8 @@
       </c>
     </row>
     <row r="36" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="129"/>
-      <c r="C36" s="126"/>
+      <c r="B36" s="152"/>
+      <c r="C36" s="149"/>
       <c r="D36" s="3" t="s">
         <v>20</v>
       </c>
@@ -8422,13 +8422,13 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="157" t="s">
+      <c r="B37" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="155" t="s">
+      <c r="C37" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="155"/>
+      <c r="D37" s="132"/>
       <c r="E37" s="41">
         <v>387</v>
       </c>
@@ -8440,11 +8440,11 @@
       </c>
     </row>
     <row r="38" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="158"/>
-      <c r="C38" s="156" t="s">
+      <c r="B38" s="135"/>
+      <c r="C38" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="156"/>
+      <c r="D38" s="133"/>
       <c r="E38" s="42">
         <v>5.97</v>
       </c>
@@ -8456,13 +8456,13 @@
       </c>
     </row>
     <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="151" t="s">
+      <c r="B39" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="159" t="s">
+      <c r="C39" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="159"/>
+      <c r="D39" s="136"/>
       <c r="E39" s="43">
         <v>6.38</v>
       </c>
@@ -8474,11 +8474,11 @@
       </c>
     </row>
     <row r="40" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="152"/>
-      <c r="C40" s="160" t="s">
+      <c r="B40" s="130"/>
+      <c r="C40" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="160"/>
+      <c r="D40" s="137"/>
       <c r="E40" s="44">
         <v>1.25</v>
       </c>
@@ -8490,11 +8490,11 @@
       </c>
     </row>
     <row r="41" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="152"/>
-      <c r="C41" s="160" t="s">
+      <c r="B41" s="130"/>
+      <c r="C41" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="160"/>
+      <c r="D41" s="137"/>
       <c r="E41" s="44">
         <v>0.02</v>
       </c>
@@ -8506,11 +8506,11 @@
       </c>
     </row>
     <row r="42" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="153"/>
-      <c r="C42" s="150" t="s">
+      <c r="B42" s="131"/>
+      <c r="C42" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="150"/>
+      <c r="D42" s="128"/>
       <c r="E42" s="45">
         <v>364</v>
       </c>
@@ -8523,31 +8523,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="B23:B28"/>
     <mergeCell ref="C29:C36"/>
     <mergeCell ref="B29:B36"/>
@@ -8561,6 +8536,31 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
@@ -8614,931 +8614,931 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="161">
+      <c r="A2" s="83">
         <f>'le mois 03'!A6</f>
         <v>45717</v>
       </c>
-      <c r="B2" s="162">
+      <c r="B2" s="84">
         <f ca="1">'le mois 03'!B6</f>
         <v>0</v>
       </c>
-      <c r="C2" s="162">
+      <c r="C2" s="84">
         <f ca="1">'le mois 03'!C6</f>
         <v>0</v>
       </c>
-      <c r="D2" s="162">
+      <c r="D2" s="84">
         <f ca="1">'le mois 03'!D6</f>
         <v>0</v>
       </c>
-      <c r="E2" s="162">
+      <c r="E2" s="84">
         <f ca="1">'le mois 03'!E6</f>
         <v>0</v>
       </c>
-      <c r="F2" s="162">
+      <c r="F2" s="84">
         <f ca="1">'le mois 03'!F6</f>
         <v>0</v>
       </c>
-      <c r="G2" s="162">
+      <c r="G2" s="84">
         <f ca="1">'le mois 03'!G6</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="161">
+      <c r="A3" s="83">
         <f>'le mois 03'!A7</f>
         <v>45718</v>
       </c>
-      <c r="B3" s="162">
+      <c r="B3" s="84">
         <f ca="1">'le mois 03'!B7</f>
         <v>0</v>
       </c>
-      <c r="C3" s="162">
+      <c r="C3" s="84">
         <f ca="1">'le mois 03'!C7</f>
         <v>0</v>
       </c>
-      <c r="D3" s="162">
+      <c r="D3" s="84">
         <f ca="1">'le mois 03'!D7</f>
         <v>0</v>
       </c>
-      <c r="E3" s="162">
+      <c r="E3" s="84">
         <f ca="1">'le mois 03'!E7</f>
         <v>0</v>
       </c>
-      <c r="F3" s="162">
+      <c r="F3" s="84">
         <f ca="1">'le mois 03'!F7</f>
         <v>0</v>
       </c>
-      <c r="G3" s="162">
+      <c r="G3" s="84">
         <f ca="1">'le mois 03'!G7</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="161">
+      <c r="A4" s="83">
         <f>'le mois 03'!A8</f>
         <v>45719</v>
       </c>
-      <c r="B4" s="162">
+      <c r="B4" s="84">
         <f ca="1">'le mois 03'!B8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="162">
+      <c r="C4" s="84">
         <f ca="1">'le mois 03'!C8</f>
         <v>0</v>
       </c>
-      <c r="D4" s="162">
+      <c r="D4" s="84">
         <f ca="1">'le mois 03'!D8</f>
         <v>0</v>
       </c>
-      <c r="E4" s="162">
+      <c r="E4" s="84">
         <f ca="1">'le mois 03'!E8</f>
         <v>0</v>
       </c>
-      <c r="F4" s="162">
+      <c r="F4" s="84">
         <f ca="1">'le mois 03'!F8</f>
         <v>0</v>
       </c>
-      <c r="G4" s="162">
+      <c r="G4" s="84">
         <f ca="1">'le mois 03'!G8</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="161">
+      <c r="A5" s="83">
         <f>'le mois 03'!A9</f>
         <v>45720</v>
       </c>
-      <c r="B5" s="162">
+      <c r="B5" s="84">
         <f ca="1">'le mois 03'!B9</f>
         <v>0</v>
       </c>
-      <c r="C5" s="162">
+      <c r="C5" s="84">
         <f ca="1">'le mois 03'!C9</f>
         <v>0</v>
       </c>
-      <c r="D5" s="162">
+      <c r="D5" s="84">
         <f ca="1">'le mois 03'!D9</f>
         <v>0</v>
       </c>
-      <c r="E5" s="162">
+      <c r="E5" s="84">
         <f ca="1">'le mois 03'!E9</f>
         <v>0</v>
       </c>
-      <c r="F5" s="162">
+      <c r="F5" s="84">
         <f ca="1">'le mois 03'!F9</f>
         <v>0</v>
       </c>
-      <c r="G5" s="162">
+      <c r="G5" s="84">
         <f ca="1">'le mois 03'!G9</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="161">
+      <c r="A6" s="83">
         <f>'le mois 03'!A10</f>
         <v>45721</v>
       </c>
-      <c r="B6" s="162">
+      <c r="B6" s="84">
         <f ca="1">'le mois 03'!B10</f>
         <v>0</v>
       </c>
-      <c r="C6" s="162">
+      <c r="C6" s="84">
         <f ca="1">'le mois 03'!C10</f>
         <v>0</v>
       </c>
-      <c r="D6" s="162">
+      <c r="D6" s="84">
         <f ca="1">'le mois 03'!D10</f>
         <v>0</v>
       </c>
-      <c r="E6" s="162">
+      <c r="E6" s="84">
         <f ca="1">'le mois 03'!E10</f>
         <v>0</v>
       </c>
-      <c r="F6" s="162">
+      <c r="F6" s="84">
         <f ca="1">'le mois 03'!F10</f>
         <v>0</v>
       </c>
-      <c r="G6" s="162">
+      <c r="G6" s="84">
         <f ca="1">'le mois 03'!G10</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="161">
+      <c r="A7" s="83">
         <f>'le mois 03'!A11</f>
         <v>45722</v>
       </c>
-      <c r="B7" s="162">
+      <c r="B7" s="84">
         <f ca="1">'le mois 03'!B11</f>
         <v>0</v>
       </c>
-      <c r="C7" s="162">
+      <c r="C7" s="84">
         <f ca="1">'le mois 03'!C11</f>
         <v>0</v>
       </c>
-      <c r="D7" s="162">
+      <c r="D7" s="84">
         <f ca="1">'le mois 03'!D11</f>
         <v>0</v>
       </c>
-      <c r="E7" s="162">
+      <c r="E7" s="84">
         <f ca="1">'le mois 03'!E11</f>
         <v>0</v>
       </c>
-      <c r="F7" s="162">
+      <c r="F7" s="84">
         <f ca="1">'le mois 03'!F11</f>
         <v>0</v>
       </c>
-      <c r="G7" s="162">
+      <c r="G7" s="84">
         <f ca="1">'le mois 03'!G11</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="161">
+      <c r="A8" s="83">
         <f>'le mois 03'!A12</f>
         <v>45723</v>
       </c>
-      <c r="B8" s="162">
+      <c r="B8" s="84">
         <f ca="1">'le mois 03'!B12</f>
         <v>0</v>
       </c>
-      <c r="C8" s="162">
+      <c r="C8" s="84">
         <f ca="1">'le mois 03'!C12</f>
         <v>0</v>
       </c>
-      <c r="D8" s="162">
+      <c r="D8" s="84">
         <f ca="1">'le mois 03'!D12</f>
         <v>0</v>
       </c>
-      <c r="E8" s="162">
+      <c r="E8" s="84">
         <f ca="1">'le mois 03'!E12</f>
         <v>0</v>
       </c>
-      <c r="F8" s="162">
+      <c r="F8" s="84">
         <f ca="1">'le mois 03'!F12</f>
         <v>0</v>
       </c>
-      <c r="G8" s="162">
+      <c r="G8" s="84">
         <f ca="1">'le mois 03'!G12</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="161">
+      <c r="A9" s="83">
         <f>'le mois 03'!A13</f>
         <v>45724</v>
       </c>
-      <c r="B9" s="162">
+      <c r="B9" s="84">
         <f ca="1">'le mois 03'!B13</f>
         <v>0</v>
       </c>
-      <c r="C9" s="162">
+      <c r="C9" s="84">
         <f ca="1">'le mois 03'!C13</f>
         <v>0</v>
       </c>
-      <c r="D9" s="162">
+      <c r="D9" s="84">
         <f ca="1">'le mois 03'!D13</f>
         <v>0</v>
       </c>
-      <c r="E9" s="162">
+      <c r="E9" s="84">
         <f ca="1">'le mois 03'!E13</f>
         <v>0</v>
       </c>
-      <c r="F9" s="162">
+      <c r="F9" s="84">
         <f ca="1">'le mois 03'!F13</f>
         <v>0</v>
       </c>
-      <c r="G9" s="162">
+      <c r="G9" s="84">
         <f ca="1">'le mois 03'!G13</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="161">
+      <c r="A10" s="83">
         <f>'le mois 03'!A14</f>
         <v>45725</v>
       </c>
-      <c r="B10" s="162">
+      <c r="B10" s="84">
         <f ca="1">'le mois 03'!B14</f>
         <v>0</v>
       </c>
-      <c r="C10" s="162">
+      <c r="C10" s="84">
         <f ca="1">'le mois 03'!C14</f>
         <v>0</v>
       </c>
-      <c r="D10" s="162">
+      <c r="D10" s="84">
         <f ca="1">'le mois 03'!D14</f>
         <v>0</v>
       </c>
-      <c r="E10" s="162">
+      <c r="E10" s="84">
         <f ca="1">'le mois 03'!E14</f>
         <v>0</v>
       </c>
-      <c r="F10" s="162">
+      <c r="F10" s="84">
         <f ca="1">'le mois 03'!F14</f>
         <v>0</v>
       </c>
-      <c r="G10" s="162">
+      <c r="G10" s="84">
         <f ca="1">'le mois 03'!G14</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="161">
+      <c r="A11" s="83">
         <f>'le mois 03'!A15</f>
         <v>45726</v>
       </c>
-      <c r="B11" s="162">
+      <c r="B11" s="84">
         <f ca="1">'le mois 03'!B15</f>
         <v>0</v>
       </c>
-      <c r="C11" s="162">
+      <c r="C11" s="84">
         <f ca="1">'le mois 03'!C15</f>
         <v>0</v>
       </c>
-      <c r="D11" s="162">
+      <c r="D11" s="84">
         <f ca="1">'le mois 03'!D15</f>
         <v>0</v>
       </c>
-      <c r="E11" s="162">
+      <c r="E11" s="84">
         <f ca="1">'le mois 03'!E15</f>
         <v>0</v>
       </c>
-      <c r="F11" s="162">
+      <c r="F11" s="84">
         <f ca="1">'le mois 03'!F15</f>
         <v>0</v>
       </c>
-      <c r="G11" s="162">
+      <c r="G11" s="84">
         <f ca="1">'le mois 03'!G15</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="161">
+      <c r="A12" s="83">
         <f>'le mois 03'!A16</f>
         <v>45727</v>
       </c>
-      <c r="B12" s="162">
+      <c r="B12" s="84">
         <f ca="1">'le mois 03'!B16</f>
         <v>0</v>
       </c>
-      <c r="C12" s="162">
+      <c r="C12" s="84">
         <f ca="1">'le mois 03'!C16</f>
         <v>0</v>
       </c>
-      <c r="D12" s="162">
+      <c r="D12" s="84">
         <f ca="1">'le mois 03'!D16</f>
         <v>0</v>
       </c>
-      <c r="E12" s="162">
+      <c r="E12" s="84">
         <f ca="1">'le mois 03'!E16</f>
         <v>0</v>
       </c>
-      <c r="F12" s="162">
+      <c r="F12" s="84">
         <f ca="1">'le mois 03'!F16</f>
         <v>0</v>
       </c>
-      <c r="G12" s="162">
+      <c r="G12" s="84">
         <f ca="1">'le mois 03'!G16</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="161">
+      <c r="A13" s="83">
         <f>'le mois 03'!A17</f>
         <v>45728</v>
       </c>
-      <c r="B13" s="162">
+      <c r="B13" s="84">
         <f ca="1">'le mois 03'!B17</f>
         <v>0</v>
       </c>
-      <c r="C13" s="162">
+      <c r="C13" s="84">
         <f ca="1">'le mois 03'!C17</f>
         <v>0</v>
       </c>
-      <c r="D13" s="162">
+      <c r="D13" s="84">
         <f ca="1">'le mois 03'!D17</f>
         <v>0</v>
       </c>
-      <c r="E13" s="162">
+      <c r="E13" s="84">
         <f ca="1">'le mois 03'!E17</f>
         <v>0</v>
       </c>
-      <c r="F13" s="162">
+      <c r="F13" s="84">
         <f ca="1">'le mois 03'!F17</f>
         <v>0</v>
       </c>
-      <c r="G13" s="162">
+      <c r="G13" s="84">
         <f ca="1">'le mois 03'!G17</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="161">
+      <c r="A14" s="83">
         <f>'le mois 03'!A18</f>
         <v>45729</v>
       </c>
-      <c r="B14" s="162">
+      <c r="B14" s="84">
         <f ca="1">'le mois 03'!B18</f>
         <v>0</v>
       </c>
-      <c r="C14" s="162">
+      <c r="C14" s="84">
         <f ca="1">'le mois 03'!C18</f>
         <v>0</v>
       </c>
-      <c r="D14" s="162">
+      <c r="D14" s="84">
         <f ca="1">'le mois 03'!D18</f>
         <v>0</v>
       </c>
-      <c r="E14" s="162">
+      <c r="E14" s="84">
         <f ca="1">'le mois 03'!E18</f>
         <v>0</v>
       </c>
-      <c r="F14" s="162">
+      <c r="F14" s="84">
         <f ca="1">'le mois 03'!F18</f>
         <v>0</v>
       </c>
-      <c r="G14" s="162">
+      <c r="G14" s="84">
         <f ca="1">'le mois 03'!G18</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="161">
+      <c r="A15" s="83">
         <f>'le mois 03'!A19</f>
         <v>45730</v>
       </c>
-      <c r="B15" s="162">
+      <c r="B15" s="84">
         <f ca="1">'le mois 03'!B19</f>
         <v>0</v>
       </c>
-      <c r="C15" s="162">
+      <c r="C15" s="84">
         <f ca="1">'le mois 03'!C19</f>
         <v>0</v>
       </c>
-      <c r="D15" s="162">
+      <c r="D15" s="84">
         <f ca="1">'le mois 03'!D19</f>
         <v>0</v>
       </c>
-      <c r="E15" s="162">
+      <c r="E15" s="84">
         <f ca="1">'le mois 03'!E19</f>
         <v>0</v>
       </c>
-      <c r="F15" s="162">
+      <c r="F15" s="84">
         <f ca="1">'le mois 03'!F19</f>
         <v>0</v>
       </c>
-      <c r="G15" s="162">
+      <c r="G15" s="84">
         <f ca="1">'le mois 03'!G19</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="161">
+      <c r="A16" s="83">
         <f>'le mois 03'!A20</f>
         <v>45731</v>
       </c>
-      <c r="B16" s="162">
+      <c r="B16" s="84">
         <f ca="1">'le mois 03'!B20</f>
         <v>0</v>
       </c>
-      <c r="C16" s="162">
+      <c r="C16" s="84">
         <f ca="1">'le mois 03'!C20</f>
         <v>0</v>
       </c>
-      <c r="D16" s="162">
+      <c r="D16" s="84">
         <f ca="1">'le mois 03'!D20</f>
         <v>0</v>
       </c>
-      <c r="E16" s="162">
+      <c r="E16" s="84">
         <f ca="1">'le mois 03'!E20</f>
         <v>0</v>
       </c>
-      <c r="F16" s="162">
+      <c r="F16" s="84">
         <f ca="1">'le mois 03'!F20</f>
         <v>0</v>
       </c>
-      <c r="G16" s="162">
+      <c r="G16" s="84">
         <f ca="1">'le mois 03'!G20</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="161">
+      <c r="A17" s="83">
         <f>'le mois 03'!A21</f>
         <v>45732</v>
       </c>
-      <c r="B17" s="162">
+      <c r="B17" s="84">
         <f ca="1">'le mois 03'!B21</f>
         <v>0</v>
       </c>
-      <c r="C17" s="162">
+      <c r="C17" s="84">
         <f ca="1">'le mois 03'!C21</f>
         <v>0</v>
       </c>
-      <c r="D17" s="162">
+      <c r="D17" s="84">
         <f ca="1">'le mois 03'!D21</f>
         <v>0</v>
       </c>
-      <c r="E17" s="162">
+      <c r="E17" s="84">
         <f ca="1">'le mois 03'!E21</f>
         <v>0</v>
       </c>
-      <c r="F17" s="162">
+      <c r="F17" s="84">
         <f ca="1">'le mois 03'!F21</f>
         <v>0</v>
       </c>
-      <c r="G17" s="162">
+      <c r="G17" s="84">
         <f ca="1">'le mois 03'!G21</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="161">
+      <c r="A18" s="83">
         <f>'le mois 03'!A22</f>
         <v>45733</v>
       </c>
-      <c r="B18" s="162">
+      <c r="B18" s="84">
         <f ca="1">'le mois 03'!B22</f>
         <v>0</v>
       </c>
-      <c r="C18" s="162">
+      <c r="C18" s="84">
         <f ca="1">'le mois 03'!C22</f>
         <v>0</v>
       </c>
-      <c r="D18" s="162">
+      <c r="D18" s="84">
         <f ca="1">'le mois 03'!D22</f>
         <v>0</v>
       </c>
-      <c r="E18" s="162">
+      <c r="E18" s="84">
         <f ca="1">'le mois 03'!E22</f>
         <v>0</v>
       </c>
-      <c r="F18" s="162">
+      <c r="F18" s="84">
         <f ca="1">'le mois 03'!F22</f>
         <v>0</v>
       </c>
-      <c r="G18" s="162">
+      <c r="G18" s="84">
         <f ca="1">'le mois 03'!G22</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="161">
+      <c r="A19" s="83">
         <f>'le mois 03'!A23</f>
         <v>45734</v>
       </c>
-      <c r="B19" s="162">
+      <c r="B19" s="84">
         <f ca="1">'le mois 03'!B23</f>
         <v>0</v>
       </c>
-      <c r="C19" s="162">
+      <c r="C19" s="84">
         <f ca="1">'le mois 03'!C23</f>
         <v>0</v>
       </c>
-      <c r="D19" s="162">
+      <c r="D19" s="84">
         <f ca="1">'le mois 03'!D23</f>
         <v>0</v>
       </c>
-      <c r="E19" s="162">
+      <c r="E19" s="84">
         <f ca="1">'le mois 03'!E23</f>
         <v>0</v>
       </c>
-      <c r="F19" s="162">
+      <c r="F19" s="84">
         <f ca="1">'le mois 03'!F23</f>
         <v>0</v>
       </c>
-      <c r="G19" s="162">
+      <c r="G19" s="84">
         <f ca="1">'le mois 03'!G23</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="161">
+      <c r="A20" s="83">
         <f>'le mois 03'!A24</f>
         <v>45735</v>
       </c>
-      <c r="B20" s="162">
+      <c r="B20" s="84">
         <f>'le mois 03'!B24</f>
         <v>5.5100000000000007</v>
       </c>
-      <c r="C20" s="162">
+      <c r="C20" s="84">
         <f>'le mois 03'!C24</f>
         <v>5.2133333333333338</v>
       </c>
-      <c r="D20" s="162">
+      <c r="D20" s="84">
         <f>'le mois 03'!D24</f>
         <v>33533.333333333336</v>
       </c>
-      <c r="E20" s="162">
+      <c r="E20" s="84">
         <f>'le mois 03'!E24</f>
         <v>11.533333333333331</v>
       </c>
-      <c r="F20" s="162">
+      <c r="F20" s="84">
         <f>'le mois 03'!F24</f>
         <v>0.02</v>
       </c>
-      <c r="G20" s="162">
+      <c r="G20" s="84">
         <f>'le mois 03'!G24</f>
         <v>113.39999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="161">
+      <c r="A21" s="83">
         <f>'le mois 03'!A25</f>
         <v>45736</v>
       </c>
-      <c r="B21" s="162">
+      <c r="B21" s="84">
         <f ca="1">'le mois 03'!B25</f>
         <v>0</v>
       </c>
-      <c r="C21" s="162">
+      <c r="C21" s="84">
         <f ca="1">'le mois 03'!C25</f>
         <v>0</v>
       </c>
-      <c r="D21" s="162">
+      <c r="D21" s="84">
         <f ca="1">'le mois 03'!D25</f>
         <v>0</v>
       </c>
-      <c r="E21" s="162">
+      <c r="E21" s="84">
         <f ca="1">'le mois 03'!E25</f>
         <v>0</v>
       </c>
-      <c r="F21" s="162">
+      <c r="F21" s="84">
         <f ca="1">'le mois 03'!F25</f>
         <v>0</v>
       </c>
-      <c r="G21" s="162">
+      <c r="G21" s="84">
         <f ca="1">'le mois 03'!G25</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="161">
+      <c r="A22" s="83">
         <f>'le mois 03'!A26</f>
         <v>45737</v>
       </c>
-      <c r="B22" s="162">
+      <c r="B22" s="84">
         <f ca="1">'le mois 03'!B26</f>
         <v>0</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="84">
         <f ca="1">'le mois 03'!C26</f>
         <v>0</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="84">
         <f ca="1">'le mois 03'!D26</f>
         <v>0</v>
       </c>
-      <c r="E22" s="162">
+      <c r="E22" s="84">
         <f ca="1">'le mois 03'!E26</f>
         <v>0</v>
       </c>
-      <c r="F22" s="162">
+      <c r="F22" s="84">
         <f ca="1">'le mois 03'!F26</f>
         <v>0</v>
       </c>
-      <c r="G22" s="162">
+      <c r="G22" s="84">
         <f ca="1">'le mois 03'!G26</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="161">
+      <c r="A23" s="83">
         <f>'le mois 03'!A27</f>
         <v>45738</v>
       </c>
-      <c r="B23" s="162">
+      <c r="B23" s="84">
         <f ca="1">'le mois 03'!B27</f>
         <v>0</v>
       </c>
-      <c r="C23" s="162">
+      <c r="C23" s="84">
         <f ca="1">'le mois 03'!C27</f>
         <v>0</v>
       </c>
-      <c r="D23" s="162">
+      <c r="D23" s="84">
         <f ca="1">'le mois 03'!D27</f>
         <v>0</v>
       </c>
-      <c r="E23" s="162">
+      <c r="E23" s="84">
         <f ca="1">'le mois 03'!E27</f>
         <v>0</v>
       </c>
-      <c r="F23" s="162">
+      <c r="F23" s="84">
         <f ca="1">'le mois 03'!F27</f>
         <v>0</v>
       </c>
-      <c r="G23" s="162">
+      <c r="G23" s="84">
         <f ca="1">'le mois 03'!G27</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="161">
+      <c r="A24" s="83">
         <f>'le mois 03'!A28</f>
         <v>45739</v>
       </c>
-      <c r="B24" s="162">
+      <c r="B24" s="84">
         <f ca="1">'le mois 03'!B28</f>
         <v>0</v>
       </c>
-      <c r="C24" s="162">
+      <c r="C24" s="84">
         <f ca="1">'le mois 03'!C28</f>
         <v>0</v>
       </c>
-      <c r="D24" s="162">
+      <c r="D24" s="84">
         <f ca="1">'le mois 03'!D28</f>
         <v>0</v>
       </c>
-      <c r="E24" s="162">
+      <c r="E24" s="84">
         <f ca="1">'le mois 03'!E28</f>
         <v>0</v>
       </c>
-      <c r="F24" s="162">
+      <c r="F24" s="84">
         <f ca="1">'le mois 03'!F28</f>
         <v>0</v>
       </c>
-      <c r="G24" s="162">
+      <c r="G24" s="84">
         <f ca="1">'le mois 03'!G28</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="161">
+      <c r="A25" s="83">
         <f>'le mois 03'!A29</f>
         <v>45740</v>
       </c>
-      <c r="B25" s="162">
+      <c r="B25" s="84">
         <f ca="1">'le mois 03'!B29</f>
         <v>0</v>
       </c>
-      <c r="C25" s="162">
+      <c r="C25" s="84">
         <f ca="1">'le mois 03'!C29</f>
         <v>0</v>
       </c>
-      <c r="D25" s="162">
+      <c r="D25" s="84">
         <f ca="1">'le mois 03'!D29</f>
         <v>0</v>
       </c>
-      <c r="E25" s="162">
+      <c r="E25" s="84">
         <f ca="1">'le mois 03'!E29</f>
         <v>0</v>
       </c>
-      <c r="F25" s="162">
+      <c r="F25" s="84">
         <f ca="1">'le mois 03'!F29</f>
         <v>0</v>
       </c>
-      <c r="G25" s="162">
+      <c r="G25" s="84">
         <f ca="1">'le mois 03'!G29</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="161">
+      <c r="A26" s="83">
         <f>'le mois 03'!A30</f>
         <v>45741</v>
       </c>
-      <c r="B26" s="162">
+      <c r="B26" s="84">
         <f ca="1">'le mois 03'!B30</f>
         <v>0</v>
       </c>
-      <c r="C26" s="162">
+      <c r="C26" s="84">
         <f ca="1">'le mois 03'!C30</f>
         <v>0</v>
       </c>
-      <c r="D26" s="162">
+      <c r="D26" s="84">
         <f ca="1">'le mois 03'!D30</f>
         <v>0</v>
       </c>
-      <c r="E26" s="162">
+      <c r="E26" s="84">
         <f ca="1">'le mois 03'!E30</f>
         <v>0</v>
       </c>
-      <c r="F26" s="162">
+      <c r="F26" s="84">
         <f ca="1">'le mois 03'!F30</f>
         <v>0</v>
       </c>
-      <c r="G26" s="162">
+      <c r="G26" s="84">
         <f ca="1">'le mois 03'!G30</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="161">
+      <c r="A27" s="83">
         <f>'le mois 03'!A31</f>
         <v>45742</v>
       </c>
-      <c r="B27" s="162">
+      <c r="B27" s="84">
         <f ca="1">'le mois 03'!B31</f>
         <v>0</v>
       </c>
-      <c r="C27" s="162">
+      <c r="C27" s="84">
         <f ca="1">'le mois 03'!C31</f>
         <v>0</v>
       </c>
-      <c r="D27" s="162">
+      <c r="D27" s="84">
         <f ca="1">'le mois 03'!D31</f>
         <v>0</v>
       </c>
-      <c r="E27" s="162">
+      <c r="E27" s="84">
         <f ca="1">'le mois 03'!E31</f>
         <v>0</v>
       </c>
-      <c r="F27" s="162">
+      <c r="F27" s="84">
         <f ca="1">'le mois 03'!F31</f>
         <v>0</v>
       </c>
-      <c r="G27" s="162">
+      <c r="G27" s="84">
         <f ca="1">'le mois 03'!G31</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="161">
+      <c r="A28" s="83">
         <f>'le mois 03'!A32</f>
         <v>45743</v>
       </c>
-      <c r="B28" s="162">
+      <c r="B28" s="84">
         <f ca="1">'le mois 03'!B32</f>
         <v>0</v>
       </c>
-      <c r="C28" s="162">
+      <c r="C28" s="84">
         <f ca="1">'le mois 03'!C32</f>
         <v>0</v>
       </c>
-      <c r="D28" s="162">
+      <c r="D28" s="84">
         <f ca="1">'le mois 03'!D32</f>
         <v>0</v>
       </c>
-      <c r="E28" s="162">
+      <c r="E28" s="84">
         <f ca="1">'le mois 03'!E32</f>
         <v>0</v>
       </c>
-      <c r="F28" s="162">
+      <c r="F28" s="84">
         <f ca="1">'le mois 03'!F32</f>
         <v>0</v>
       </c>
-      <c r="G28" s="162">
+      <c r="G28" s="84">
         <f ca="1">'le mois 03'!G32</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="161">
+      <c r="A29" s="83">
         <f>'le mois 03'!A33</f>
         <v>45744</v>
       </c>
-      <c r="B29" s="162">
+      <c r="B29" s="84">
         <f ca="1">'le mois 03'!B33</f>
         <v>0</v>
       </c>
-      <c r="C29" s="162">
+      <c r="C29" s="84">
         <f ca="1">'le mois 03'!C33</f>
         <v>0</v>
       </c>
-      <c r="D29" s="162">
+      <c r="D29" s="84">
         <f ca="1">'le mois 03'!D33</f>
         <v>0</v>
       </c>
-      <c r="E29" s="162">
+      <c r="E29" s="84">
         <f ca="1">'le mois 03'!E33</f>
         <v>0</v>
       </c>
-      <c r="F29" s="162">
+      <c r="F29" s="84">
         <f ca="1">'le mois 03'!F33</f>
         <v>0</v>
       </c>
-      <c r="G29" s="162">
+      <c r="G29" s="84">
         <f ca="1">'le mois 03'!G33</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="161">
+      <c r="A30" s="83">
         <f>'le mois 03'!A34</f>
         <v>45745</v>
       </c>
-      <c r="B30" s="162">
+      <c r="B30" s="84">
         <f ca="1">'le mois 03'!B34</f>
         <v>0</v>
       </c>
-      <c r="C30" s="162">
+      <c r="C30" s="84">
         <f ca="1">'le mois 03'!C34</f>
         <v>0</v>
       </c>
-      <c r="D30" s="162">
+      <c r="D30" s="84">
         <f ca="1">'le mois 03'!D34</f>
         <v>0</v>
       </c>
-      <c r="E30" s="162">
+      <c r="E30" s="84">
         <f ca="1">'le mois 03'!E34</f>
         <v>0</v>
       </c>
-      <c r="F30" s="162">
+      <c r="F30" s="84">
         <f ca="1">'le mois 03'!F34</f>
         <v>0</v>
       </c>
-      <c r="G30" s="162">
+      <c r="G30" s="84">
         <f ca="1">'le mois 03'!G34</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="161">
+      <c r="A31" s="83">
         <f>'le mois 03'!A35</f>
         <v>45746</v>
       </c>
-      <c r="B31" s="162">
+      <c r="B31" s="84">
         <f ca="1">'le mois 03'!B35</f>
         <v>0</v>
       </c>
-      <c r="C31" s="162">
+      <c r="C31" s="84">
         <f ca="1">'le mois 03'!C35</f>
         <v>0</v>
       </c>
-      <c r="D31" s="162">
+      <c r="D31" s="84">
         <f ca="1">'le mois 03'!D35</f>
         <v>0</v>
       </c>
-      <c r="E31" s="162">
+      <c r="E31" s="84">
         <f ca="1">'le mois 03'!E35</f>
         <v>0</v>
       </c>
-      <c r="F31" s="162">
+      <c r="F31" s="84">
         <f ca="1">'le mois 03'!F35</f>
         <v>0</v>
       </c>
-      <c r="G31" s="162">
+      <c r="G31" s="84">
         <f ca="1">'le mois 03'!G35</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="161">
+      <c r="A32" s="83">
         <f>'le mois 03'!A36</f>
         <v>45747</v>
       </c>
-      <c r="B32" s="162">
+      <c r="B32" s="84">
         <f ca="1">'le mois 03'!B36</f>
         <v>0</v>
       </c>
-      <c r="C32" s="162">
+      <c r="C32" s="84">
         <f ca="1">'le mois 03'!C36</f>
         <v>0</v>
       </c>
-      <c r="D32" s="162">
+      <c r="D32" s="84">
         <f ca="1">'le mois 03'!D36</f>
         <v>0</v>
       </c>
-      <c r="E32" s="162">
+      <c r="E32" s="84">
         <f ca="1">'le mois 03'!E36</f>
         <v>0</v>
       </c>
-      <c r="F32" s="162">
+      <c r="F32" s="84">
         <f ca="1">'le mois 03'!F36</f>
         <v>0</v>
       </c>
-      <c r="G32" s="162">
+      <c r="G32" s="84">
         <f ca="1">'le mois 03'!G36</f>
         <v>0</v>
       </c>
@@ -9577,435 +9577,435 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="161">
+      <c r="A2" s="83">
         <f>'le mois 03'!A6</f>
         <v>45717</v>
       </c>
-      <c r="B2" s="162">
+      <c r="B2" s="84">
         <f ca="1">'le mois 03'!H6</f>
         <v>0</v>
       </c>
-      <c r="C2" s="162">
+      <c r="C2" s="84">
         <f ca="1">'le mois 03'!I6</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="161">
+      <c r="A3" s="83">
         <f>'le mois 03'!A7</f>
         <v>45718</v>
       </c>
-      <c r="B3" s="162">
+      <c r="B3" s="84">
         <f ca="1">'le mois 03'!H7</f>
         <v>0</v>
       </c>
-      <c r="C3" s="162">
+      <c r="C3" s="84">
         <f ca="1">'le mois 03'!I7</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="161">
+      <c r="A4" s="83">
         <f>'le mois 03'!A8</f>
         <v>45719</v>
       </c>
-      <c r="B4" s="162">
+      <c r="B4" s="84">
         <f ca="1">'le mois 03'!H8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="162">
+      <c r="C4" s="84">
         <f ca="1">'le mois 03'!I8</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="161">
+      <c r="A5" s="83">
         <f>'le mois 03'!A9</f>
         <v>45720</v>
       </c>
-      <c r="B5" s="162">
+      <c r="B5" s="84">
         <f ca="1">'le mois 03'!H9</f>
         <v>0</v>
       </c>
-      <c r="C5" s="162">
+      <c r="C5" s="84">
         <f ca="1">'le mois 03'!I9</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="161">
+      <c r="A6" s="83">
         <f>'le mois 03'!A10</f>
         <v>45721</v>
       </c>
-      <c r="B6" s="162">
+      <c r="B6" s="84">
         <f ca="1">'le mois 03'!H10</f>
         <v>0</v>
       </c>
-      <c r="C6" s="162">
+      <c r="C6" s="84">
         <f ca="1">'le mois 03'!I10</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="161">
+      <c r="A7" s="83">
         <f>'le mois 03'!A11</f>
         <v>45722</v>
       </c>
-      <c r="B7" s="162">
+      <c r="B7" s="84">
         <f ca="1">'le mois 03'!H11</f>
         <v>0</v>
       </c>
-      <c r="C7" s="162">
+      <c r="C7" s="84">
         <f ca="1">'le mois 03'!I11</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="161">
+      <c r="A8" s="83">
         <f>'le mois 03'!A12</f>
         <v>45723</v>
       </c>
-      <c r="B8" s="162">
+      <c r="B8" s="84">
         <f ca="1">'le mois 03'!H12</f>
         <v>0</v>
       </c>
-      <c r="C8" s="162">
+      <c r="C8" s="84">
         <f ca="1">'le mois 03'!I12</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="161">
+      <c r="A9" s="83">
         <f>'le mois 03'!A13</f>
         <v>45724</v>
       </c>
-      <c r="B9" s="162">
+      <c r="B9" s="84">
         <f ca="1">'le mois 03'!H13</f>
         <v>0</v>
       </c>
-      <c r="C9" s="162">
+      <c r="C9" s="84">
         <f ca="1">'le mois 03'!I13</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="161">
+      <c r="A10" s="83">
         <f>'le mois 03'!A14</f>
         <v>45725</v>
       </c>
-      <c r="B10" s="162">
+      <c r="B10" s="84">
         <f ca="1">'le mois 03'!H14</f>
         <v>0</v>
       </c>
-      <c r="C10" s="162">
+      <c r="C10" s="84">
         <f ca="1">'le mois 03'!I14</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="161">
+      <c r="A11" s="83">
         <f>'le mois 03'!A15</f>
         <v>45726</v>
       </c>
-      <c r="B11" s="162">
+      <c r="B11" s="84">
         <f ca="1">'le mois 03'!H15</f>
         <v>0</v>
       </c>
-      <c r="C11" s="162">
+      <c r="C11" s="84">
         <f ca="1">'le mois 03'!I15</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="161">
+      <c r="A12" s="83">
         <f>'le mois 03'!A16</f>
         <v>45727</v>
       </c>
-      <c r="B12" s="162">
+      <c r="B12" s="84">
         <f ca="1">'le mois 03'!H16</f>
         <v>0</v>
       </c>
-      <c r="C12" s="162">
+      <c r="C12" s="84">
         <f ca="1">'le mois 03'!I16</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="161">
+      <c r="A13" s="83">
         <f>'le mois 03'!A17</f>
         <v>45728</v>
       </c>
-      <c r="B13" s="162">
+      <c r="B13" s="84">
         <f ca="1">'le mois 03'!H17</f>
         <v>0</v>
       </c>
-      <c r="C13" s="162">
+      <c r="C13" s="84">
         <f ca="1">'le mois 03'!I17</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="161">
+      <c r="A14" s="83">
         <f>'le mois 03'!A18</f>
         <v>45729</v>
       </c>
-      <c r="B14" s="162">
+      <c r="B14" s="84">
         <f ca="1">'le mois 03'!H18</f>
         <v>0</v>
       </c>
-      <c r="C14" s="162">
+      <c r="C14" s="84">
         <f ca="1">'le mois 03'!I18</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="161">
+      <c r="A15" s="83">
         <f>'le mois 03'!A19</f>
         <v>45730</v>
       </c>
-      <c r="B15" s="162">
+      <c r="B15" s="84">
         <f ca="1">'le mois 03'!H19</f>
         <v>0</v>
       </c>
-      <c r="C15" s="162">
+      <c r="C15" s="84">
         <f ca="1">'le mois 03'!I19</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="161">
+      <c r="A16" s="83">
         <f>'le mois 03'!A20</f>
         <v>45731</v>
       </c>
-      <c r="B16" s="162">
+      <c r="B16" s="84">
         <f ca="1">'le mois 03'!H20</f>
         <v>0</v>
       </c>
-      <c r="C16" s="162">
+      <c r="C16" s="84">
         <f ca="1">'le mois 03'!I20</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="161">
+      <c r="A17" s="83">
         <f>'le mois 03'!A21</f>
         <v>45732</v>
       </c>
-      <c r="B17" s="162">
+      <c r="B17" s="84">
         <f ca="1">'le mois 03'!H21</f>
         <v>0</v>
       </c>
-      <c r="C17" s="162">
+      <c r="C17" s="84">
         <f ca="1">'le mois 03'!I21</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="161">
+      <c r="A18" s="83">
         <f>'le mois 03'!A22</f>
         <v>45733</v>
       </c>
-      <c r="B18" s="162">
+      <c r="B18" s="84">
         <f ca="1">'le mois 03'!H22</f>
         <v>0</v>
       </c>
-      <c r="C18" s="162">
+      <c r="C18" s="84">
         <f ca="1">'le mois 03'!I22</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="161">
+      <c r="A19" s="83">
         <f>'le mois 03'!A23</f>
         <v>45734</v>
       </c>
-      <c r="B19" s="162">
+      <c r="B19" s="84">
         <f ca="1">'le mois 03'!H23</f>
         <v>0</v>
       </c>
-      <c r="C19" s="162">
+      <c r="C19" s="84">
         <f ca="1">'le mois 03'!I23</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="161">
+      <c r="A20" s="83">
         <f>'le mois 03'!A24</f>
         <v>45735</v>
       </c>
-      <c r="B20" s="162">
+      <c r="B20" s="84">
         <f>'le mois 03'!H24</f>
         <v>0.76333333333333331</v>
       </c>
-      <c r="C20" s="162">
+      <c r="C20" s="84">
         <f>'le mois 03'!I24</f>
         <v>6.6666666666666671E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="161">
+      <c r="A21" s="83">
         <f>'le mois 03'!A25</f>
         <v>45736</v>
       </c>
-      <c r="B21" s="162">
+      <c r="B21" s="84">
         <f ca="1">'le mois 03'!H25</f>
         <v>0</v>
       </c>
-      <c r="C21" s="162">
+      <c r="C21" s="84">
         <f ca="1">'le mois 03'!I25</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="161">
+      <c r="A22" s="83">
         <f>'le mois 03'!A26</f>
         <v>45737</v>
       </c>
-      <c r="B22" s="162">
+      <c r="B22" s="84">
         <f ca="1">'le mois 03'!H26</f>
         <v>0</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="84">
         <f ca="1">'le mois 03'!I26</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="161">
+      <c r="A23" s="83">
         <f>'le mois 03'!A27</f>
         <v>45738</v>
       </c>
-      <c r="B23" s="162">
+      <c r="B23" s="84">
         <f ca="1">'le mois 03'!H27</f>
         <v>0</v>
       </c>
-      <c r="C23" s="162">
+      <c r="C23" s="84">
         <f ca="1">'le mois 03'!I27</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="161">
+      <c r="A24" s="83">
         <f>'le mois 03'!A28</f>
         <v>45739</v>
       </c>
-      <c r="B24" s="162">
+      <c r="B24" s="84">
         <f ca="1">'le mois 03'!H28</f>
         <v>0</v>
       </c>
-      <c r="C24" s="162">
+      <c r="C24" s="84">
         <f ca="1">'le mois 03'!I28</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="161">
+      <c r="A25" s="83">
         <f>'le mois 03'!A29</f>
         <v>45740</v>
       </c>
-      <c r="B25" s="162">
+      <c r="B25" s="84">
         <f ca="1">'le mois 03'!H29</f>
         <v>0</v>
       </c>
-      <c r="C25" s="162">
+      <c r="C25" s="84">
         <f ca="1">'le mois 03'!I29</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="161">
+      <c r="A26" s="83">
         <f>'le mois 03'!A30</f>
         <v>45741</v>
       </c>
-      <c r="B26" s="162">
+      <c r="B26" s="84">
         <f ca="1">'le mois 03'!H30</f>
         <v>0</v>
       </c>
-      <c r="C26" s="162">
+      <c r="C26" s="84">
         <f ca="1">'le mois 03'!I30</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="161">
+      <c r="A27" s="83">
         <f>'le mois 03'!A31</f>
         <v>45742</v>
       </c>
-      <c r="B27" s="162">
+      <c r="B27" s="84">
         <f ca="1">'le mois 03'!H31</f>
         <v>0</v>
       </c>
-      <c r="C27" s="162">
+      <c r="C27" s="84">
         <f ca="1">'le mois 03'!I31</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="161">
+      <c r="A28" s="83">
         <f>'le mois 03'!A32</f>
         <v>45743</v>
       </c>
-      <c r="B28" s="162">
+      <c r="B28" s="84">
         <f ca="1">'le mois 03'!H32</f>
         <v>0</v>
       </c>
-      <c r="C28" s="162">
+      <c r="C28" s="84">
         <f ca="1">'le mois 03'!I32</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="161">
+      <c r="A29" s="83">
         <f>'le mois 03'!A33</f>
         <v>45744</v>
       </c>
-      <c r="B29" s="162">
+      <c r="B29" s="84">
         <f ca="1">'le mois 03'!H33</f>
         <v>0</v>
       </c>
-      <c r="C29" s="162">
+      <c r="C29" s="84">
         <f ca="1">'le mois 03'!I33</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="161">
+      <c r="A30" s="83">
         <f>'le mois 03'!A34</f>
         <v>45745</v>
       </c>
-      <c r="B30" s="162">
+      <c r="B30" s="84">
         <f ca="1">'le mois 03'!H34</f>
         <v>0</v>
       </c>
-      <c r="C30" s="162">
+      <c r="C30" s="84">
         <f ca="1">'le mois 03'!I34</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="161">
+      <c r="A31" s="83">
         <f>'le mois 03'!A35</f>
         <v>45746</v>
       </c>
-      <c r="B31" s="162">
+      <c r="B31" s="84">
         <f ca="1">'le mois 03'!H35</f>
         <v>0</v>
       </c>
-      <c r="C31" s="162">
+      <c r="C31" s="84">
         <f ca="1">'le mois 03'!I35</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="161">
+      <c r="A32" s="83">
         <f>'le mois 03'!A36</f>
         <v>45747</v>
       </c>
-      <c r="B32" s="162">
+      <c r="B32" s="84">
         <f ca="1">'le mois 03'!H36</f>
         <v>0</v>
       </c>
-      <c r="C32" s="162">
+      <c r="C32" s="84">
         <f ca="1">'le mois 03'!I36</f>
         <v>0</v>
       </c>
@@ -10044,435 +10044,435 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="161">
+      <c r="A2" s="83">
         <f>'le mois 03'!A6</f>
         <v>45717</v>
       </c>
-      <c r="B2" s="162">
+      <c r="B2" s="84">
         <f ca="1">'le mois 03'!J6</f>
         <v>0</v>
       </c>
-      <c r="C2" s="162">
+      <c r="C2" s="84">
         <f ca="1">'le mois 03'!K6</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="161">
+      <c r="A3" s="83">
         <f>'le mois 03'!A7</f>
         <v>45718</v>
       </c>
-      <c r="B3" s="162">
+      <c r="B3" s="84">
         <f ca="1">'le mois 03'!J7</f>
         <v>0</v>
       </c>
-      <c r="C3" s="162">
+      <c r="C3" s="84">
         <f ca="1">'le mois 03'!K7</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="161">
+      <c r="A4" s="83">
         <f>'le mois 03'!A8</f>
         <v>45719</v>
       </c>
-      <c r="B4" s="162">
+      <c r="B4" s="84">
         <f ca="1">'le mois 03'!J8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="162">
+      <c r="C4" s="84">
         <f ca="1">'le mois 03'!K8</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="161">
+      <c r="A5" s="83">
         <f>'le mois 03'!A9</f>
         <v>45720</v>
       </c>
-      <c r="B5" s="162">
+      <c r="B5" s="84">
         <f ca="1">'le mois 03'!J9</f>
         <v>0</v>
       </c>
-      <c r="C5" s="162">
+      <c r="C5" s="84">
         <f ca="1">'le mois 03'!K9</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="161">
+      <c r="A6" s="83">
         <f>'le mois 03'!A10</f>
         <v>45721</v>
       </c>
-      <c r="B6" s="162">
+      <c r="B6" s="84">
         <f ca="1">'le mois 03'!J10</f>
         <v>0</v>
       </c>
-      <c r="C6" s="162">
+      <c r="C6" s="84">
         <f ca="1">'le mois 03'!K10</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="161">
+      <c r="A7" s="83">
         <f>'le mois 03'!A11</f>
         <v>45722</v>
       </c>
-      <c r="B7" s="162">
+      <c r="B7" s="84">
         <f ca="1">'le mois 03'!J11</f>
         <v>0</v>
       </c>
-      <c r="C7" s="162">
+      <c r="C7" s="84">
         <f ca="1">'le mois 03'!K11</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="161">
+      <c r="A8" s="83">
         <f>'le mois 03'!A12</f>
         <v>45723</v>
       </c>
-      <c r="B8" s="162">
+      <c r="B8" s="84">
         <f ca="1">'le mois 03'!J12</f>
         <v>0</v>
       </c>
-      <c r="C8" s="162">
+      <c r="C8" s="84">
         <f ca="1">'le mois 03'!K12</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="161">
+      <c r="A9" s="83">
         <f>'le mois 03'!A13</f>
         <v>45724</v>
       </c>
-      <c r="B9" s="162">
+      <c r="B9" s="84">
         <f ca="1">'le mois 03'!J13</f>
         <v>0</v>
       </c>
-      <c r="C9" s="162">
+      <c r="C9" s="84">
         <f ca="1">'le mois 03'!K13</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="161">
+      <c r="A10" s="83">
         <f>'le mois 03'!A14</f>
         <v>45725</v>
       </c>
-      <c r="B10" s="162">
+      <c r="B10" s="84">
         <f ca="1">'le mois 03'!J14</f>
         <v>0</v>
       </c>
-      <c r="C10" s="162">
+      <c r="C10" s="84">
         <f ca="1">'le mois 03'!K14</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="161">
+      <c r="A11" s="83">
         <f>'le mois 03'!A15</f>
         <v>45726</v>
       </c>
-      <c r="B11" s="162">
+      <c r="B11" s="84">
         <f ca="1">'le mois 03'!J15</f>
         <v>0</v>
       </c>
-      <c r="C11" s="162">
+      <c r="C11" s="84">
         <f ca="1">'le mois 03'!K15</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="161">
+      <c r="A12" s="83">
         <f>'le mois 03'!A16</f>
         <v>45727</v>
       </c>
-      <c r="B12" s="162">
+      <c r="B12" s="84">
         <f ca="1">'le mois 03'!J16</f>
         <v>0</v>
       </c>
-      <c r="C12" s="162">
+      <c r="C12" s="84">
         <f ca="1">'le mois 03'!K16</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="161">
+      <c r="A13" s="83">
         <f>'le mois 03'!A17</f>
         <v>45728</v>
       </c>
-      <c r="B13" s="162">
+      <c r="B13" s="84">
         <f ca="1">'le mois 03'!J17</f>
         <v>0</v>
       </c>
-      <c r="C13" s="162">
+      <c r="C13" s="84">
         <f ca="1">'le mois 03'!K17</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="161">
+      <c r="A14" s="83">
         <f>'le mois 03'!A18</f>
         <v>45729</v>
       </c>
-      <c r="B14" s="162">
+      <c r="B14" s="84">
         <f ca="1">'le mois 03'!J18</f>
         <v>0</v>
       </c>
-      <c r="C14" s="162">
+      <c r="C14" s="84">
         <f ca="1">'le mois 03'!K18</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="161">
+      <c r="A15" s="83">
         <f>'le mois 03'!A19</f>
         <v>45730</v>
       </c>
-      <c r="B15" s="162">
+      <c r="B15" s="84">
         <f ca="1">'le mois 03'!J19</f>
         <v>0</v>
       </c>
-      <c r="C15" s="162">
+      <c r="C15" s="84">
         <f ca="1">'le mois 03'!K19</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="161">
+      <c r="A16" s="83">
         <f>'le mois 03'!A20</f>
         <v>45731</v>
       </c>
-      <c r="B16" s="162">
+      <c r="B16" s="84">
         <f ca="1">'le mois 03'!J20</f>
         <v>0</v>
       </c>
-      <c r="C16" s="162">
+      <c r="C16" s="84">
         <f ca="1">'le mois 03'!K20</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="161">
+      <c r="A17" s="83">
         <f>'le mois 03'!A21</f>
         <v>45732</v>
       </c>
-      <c r="B17" s="162">
+      <c r="B17" s="84">
         <f ca="1">'le mois 03'!J21</f>
         <v>0</v>
       </c>
-      <c r="C17" s="162">
+      <c r="C17" s="84">
         <f ca="1">'le mois 03'!K21</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="161">
+      <c r="A18" s="83">
         <f>'le mois 03'!A22</f>
         <v>45733</v>
       </c>
-      <c r="B18" s="162">
+      <c r="B18" s="84">
         <f ca="1">'le mois 03'!J22</f>
         <v>0</v>
       </c>
-      <c r="C18" s="162">
+      <c r="C18" s="84">
         <f ca="1">'le mois 03'!K22</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="161">
+      <c r="A19" s="83">
         <f>'le mois 03'!A23</f>
         <v>45734</v>
       </c>
-      <c r="B19" s="162">
+      <c r="B19" s="84">
         <f ca="1">'le mois 03'!J23</f>
         <v>0</v>
       </c>
-      <c r="C19" s="162">
+      <c r="C19" s="84">
         <f ca="1">'le mois 03'!K23</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="161">
+      <c r="A20" s="83">
         <f>'le mois 03'!A24</f>
         <v>45735</v>
       </c>
-      <c r="B20" s="162">
+      <c r="B20" s="84">
         <f>'le mois 03'!J24</f>
         <v>1.8966666666666665</v>
       </c>
-      <c r="C20" s="162">
+      <c r="C20" s="84">
         <f>'le mois 03'!K24</f>
         <v>1.8366666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="161">
+      <c r="A21" s="83">
         <f>'le mois 03'!A25</f>
         <v>45736</v>
       </c>
-      <c r="B21" s="162">
+      <c r="B21" s="84">
         <f ca="1">'le mois 03'!J25</f>
         <v>0</v>
       </c>
-      <c r="C21" s="162">
+      <c r="C21" s="84">
         <f ca="1">'le mois 03'!K25</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="161">
+      <c r="A22" s="83">
         <f>'le mois 03'!A26</f>
         <v>45737</v>
       </c>
-      <c r="B22" s="162">
+      <c r="B22" s="84">
         <f ca="1">'le mois 03'!J26</f>
         <v>0</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="84">
         <f ca="1">'le mois 03'!K26</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="161">
+      <c r="A23" s="83">
         <f>'le mois 03'!A27</f>
         <v>45738</v>
       </c>
-      <c r="B23" s="162">
+      <c r="B23" s="84">
         <f ca="1">'le mois 03'!J27</f>
         <v>0</v>
       </c>
-      <c r="C23" s="162">
+      <c r="C23" s="84">
         <f ca="1">'le mois 03'!K27</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="161">
+      <c r="A24" s="83">
         <f>'le mois 03'!A28</f>
         <v>45739</v>
       </c>
-      <c r="B24" s="162">
+      <c r="B24" s="84">
         <f ca="1">'le mois 03'!J28</f>
         <v>0</v>
       </c>
-      <c r="C24" s="162">
+      <c r="C24" s="84">
         <f ca="1">'le mois 03'!K28</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="161">
+      <c r="A25" s="83">
         <f>'le mois 03'!A29</f>
         <v>45740</v>
       </c>
-      <c r="B25" s="162">
+      <c r="B25" s="84">
         <f ca="1">'le mois 03'!J29</f>
         <v>0</v>
       </c>
-      <c r="C25" s="162">
+      <c r="C25" s="84">
         <f ca="1">'le mois 03'!K29</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="161">
+      <c r="A26" s="83">
         <f>'le mois 03'!A30</f>
         <v>45741</v>
       </c>
-      <c r="B26" s="162">
+      <c r="B26" s="84">
         <f ca="1">'le mois 03'!J30</f>
         <v>0</v>
       </c>
-      <c r="C26" s="162">
+      <c r="C26" s="84">
         <f ca="1">'le mois 03'!K30</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="161">
+      <c r="A27" s="83">
         <f>'le mois 03'!A31</f>
         <v>45742</v>
       </c>
-      <c r="B27" s="162">
+      <c r="B27" s="84">
         <f ca="1">'le mois 03'!J31</f>
         <v>0</v>
       </c>
-      <c r="C27" s="162">
+      <c r="C27" s="84">
         <f ca="1">'le mois 03'!K31</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="161">
+      <c r="A28" s="83">
         <f>'le mois 03'!A32</f>
         <v>45743</v>
       </c>
-      <c r="B28" s="162">
+      <c r="B28" s="84">
         <f ca="1">'le mois 03'!J32</f>
         <v>0</v>
       </c>
-      <c r="C28" s="162">
+      <c r="C28" s="84">
         <f ca="1">'le mois 03'!K32</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="161">
+      <c r="A29" s="83">
         <f>'le mois 03'!A33</f>
         <v>45744</v>
       </c>
-      <c r="B29" s="162">
+      <c r="B29" s="84">
         <f ca="1">'le mois 03'!J33</f>
         <v>0</v>
       </c>
-      <c r="C29" s="162">
+      <c r="C29" s="84">
         <f ca="1">'le mois 03'!K33</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="161">
+      <c r="A30" s="83">
         <f>'le mois 03'!A34</f>
         <v>45745</v>
       </c>
-      <c r="B30" s="162">
+      <c r="B30" s="84">
         <f ca="1">'le mois 03'!J34</f>
         <v>0</v>
       </c>
-      <c r="C30" s="162">
+      <c r="C30" s="84">
         <f ca="1">'le mois 03'!K34</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="161">
+      <c r="A31" s="83">
         <f>'le mois 03'!A35</f>
         <v>45746</v>
       </c>
-      <c r="B31" s="162">
+      <c r="B31" s="84">
         <f ca="1">'le mois 03'!J35</f>
         <v>0</v>
       </c>
-      <c r="C31" s="162">
+      <c r="C31" s="84">
         <f ca="1">'le mois 03'!K35</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="161">
+      <c r="A32" s="83">
         <f>'le mois 03'!A36</f>
         <v>45747</v>
       </c>
-      <c r="B32" s="162">
+      <c r="B32" s="84">
         <f ca="1">'le mois 03'!J36</f>
         <v>0</v>
       </c>
-      <c r="C32" s="162">
+      <c r="C32" s="84">
         <f ca="1">'le mois 03'!K36</f>
         <v>0</v>
       </c>
@@ -10527,931 +10527,931 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="161">
+      <c r="A2" s="83">
         <f>'le mois 03'!A6</f>
         <v>45717</v>
       </c>
-      <c r="B2" s="162">
+      <c r="B2" s="84">
         <f ca="1">'le mois 03'!L6</f>
         <v>0</v>
       </c>
-      <c r="C2" s="162">
+      <c r="C2" s="84">
         <f ca="1">'le mois 03'!M6</f>
         <v>0</v>
       </c>
-      <c r="D2" s="162">
+      <c r="D2" s="84">
         <f ca="1">'le mois 03'!N6</f>
         <v>0</v>
       </c>
-      <c r="E2" s="162">
+      <c r="E2" s="84">
         <f ca="1">'le mois 03'!O6</f>
         <v>0</v>
       </c>
-      <c r="F2" s="162">
+      <c r="F2" s="84">
         <f ca="1">'le mois 03'!P6</f>
         <v>0</v>
       </c>
-      <c r="G2" s="162">
+      <c r="G2" s="84">
         <f ca="1">'le mois 03'!Q6</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="161">
+      <c r="A3" s="83">
         <f>'le mois 03'!A7</f>
         <v>45718</v>
       </c>
-      <c r="B3" s="162">
+      <c r="B3" s="84">
         <f ca="1">'le mois 03'!L7</f>
         <v>0</v>
       </c>
-      <c r="C3" s="162">
+      <c r="C3" s="84">
         <f ca="1">'le mois 03'!M7</f>
         <v>0</v>
       </c>
-      <c r="D3" s="162">
+      <c r="D3" s="84">
         <f ca="1">'le mois 03'!N7</f>
         <v>0</v>
       </c>
-      <c r="E3" s="162">
+      <c r="E3" s="84">
         <f ca="1">'le mois 03'!O7</f>
         <v>0</v>
       </c>
-      <c r="F3" s="162">
+      <c r="F3" s="84">
         <f ca="1">'le mois 03'!P7</f>
         <v>0</v>
       </c>
-      <c r="G3" s="162">
+      <c r="G3" s="84">
         <f ca="1">'le mois 03'!Q7</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="161">
+      <c r="A4" s="83">
         <f>'le mois 03'!A8</f>
         <v>45719</v>
       </c>
-      <c r="B4" s="162">
+      <c r="B4" s="84">
         <f ca="1">'le mois 03'!L8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="162">
+      <c r="C4" s="84">
         <f ca="1">'le mois 03'!M8</f>
         <v>0</v>
       </c>
-      <c r="D4" s="162">
+      <c r="D4" s="84">
         <f ca="1">'le mois 03'!N8</f>
         <v>0</v>
       </c>
-      <c r="E4" s="162">
+      <c r="E4" s="84">
         <f ca="1">'le mois 03'!O8</f>
         <v>0</v>
       </c>
-      <c r="F4" s="162">
+      <c r="F4" s="84">
         <f ca="1">'le mois 03'!P8</f>
         <v>0</v>
       </c>
-      <c r="G4" s="162">
+      <c r="G4" s="84">
         <f ca="1">'le mois 03'!Q8</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="161">
+      <c r="A5" s="83">
         <f>'le mois 03'!A9</f>
         <v>45720</v>
       </c>
-      <c r="B5" s="162">
+      <c r="B5" s="84">
         <f ca="1">'le mois 03'!L9</f>
         <v>0</v>
       </c>
-      <c r="C5" s="162">
+      <c r="C5" s="84">
         <f ca="1">'le mois 03'!M9</f>
         <v>0</v>
       </c>
-      <c r="D5" s="162">
+      <c r="D5" s="84">
         <f ca="1">'le mois 03'!N9</f>
         <v>0</v>
       </c>
-      <c r="E5" s="162">
+      <c r="E5" s="84">
         <f ca="1">'le mois 03'!O9</f>
         <v>0</v>
       </c>
-      <c r="F5" s="162">
+      <c r="F5" s="84">
         <f ca="1">'le mois 03'!P9</f>
         <v>0</v>
       </c>
-      <c r="G5" s="162">
+      <c r="G5" s="84">
         <f ca="1">'le mois 03'!Q9</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="161">
+      <c r="A6" s="83">
         <f>'le mois 03'!A10</f>
         <v>45721</v>
       </c>
-      <c r="B6" s="162">
+      <c r="B6" s="84">
         <f ca="1">'le mois 03'!L10</f>
         <v>0</v>
       </c>
-      <c r="C6" s="162">
+      <c r="C6" s="84">
         <f ca="1">'le mois 03'!M10</f>
         <v>0</v>
       </c>
-      <c r="D6" s="162">
+      <c r="D6" s="84">
         <f ca="1">'le mois 03'!N10</f>
         <v>0</v>
       </c>
-      <c r="E6" s="162">
+      <c r="E6" s="84">
         <f ca="1">'le mois 03'!O10</f>
         <v>0</v>
       </c>
-      <c r="F6" s="162">
+      <c r="F6" s="84">
         <f ca="1">'le mois 03'!P10</f>
         <v>0</v>
       </c>
-      <c r="G6" s="162">
+      <c r="G6" s="84">
         <f ca="1">'le mois 03'!Q10</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="161">
+      <c r="A7" s="83">
         <f>'le mois 03'!A11</f>
         <v>45722</v>
       </c>
-      <c r="B7" s="162">
+      <c r="B7" s="84">
         <f ca="1">'le mois 03'!L11</f>
         <v>0</v>
       </c>
-      <c r="C7" s="162">
+      <c r="C7" s="84">
         <f ca="1">'le mois 03'!M11</f>
         <v>0</v>
       </c>
-      <c r="D7" s="162">
+      <c r="D7" s="84">
         <f ca="1">'le mois 03'!N11</f>
         <v>0</v>
       </c>
-      <c r="E7" s="162">
+      <c r="E7" s="84">
         <f ca="1">'le mois 03'!O11</f>
         <v>0</v>
       </c>
-      <c r="F7" s="162">
+      <c r="F7" s="84">
         <f ca="1">'le mois 03'!P11</f>
         <v>0</v>
       </c>
-      <c r="G7" s="162">
+      <c r="G7" s="84">
         <f ca="1">'le mois 03'!Q11</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="161">
+      <c r="A8" s="83">
         <f>'le mois 03'!A12</f>
         <v>45723</v>
       </c>
-      <c r="B8" s="162">
+      <c r="B8" s="84">
         <f ca="1">'le mois 03'!L12</f>
         <v>0</v>
       </c>
-      <c r="C8" s="162">
+      <c r="C8" s="84">
         <f ca="1">'le mois 03'!M12</f>
         <v>0</v>
       </c>
-      <c r="D8" s="162">
+      <c r="D8" s="84">
         <f ca="1">'le mois 03'!N12</f>
         <v>0</v>
       </c>
-      <c r="E8" s="162">
+      <c r="E8" s="84">
         <f ca="1">'le mois 03'!O12</f>
         <v>0</v>
       </c>
-      <c r="F8" s="162">
+      <c r="F8" s="84">
         <f ca="1">'le mois 03'!P12</f>
         <v>0</v>
       </c>
-      <c r="G8" s="162">
+      <c r="G8" s="84">
         <f ca="1">'le mois 03'!Q12</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="161">
+      <c r="A9" s="83">
         <f>'le mois 03'!A13</f>
         <v>45724</v>
       </c>
-      <c r="B9" s="162">
+      <c r="B9" s="84">
         <f ca="1">'le mois 03'!L13</f>
         <v>0</v>
       </c>
-      <c r="C9" s="162">
+      <c r="C9" s="84">
         <f ca="1">'le mois 03'!M13</f>
         <v>0</v>
       </c>
-      <c r="D9" s="162">
+      <c r="D9" s="84">
         <f ca="1">'le mois 03'!N13</f>
         <v>0</v>
       </c>
-      <c r="E9" s="162">
+      <c r="E9" s="84">
         <f ca="1">'le mois 03'!O13</f>
         <v>0</v>
       </c>
-      <c r="F9" s="162">
+      <c r="F9" s="84">
         <f ca="1">'le mois 03'!P13</f>
         <v>0</v>
       </c>
-      <c r="G9" s="162">
+      <c r="G9" s="84">
         <f ca="1">'le mois 03'!Q13</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="161">
+      <c r="A10" s="83">
         <f>'le mois 03'!A14</f>
         <v>45725</v>
       </c>
-      <c r="B10" s="162">
+      <c r="B10" s="84">
         <f ca="1">'le mois 03'!L14</f>
         <v>0</v>
       </c>
-      <c r="C10" s="162">
+      <c r="C10" s="84">
         <f ca="1">'le mois 03'!M14</f>
         <v>0</v>
       </c>
-      <c r="D10" s="162">
+      <c r="D10" s="84">
         <f ca="1">'le mois 03'!N14</f>
         <v>0</v>
       </c>
-      <c r="E10" s="162">
+      <c r="E10" s="84">
         <f ca="1">'le mois 03'!O14</f>
         <v>0</v>
       </c>
-      <c r="F10" s="162">
+      <c r="F10" s="84">
         <f ca="1">'le mois 03'!P14</f>
         <v>0</v>
       </c>
-      <c r="G10" s="162">
+      <c r="G10" s="84">
         <f ca="1">'le mois 03'!Q14</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="161">
+      <c r="A11" s="83">
         <f>'le mois 03'!A15</f>
         <v>45726</v>
       </c>
-      <c r="B11" s="162">
+      <c r="B11" s="84">
         <f ca="1">'le mois 03'!L15</f>
         <v>0</v>
       </c>
-      <c r="C11" s="162">
+      <c r="C11" s="84">
         <f ca="1">'le mois 03'!M15</f>
         <v>0</v>
       </c>
-      <c r="D11" s="162">
+      <c r="D11" s="84">
         <f ca="1">'le mois 03'!N15</f>
         <v>0</v>
       </c>
-      <c r="E11" s="162">
+      <c r="E11" s="84">
         <f ca="1">'le mois 03'!O15</f>
         <v>0</v>
       </c>
-      <c r="F11" s="162">
+      <c r="F11" s="84">
         <f ca="1">'le mois 03'!P15</f>
         <v>0</v>
       </c>
-      <c r="G11" s="162">
+      <c r="G11" s="84">
         <f ca="1">'le mois 03'!Q15</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="161">
+      <c r="A12" s="83">
         <f>'le mois 03'!A16</f>
         <v>45727</v>
       </c>
-      <c r="B12" s="162">
+      <c r="B12" s="84">
         <f ca="1">'le mois 03'!L16</f>
         <v>0</v>
       </c>
-      <c r="C12" s="162">
+      <c r="C12" s="84">
         <f ca="1">'le mois 03'!M16</f>
         <v>0</v>
       </c>
-      <c r="D12" s="162">
+      <c r="D12" s="84">
         <f ca="1">'le mois 03'!N16</f>
         <v>0</v>
       </c>
-      <c r="E12" s="162">
+      <c r="E12" s="84">
         <f ca="1">'le mois 03'!O16</f>
         <v>0</v>
       </c>
-      <c r="F12" s="162">
+      <c r="F12" s="84">
         <f ca="1">'le mois 03'!P16</f>
         <v>0</v>
       </c>
-      <c r="G12" s="162">
+      <c r="G12" s="84">
         <f ca="1">'le mois 03'!Q16</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="161">
+      <c r="A13" s="83">
         <f>'le mois 03'!A17</f>
         <v>45728</v>
       </c>
-      <c r="B13" s="162">
+      <c r="B13" s="84">
         <f ca="1">'le mois 03'!L17</f>
         <v>0</v>
       </c>
-      <c r="C13" s="162">
+      <c r="C13" s="84">
         <f ca="1">'le mois 03'!M17</f>
         <v>0</v>
       </c>
-      <c r="D13" s="162">
+      <c r="D13" s="84">
         <f ca="1">'le mois 03'!N17</f>
         <v>0</v>
       </c>
-      <c r="E13" s="162">
+      <c r="E13" s="84">
         <f ca="1">'le mois 03'!O17</f>
         <v>0</v>
       </c>
-      <c r="F13" s="162">
+      <c r="F13" s="84">
         <f ca="1">'le mois 03'!P17</f>
         <v>0</v>
       </c>
-      <c r="G13" s="162">
+      <c r="G13" s="84">
         <f ca="1">'le mois 03'!Q17</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="161">
+      <c r="A14" s="83">
         <f>'le mois 03'!A18</f>
         <v>45729</v>
       </c>
-      <c r="B14" s="162">
+      <c r="B14" s="84">
         <f ca="1">'le mois 03'!L18</f>
         <v>0</v>
       </c>
-      <c r="C14" s="162">
+      <c r="C14" s="84">
         <f ca="1">'le mois 03'!M18</f>
         <v>0</v>
       </c>
-      <c r="D14" s="162">
+      <c r="D14" s="84">
         <f ca="1">'le mois 03'!N18</f>
         <v>0</v>
       </c>
-      <c r="E14" s="162">
+      <c r="E14" s="84">
         <f ca="1">'le mois 03'!O18</f>
         <v>0</v>
       </c>
-      <c r="F14" s="162">
+      <c r="F14" s="84">
         <f ca="1">'le mois 03'!P18</f>
         <v>0</v>
       </c>
-      <c r="G14" s="162">
+      <c r="G14" s="84">
         <f ca="1">'le mois 03'!Q18</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="161">
+      <c r="A15" s="83">
         <f>'le mois 03'!A19</f>
         <v>45730</v>
       </c>
-      <c r="B15" s="162">
+      <c r="B15" s="84">
         <f ca="1">'le mois 03'!L19</f>
         <v>0</v>
       </c>
-      <c r="C15" s="162">
+      <c r="C15" s="84">
         <f ca="1">'le mois 03'!M19</f>
         <v>0</v>
       </c>
-      <c r="D15" s="162">
+      <c r="D15" s="84">
         <f ca="1">'le mois 03'!N19</f>
         <v>0</v>
       </c>
-      <c r="E15" s="162">
+      <c r="E15" s="84">
         <f ca="1">'le mois 03'!O19</f>
         <v>0</v>
       </c>
-      <c r="F15" s="162">
+      <c r="F15" s="84">
         <f ca="1">'le mois 03'!P19</f>
         <v>0</v>
       </c>
-      <c r="G15" s="162">
+      <c r="G15" s="84">
         <f ca="1">'le mois 03'!Q19</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="161">
+      <c r="A16" s="83">
         <f>'le mois 03'!A20</f>
         <v>45731</v>
       </c>
-      <c r="B16" s="162">
+      <c r="B16" s="84">
         <f ca="1">'le mois 03'!L20</f>
         <v>0</v>
       </c>
-      <c r="C16" s="162">
+      <c r="C16" s="84">
         <f ca="1">'le mois 03'!M20</f>
         <v>0</v>
       </c>
-      <c r="D16" s="162">
+      <c r="D16" s="84">
         <f ca="1">'le mois 03'!N20</f>
         <v>0</v>
       </c>
-      <c r="E16" s="162">
+      <c r="E16" s="84">
         <f ca="1">'le mois 03'!O20</f>
         <v>0</v>
       </c>
-      <c r="F16" s="162">
+      <c r="F16" s="84">
         <f ca="1">'le mois 03'!P20</f>
         <v>0</v>
       </c>
-      <c r="G16" s="162">
+      <c r="G16" s="84">
         <f ca="1">'le mois 03'!Q20</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="161">
+      <c r="A17" s="83">
         <f>'le mois 03'!A21</f>
         <v>45732</v>
       </c>
-      <c r="B17" s="162">
+      <c r="B17" s="84">
         <f ca="1">'le mois 03'!L21</f>
         <v>0</v>
       </c>
-      <c r="C17" s="162">
+      <c r="C17" s="84">
         <f ca="1">'le mois 03'!M21</f>
         <v>0</v>
       </c>
-      <c r="D17" s="162">
+      <c r="D17" s="84">
         <f ca="1">'le mois 03'!N21</f>
         <v>0</v>
       </c>
-      <c r="E17" s="162">
+      <c r="E17" s="84">
         <f ca="1">'le mois 03'!O21</f>
         <v>0</v>
       </c>
-      <c r="F17" s="162">
+      <c r="F17" s="84">
         <f ca="1">'le mois 03'!P21</f>
         <v>0</v>
       </c>
-      <c r="G17" s="162">
+      <c r="G17" s="84">
         <f ca="1">'le mois 03'!Q21</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="161">
+      <c r="A18" s="83">
         <f>'le mois 03'!A22</f>
         <v>45733</v>
       </c>
-      <c r="B18" s="162">
+      <c r="B18" s="84">
         <f ca="1">'le mois 03'!L22</f>
         <v>0</v>
       </c>
-      <c r="C18" s="162">
+      <c r="C18" s="84">
         <f ca="1">'le mois 03'!M22</f>
         <v>0</v>
       </c>
-      <c r="D18" s="162">
+      <c r="D18" s="84">
         <f ca="1">'le mois 03'!N22</f>
         <v>0</v>
       </c>
-      <c r="E18" s="162">
+      <c r="E18" s="84">
         <f ca="1">'le mois 03'!O22</f>
         <v>0</v>
       </c>
-      <c r="F18" s="162">
+      <c r="F18" s="84">
         <f ca="1">'le mois 03'!P22</f>
         <v>0</v>
       </c>
-      <c r="G18" s="162">
+      <c r="G18" s="84">
         <f ca="1">'le mois 03'!Q22</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="161">
+      <c r="A19" s="83">
         <f>'le mois 03'!A23</f>
         <v>45734</v>
       </c>
-      <c r="B19" s="162">
+      <c r="B19" s="84">
         <f ca="1">'le mois 03'!L23</f>
         <v>0</v>
       </c>
-      <c r="C19" s="162">
+      <c r="C19" s="84">
         <f ca="1">'le mois 03'!M23</f>
         <v>0</v>
       </c>
-      <c r="D19" s="162">
+      <c r="D19" s="84">
         <f ca="1">'le mois 03'!N23</f>
         <v>0</v>
       </c>
-      <c r="E19" s="162">
+      <c r="E19" s="84">
         <f ca="1">'le mois 03'!O23</f>
         <v>0</v>
       </c>
-      <c r="F19" s="162">
+      <c r="F19" s="84">
         <f ca="1">'le mois 03'!P23</f>
         <v>0</v>
       </c>
-      <c r="G19" s="162">
+      <c r="G19" s="84">
         <f ca="1">'le mois 03'!Q23</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="161">
+      <c r="A20" s="83">
         <f>'le mois 03'!A24</f>
         <v>45735</v>
       </c>
-      <c r="B20" s="162">
+      <c r="B20" s="84">
         <f>'le mois 03'!L24</f>
         <v>11.766666666666666</v>
       </c>
-      <c r="C20" s="162">
+      <c r="C20" s="84">
         <f>'le mois 03'!M24</f>
         <v>32166.666666666668</v>
       </c>
-      <c r="D20" s="162">
+      <c r="D20" s="84">
         <f>'le mois 03'!N24</f>
         <v>5.1566666666666663</v>
       </c>
-      <c r="E20" s="162">
+      <c r="E20" s="84">
         <f>'le mois 03'!O24</f>
         <v>0.43</v>
       </c>
-      <c r="F20" s="162">
+      <c r="F20" s="84">
         <f>'le mois 03'!P24</f>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="G20" s="162">
+      <c r="G20" s="84">
         <f>'le mois 03'!Q24</f>
         <v>113.7</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="161">
+      <c r="A21" s="83">
         <f>'le mois 03'!A25</f>
         <v>45736</v>
       </c>
-      <c r="B21" s="162">
+      <c r="B21" s="84">
         <f ca="1">'le mois 03'!L25</f>
         <v>0</v>
       </c>
-      <c r="C21" s="162">
+      <c r="C21" s="84">
         <f ca="1">'le mois 03'!M25</f>
         <v>0</v>
       </c>
-      <c r="D21" s="162">
+      <c r="D21" s="84">
         <f ca="1">'le mois 03'!N25</f>
         <v>0</v>
       </c>
-      <c r="E21" s="162">
+      <c r="E21" s="84">
         <f ca="1">'le mois 03'!O25</f>
         <v>0</v>
       </c>
-      <c r="F21" s="162">
+      <c r="F21" s="84">
         <f ca="1">'le mois 03'!P25</f>
         <v>0</v>
       </c>
-      <c r="G21" s="162">
+      <c r="G21" s="84">
         <f ca="1">'le mois 03'!Q25</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="161">
+      <c r="A22" s="83">
         <f>'le mois 03'!A26</f>
         <v>45737</v>
       </c>
-      <c r="B22" s="162">
+      <c r="B22" s="84">
         <f ca="1">'le mois 03'!L26</f>
         <v>0</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="84">
         <f ca="1">'le mois 03'!M26</f>
         <v>0</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="84">
         <f ca="1">'le mois 03'!N26</f>
         <v>0</v>
       </c>
-      <c r="E22" s="162">
+      <c r="E22" s="84">
         <f ca="1">'le mois 03'!O26</f>
         <v>0</v>
       </c>
-      <c r="F22" s="162">
+      <c r="F22" s="84">
         <f ca="1">'le mois 03'!P26</f>
         <v>0</v>
       </c>
-      <c r="G22" s="162">
+      <c r="G22" s="84">
         <f ca="1">'le mois 03'!Q26</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="161">
+      <c r="A23" s="83">
         <f>'le mois 03'!A27</f>
         <v>45738</v>
       </c>
-      <c r="B23" s="162">
+      <c r="B23" s="84">
         <f ca="1">'le mois 03'!L27</f>
         <v>0</v>
       </c>
-      <c r="C23" s="162">
+      <c r="C23" s="84">
         <f ca="1">'le mois 03'!M27</f>
         <v>0</v>
       </c>
-      <c r="D23" s="162">
+      <c r="D23" s="84">
         <f ca="1">'le mois 03'!N27</f>
         <v>0</v>
       </c>
-      <c r="E23" s="162">
+      <c r="E23" s="84">
         <f ca="1">'le mois 03'!O27</f>
         <v>0</v>
       </c>
-      <c r="F23" s="162">
+      <c r="F23" s="84">
         <f ca="1">'le mois 03'!P27</f>
         <v>0</v>
       </c>
-      <c r="G23" s="162">
+      <c r="G23" s="84">
         <f ca="1">'le mois 03'!Q27</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="161">
+      <c r="A24" s="83">
         <f>'le mois 03'!A28</f>
         <v>45739</v>
       </c>
-      <c r="B24" s="162">
+      <c r="B24" s="84">
         <f ca="1">'le mois 03'!L28</f>
         <v>0</v>
       </c>
-      <c r="C24" s="162">
+      <c r="C24" s="84">
         <f ca="1">'le mois 03'!M28</f>
         <v>0</v>
       </c>
-      <c r="D24" s="162">
+      <c r="D24" s="84">
         <f ca="1">'le mois 03'!N28</f>
         <v>0</v>
       </c>
-      <c r="E24" s="162">
+      <c r="E24" s="84">
         <f ca="1">'le mois 03'!O28</f>
         <v>0</v>
       </c>
-      <c r="F24" s="162">
+      <c r="F24" s="84">
         <f ca="1">'le mois 03'!P28</f>
         <v>0</v>
       </c>
-      <c r="G24" s="162">
+      <c r="G24" s="84">
         <f ca="1">'le mois 03'!Q28</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="161">
+      <c r="A25" s="83">
         <f>'le mois 03'!A29</f>
         <v>45740</v>
       </c>
-      <c r="B25" s="162">
+      <c r="B25" s="84">
         <f ca="1">'le mois 03'!L29</f>
         <v>0</v>
       </c>
-      <c r="C25" s="162">
+      <c r="C25" s="84">
         <f ca="1">'le mois 03'!M29</f>
         <v>0</v>
       </c>
-      <c r="D25" s="162">
+      <c r="D25" s="84">
         <f ca="1">'le mois 03'!N29</f>
         <v>0</v>
       </c>
-      <c r="E25" s="162">
+      <c r="E25" s="84">
         <f ca="1">'le mois 03'!O29</f>
         <v>0</v>
       </c>
-      <c r="F25" s="162">
+      <c r="F25" s="84">
         <f ca="1">'le mois 03'!P29</f>
         <v>0</v>
       </c>
-      <c r="G25" s="162">
+      <c r="G25" s="84">
         <f ca="1">'le mois 03'!Q29</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="161">
+      <c r="A26" s="83">
         <f>'le mois 03'!A30</f>
         <v>45741</v>
       </c>
-      <c r="B26" s="162">
+      <c r="B26" s="84">
         <f ca="1">'le mois 03'!L30</f>
         <v>0</v>
       </c>
-      <c r="C26" s="162">
+      <c r="C26" s="84">
         <f ca="1">'le mois 03'!M30</f>
         <v>0</v>
       </c>
-      <c r="D26" s="162">
+      <c r="D26" s="84">
         <f ca="1">'le mois 03'!N30</f>
         <v>0</v>
       </c>
-      <c r="E26" s="162">
+      <c r="E26" s="84">
         <f ca="1">'le mois 03'!O30</f>
         <v>0</v>
       </c>
-      <c r="F26" s="162">
+      <c r="F26" s="84">
         <f ca="1">'le mois 03'!P30</f>
         <v>0</v>
       </c>
-      <c r="G26" s="162">
+      <c r="G26" s="84">
         <f ca="1">'le mois 03'!Q30</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="161">
+      <c r="A27" s="83">
         <f>'le mois 03'!A31</f>
         <v>45742</v>
       </c>
-      <c r="B27" s="162">
+      <c r="B27" s="84">
         <f ca="1">'le mois 03'!L31</f>
         <v>0</v>
       </c>
-      <c r="C27" s="162">
+      <c r="C27" s="84">
         <f ca="1">'le mois 03'!M31</f>
         <v>0</v>
       </c>
-      <c r="D27" s="162">
+      <c r="D27" s="84">
         <f ca="1">'le mois 03'!N31</f>
         <v>0</v>
       </c>
-      <c r="E27" s="162">
+      <c r="E27" s="84">
         <f ca="1">'le mois 03'!O31</f>
         <v>0</v>
       </c>
-      <c r="F27" s="162">
+      <c r="F27" s="84">
         <f ca="1">'le mois 03'!P31</f>
         <v>0</v>
       </c>
-      <c r="G27" s="162">
+      <c r="G27" s="84">
         <f ca="1">'le mois 03'!Q31</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="161">
+      <c r="A28" s="83">
         <f>'le mois 03'!A32</f>
         <v>45743</v>
       </c>
-      <c r="B28" s="162">
+      <c r="B28" s="84">
         <f ca="1">'le mois 03'!L32</f>
         <v>0</v>
       </c>
-      <c r="C28" s="162">
+      <c r="C28" s="84">
         <f ca="1">'le mois 03'!M32</f>
         <v>0</v>
       </c>
-      <c r="D28" s="162">
+      <c r="D28" s="84">
         <f ca="1">'le mois 03'!N32</f>
         <v>0</v>
       </c>
-      <c r="E28" s="162">
+      <c r="E28" s="84">
         <f ca="1">'le mois 03'!O32</f>
         <v>0</v>
       </c>
-      <c r="F28" s="162">
+      <c r="F28" s="84">
         <f ca="1">'le mois 03'!P32</f>
         <v>0</v>
       </c>
-      <c r="G28" s="162">
+      <c r="G28" s="84">
         <f ca="1">'le mois 03'!Q32</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="161">
+      <c r="A29" s="83">
         <f>'le mois 03'!A33</f>
         <v>45744</v>
       </c>
-      <c r="B29" s="162">
+      <c r="B29" s="84">
         <f ca="1">'le mois 03'!L33</f>
         <v>0</v>
       </c>
-      <c r="C29" s="162">
+      <c r="C29" s="84">
         <f ca="1">'le mois 03'!M33</f>
         <v>0</v>
       </c>
-      <c r="D29" s="162">
+      <c r="D29" s="84">
         <f ca="1">'le mois 03'!N33</f>
         <v>0</v>
       </c>
-      <c r="E29" s="162">
+      <c r="E29" s="84">
         <f ca="1">'le mois 03'!O33</f>
         <v>0</v>
       </c>
-      <c r="F29" s="162">
+      <c r="F29" s="84">
         <f ca="1">'le mois 03'!P33</f>
         <v>0</v>
       </c>
-      <c r="G29" s="162">
+      <c r="G29" s="84">
         <f ca="1">'le mois 03'!Q33</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="161">
+      <c r="A30" s="83">
         <f>'le mois 03'!A34</f>
         <v>45745</v>
       </c>
-      <c r="B30" s="162">
+      <c r="B30" s="84">
         <f ca="1">'le mois 03'!L34</f>
         <v>0</v>
       </c>
-      <c r="C30" s="162">
+      <c r="C30" s="84">
         <f ca="1">'le mois 03'!M34</f>
         <v>0</v>
       </c>
-      <c r="D30" s="162">
+      <c r="D30" s="84">
         <f ca="1">'le mois 03'!N34</f>
         <v>0</v>
       </c>
-      <c r="E30" s="162">
+      <c r="E30" s="84">
         <f ca="1">'le mois 03'!O34</f>
         <v>0</v>
       </c>
-      <c r="F30" s="162">
+      <c r="F30" s="84">
         <f ca="1">'le mois 03'!P34</f>
         <v>0</v>
       </c>
-      <c r="G30" s="162">
+      <c r="G30" s="84">
         <f ca="1">'le mois 03'!Q34</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="161">
+      <c r="A31" s="83">
         <f>'le mois 03'!A35</f>
         <v>45746</v>
       </c>
-      <c r="B31" s="162">
+      <c r="B31" s="84">
         <f ca="1">'le mois 03'!L35</f>
         <v>0</v>
       </c>
-      <c r="C31" s="162">
+      <c r="C31" s="84">
         <f ca="1">'le mois 03'!M35</f>
         <v>0</v>
       </c>
-      <c r="D31" s="162">
+      <c r="D31" s="84">
         <f ca="1">'le mois 03'!N35</f>
         <v>0</v>
       </c>
-      <c r="E31" s="162">
+      <c r="E31" s="84">
         <f ca="1">'le mois 03'!O35</f>
         <v>0</v>
       </c>
-      <c r="F31" s="162">
+      <c r="F31" s="84">
         <f ca="1">'le mois 03'!P35</f>
         <v>0</v>
       </c>
-      <c r="G31" s="162">
+      <c r="G31" s="84">
         <f ca="1">'le mois 03'!Q35</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="161">
+      <c r="A32" s="83">
         <f>'le mois 03'!A36</f>
         <v>45747</v>
       </c>
-      <c r="B32" s="162">
+      <c r="B32" s="84">
         <f ca="1">'le mois 03'!L36</f>
         <v>0</v>
       </c>
-      <c r="C32" s="162">
+      <c r="C32" s="84">
         <f ca="1">'le mois 03'!M36</f>
         <v>0</v>
       </c>
-      <c r="D32" s="162">
+      <c r="D32" s="84">
         <f ca="1">'le mois 03'!N36</f>
         <v>0</v>
       </c>
-      <c r="E32" s="162">
+      <c r="E32" s="84">
         <f ca="1">'le mois 03'!O36</f>
         <v>0</v>
       </c>
-      <c r="F32" s="162">
+      <c r="F32" s="84">
         <f ca="1">'le mois 03'!P36</f>
         <v>0</v>
       </c>
-      <c r="G32" s="162">
+      <c r="G32" s="84">
         <f ca="1">'le mois 03'!Q36</f>
         <v>0</v>
       </c>
@@ -11506,931 +11506,931 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="161">
+      <c r="A2" s="83">
         <f>'le mois 03'!A6</f>
         <v>45717</v>
       </c>
-      <c r="B2" s="162">
+      <c r="B2" s="84">
         <f ca="1">'le mois 03'!R6</f>
         <v>0</v>
       </c>
-      <c r="C2" s="162">
+      <c r="C2" s="84">
         <f ca="1">'le mois 03'!S6</f>
         <v>0</v>
       </c>
-      <c r="D2" s="162">
+      <c r="D2" s="84">
         <f ca="1">'le mois 03'!T6</f>
         <v>0</v>
       </c>
-      <c r="E2" s="162">
+      <c r="E2" s="84">
         <f ca="1">'le mois 03'!U6</f>
         <v>0</v>
       </c>
-      <c r="F2" s="162">
+      <c r="F2" s="84">
         <f ca="1">'le mois 03'!V6</f>
         <v>0</v>
       </c>
-      <c r="G2" s="162">
+      <c r="G2" s="84">
         <f ca="1">'le mois 03'!W6</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="161">
+      <c r="A3" s="83">
         <f>'le mois 03'!A7</f>
         <v>45718</v>
       </c>
-      <c r="B3" s="162">
+      <c r="B3" s="84">
         <f ca="1">'le mois 03'!R7</f>
         <v>0</v>
       </c>
-      <c r="C3" s="162">
+      <c r="C3" s="84">
         <f ca="1">'le mois 03'!S7</f>
         <v>0</v>
       </c>
-      <c r="D3" s="162">
+      <c r="D3" s="84">
         <f ca="1">'le mois 03'!T7</f>
         <v>0</v>
       </c>
-      <c r="E3" s="162">
+      <c r="E3" s="84">
         <f ca="1">'le mois 03'!U7</f>
         <v>0</v>
       </c>
-      <c r="F3" s="162">
+      <c r="F3" s="84">
         <f ca="1">'le mois 03'!V7</f>
         <v>0</v>
       </c>
-      <c r="G3" s="162">
+      <c r="G3" s="84">
         <f ca="1">'le mois 03'!W7</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="161">
+      <c r="A4" s="83">
         <f>'le mois 03'!A8</f>
         <v>45719</v>
       </c>
-      <c r="B4" s="162">
+      <c r="B4" s="84">
         <f ca="1">'le mois 03'!R8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="162">
+      <c r="C4" s="84">
         <f ca="1">'le mois 03'!S8</f>
         <v>0</v>
       </c>
-      <c r="D4" s="162">
+      <c r="D4" s="84">
         <f ca="1">'le mois 03'!T8</f>
         <v>0</v>
       </c>
-      <c r="E4" s="162">
+      <c r="E4" s="84">
         <f ca="1">'le mois 03'!U8</f>
         <v>0</v>
       </c>
-      <c r="F4" s="162">
+      <c r="F4" s="84">
         <f ca="1">'le mois 03'!V8</f>
         <v>0</v>
       </c>
-      <c r="G4" s="162">
+      <c r="G4" s="84">
         <f ca="1">'le mois 03'!W8</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="161">
+      <c r="A5" s="83">
         <f>'le mois 03'!A9</f>
         <v>45720</v>
       </c>
-      <c r="B5" s="162">
+      <c r="B5" s="84">
         <f ca="1">'le mois 03'!R9</f>
         <v>0</v>
       </c>
-      <c r="C5" s="162">
+      <c r="C5" s="84">
         <f ca="1">'le mois 03'!S9</f>
         <v>0</v>
       </c>
-      <c r="D5" s="162">
+      <c r="D5" s="84">
         <f ca="1">'le mois 03'!T9</f>
         <v>0</v>
       </c>
-      <c r="E5" s="162">
+      <c r="E5" s="84">
         <f ca="1">'le mois 03'!U9</f>
         <v>0</v>
       </c>
-      <c r="F5" s="162">
+      <c r="F5" s="84">
         <f ca="1">'le mois 03'!V9</f>
         <v>0</v>
       </c>
-      <c r="G5" s="162">
+      <c r="G5" s="84">
         <f ca="1">'le mois 03'!W9</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="161">
+      <c r="A6" s="83">
         <f>'le mois 03'!A10</f>
         <v>45721</v>
       </c>
-      <c r="B6" s="162">
+      <c r="B6" s="84">
         <f ca="1">'le mois 03'!R10</f>
         <v>0</v>
       </c>
-      <c r="C6" s="162">
+      <c r="C6" s="84">
         <f ca="1">'le mois 03'!S10</f>
         <v>0</v>
       </c>
-      <c r="D6" s="162">
+      <c r="D6" s="84">
         <f ca="1">'le mois 03'!T10</f>
         <v>0</v>
       </c>
-      <c r="E6" s="162">
+      <c r="E6" s="84">
         <f ca="1">'le mois 03'!U10</f>
         <v>0</v>
       </c>
-      <c r="F6" s="162">
+      <c r="F6" s="84">
         <f ca="1">'le mois 03'!V10</f>
         <v>0</v>
       </c>
-      <c r="G6" s="162">
+      <c r="G6" s="84">
         <f ca="1">'le mois 03'!W10</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="161">
+      <c r="A7" s="83">
         <f>'le mois 03'!A11</f>
         <v>45722</v>
       </c>
-      <c r="B7" s="162">
+      <c r="B7" s="84">
         <f ca="1">'le mois 03'!R11</f>
         <v>0</v>
       </c>
-      <c r="C7" s="162">
+      <c r="C7" s="84">
         <f ca="1">'le mois 03'!S11</f>
         <v>0</v>
       </c>
-      <c r="D7" s="162">
+      <c r="D7" s="84">
         <f ca="1">'le mois 03'!T11</f>
         <v>0</v>
       </c>
-      <c r="E7" s="162">
+      <c r="E7" s="84">
         <f ca="1">'le mois 03'!U11</f>
         <v>0</v>
       </c>
-      <c r="F7" s="162">
+      <c r="F7" s="84">
         <f ca="1">'le mois 03'!V11</f>
         <v>0</v>
       </c>
-      <c r="G7" s="162">
+      <c r="G7" s="84">
         <f ca="1">'le mois 03'!W11</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="161">
+      <c r="A8" s="83">
         <f>'le mois 03'!A12</f>
         <v>45723</v>
       </c>
-      <c r="B8" s="162">
+      <c r="B8" s="84">
         <f ca="1">'le mois 03'!R12</f>
         <v>0</v>
       </c>
-      <c r="C8" s="162">
+      <c r="C8" s="84">
         <f ca="1">'le mois 03'!S12</f>
         <v>0</v>
       </c>
-      <c r="D8" s="162">
+      <c r="D8" s="84">
         <f ca="1">'le mois 03'!T12</f>
         <v>0</v>
       </c>
-      <c r="E8" s="162">
+      <c r="E8" s="84">
         <f ca="1">'le mois 03'!U12</f>
         <v>0</v>
       </c>
-      <c r="F8" s="162">
+      <c r="F8" s="84">
         <f ca="1">'le mois 03'!V12</f>
         <v>0</v>
       </c>
-      <c r="G8" s="162">
+      <c r="G8" s="84">
         <f ca="1">'le mois 03'!W12</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="161">
+      <c r="A9" s="83">
         <f>'le mois 03'!A13</f>
         <v>45724</v>
       </c>
-      <c r="B9" s="162">
+      <c r="B9" s="84">
         <f ca="1">'le mois 03'!R13</f>
         <v>0</v>
       </c>
-      <c r="C9" s="162">
+      <c r="C9" s="84">
         <f ca="1">'le mois 03'!S13</f>
         <v>0</v>
       </c>
-      <c r="D9" s="162">
+      <c r="D9" s="84">
         <f ca="1">'le mois 03'!T13</f>
         <v>0</v>
       </c>
-      <c r="E9" s="162">
+      <c r="E9" s="84">
         <f ca="1">'le mois 03'!U13</f>
         <v>0</v>
       </c>
-      <c r="F9" s="162">
+      <c r="F9" s="84">
         <f ca="1">'le mois 03'!V13</f>
         <v>0</v>
       </c>
-      <c r="G9" s="162">
+      <c r="G9" s="84">
         <f ca="1">'le mois 03'!W13</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="161">
+      <c r="A10" s="83">
         <f>'le mois 03'!A14</f>
         <v>45725</v>
       </c>
-      <c r="B10" s="162">
+      <c r="B10" s="84">
         <f ca="1">'le mois 03'!R14</f>
         <v>0</v>
       </c>
-      <c r="C10" s="162">
+      <c r="C10" s="84">
         <f ca="1">'le mois 03'!S14</f>
         <v>0</v>
       </c>
-      <c r="D10" s="162">
+      <c r="D10" s="84">
         <f ca="1">'le mois 03'!T14</f>
         <v>0</v>
       </c>
-      <c r="E10" s="162">
+      <c r="E10" s="84">
         <f ca="1">'le mois 03'!U14</f>
         <v>0</v>
       </c>
-      <c r="F10" s="162">
+      <c r="F10" s="84">
         <f ca="1">'le mois 03'!V14</f>
         <v>0</v>
       </c>
-      <c r="G10" s="162">
+      <c r="G10" s="84">
         <f ca="1">'le mois 03'!W14</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="161">
+      <c r="A11" s="83">
         <f>'le mois 03'!A15</f>
         <v>45726</v>
       </c>
-      <c r="B11" s="162">
+      <c r="B11" s="84">
         <f ca="1">'le mois 03'!R15</f>
         <v>0</v>
       </c>
-      <c r="C11" s="162">
+      <c r="C11" s="84">
         <f ca="1">'le mois 03'!S15</f>
         <v>0</v>
       </c>
-      <c r="D11" s="162">
+      <c r="D11" s="84">
         <f ca="1">'le mois 03'!T15</f>
         <v>0</v>
       </c>
-      <c r="E11" s="162">
+      <c r="E11" s="84">
         <f ca="1">'le mois 03'!U15</f>
         <v>0</v>
       </c>
-      <c r="F11" s="162">
+      <c r="F11" s="84">
         <f ca="1">'le mois 03'!V15</f>
         <v>0</v>
       </c>
-      <c r="G11" s="162">
+      <c r="G11" s="84">
         <f ca="1">'le mois 03'!W15</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="161">
+      <c r="A12" s="83">
         <f>'le mois 03'!A16</f>
         <v>45727</v>
       </c>
-      <c r="B12" s="162">
+      <c r="B12" s="84">
         <f ca="1">'le mois 03'!R16</f>
         <v>0</v>
       </c>
-      <c r="C12" s="162">
+      <c r="C12" s="84">
         <f ca="1">'le mois 03'!S16</f>
         <v>0</v>
       </c>
-      <c r="D12" s="162">
+      <c r="D12" s="84">
         <f ca="1">'le mois 03'!T16</f>
         <v>0</v>
       </c>
-      <c r="E12" s="162">
+      <c r="E12" s="84">
         <f ca="1">'le mois 03'!U16</f>
         <v>0</v>
       </c>
-      <c r="F12" s="162">
+      <c r="F12" s="84">
         <f ca="1">'le mois 03'!V16</f>
         <v>0</v>
       </c>
-      <c r="G12" s="162">
+      <c r="G12" s="84">
         <f ca="1">'le mois 03'!W16</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="161">
+      <c r="A13" s="83">
         <f>'le mois 03'!A17</f>
         <v>45728</v>
       </c>
-      <c r="B13" s="162">
+      <c r="B13" s="84">
         <f ca="1">'le mois 03'!R17</f>
         <v>0</v>
       </c>
-      <c r="C13" s="162">
+      <c r="C13" s="84">
         <f ca="1">'le mois 03'!S17</f>
         <v>0</v>
       </c>
-      <c r="D13" s="162">
+      <c r="D13" s="84">
         <f ca="1">'le mois 03'!T17</f>
         <v>0</v>
       </c>
-      <c r="E13" s="162">
+      <c r="E13" s="84">
         <f ca="1">'le mois 03'!U17</f>
         <v>0</v>
       </c>
-      <c r="F13" s="162">
+      <c r="F13" s="84">
         <f ca="1">'le mois 03'!V17</f>
         <v>0</v>
       </c>
-      <c r="G13" s="162">
+      <c r="G13" s="84">
         <f ca="1">'le mois 03'!W17</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="161">
+      <c r="A14" s="83">
         <f>'le mois 03'!A18</f>
         <v>45729</v>
       </c>
-      <c r="B14" s="162">
+      <c r="B14" s="84">
         <f ca="1">'le mois 03'!R18</f>
         <v>0</v>
       </c>
-      <c r="C14" s="162">
+      <c r="C14" s="84">
         <f ca="1">'le mois 03'!S18</f>
         <v>0</v>
       </c>
-      <c r="D14" s="162">
+      <c r="D14" s="84">
         <f ca="1">'le mois 03'!T18</f>
         <v>0</v>
       </c>
-      <c r="E14" s="162">
+      <c r="E14" s="84">
         <f ca="1">'le mois 03'!U18</f>
         <v>0</v>
       </c>
-      <c r="F14" s="162">
+      <c r="F14" s="84">
         <f ca="1">'le mois 03'!V18</f>
         <v>0</v>
       </c>
-      <c r="G14" s="162">
+      <c r="G14" s="84">
         <f ca="1">'le mois 03'!W18</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="161">
+      <c r="A15" s="83">
         <f>'le mois 03'!A19</f>
         <v>45730</v>
       </c>
-      <c r="B15" s="162">
+      <c r="B15" s="84">
         <f ca="1">'le mois 03'!R19</f>
         <v>0</v>
       </c>
-      <c r="C15" s="162">
+      <c r="C15" s="84">
         <f ca="1">'le mois 03'!S19</f>
         <v>0</v>
       </c>
-      <c r="D15" s="162">
+      <c r="D15" s="84">
         <f ca="1">'le mois 03'!T19</f>
         <v>0</v>
       </c>
-      <c r="E15" s="162">
+      <c r="E15" s="84">
         <f ca="1">'le mois 03'!U19</f>
         <v>0</v>
       </c>
-      <c r="F15" s="162">
+      <c r="F15" s="84">
         <f ca="1">'le mois 03'!V19</f>
         <v>0</v>
       </c>
-      <c r="G15" s="162">
+      <c r="G15" s="84">
         <f ca="1">'le mois 03'!W19</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="161">
+      <c r="A16" s="83">
         <f>'le mois 03'!A20</f>
         <v>45731</v>
       </c>
-      <c r="B16" s="162">
+      <c r="B16" s="84">
         <f ca="1">'le mois 03'!R20</f>
         <v>0</v>
       </c>
-      <c r="C16" s="162">
+      <c r="C16" s="84">
         <f ca="1">'le mois 03'!S20</f>
         <v>0</v>
       </c>
-      <c r="D16" s="162">
+      <c r="D16" s="84">
         <f ca="1">'le mois 03'!T20</f>
         <v>0</v>
       </c>
-      <c r="E16" s="162">
+      <c r="E16" s="84">
         <f ca="1">'le mois 03'!U20</f>
         <v>0</v>
       </c>
-      <c r="F16" s="162">
+      <c r="F16" s="84">
         <f ca="1">'le mois 03'!V20</f>
         <v>0</v>
       </c>
-      <c r="G16" s="162">
+      <c r="G16" s="84">
         <f ca="1">'le mois 03'!W20</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="161">
+      <c r="A17" s="83">
         <f>'le mois 03'!A21</f>
         <v>45732</v>
       </c>
-      <c r="B17" s="162">
+      <c r="B17" s="84">
         <f ca="1">'le mois 03'!R21</f>
         <v>0</v>
       </c>
-      <c r="C17" s="162">
+      <c r="C17" s="84">
         <f ca="1">'le mois 03'!S21</f>
         <v>0</v>
       </c>
-      <c r="D17" s="162">
+      <c r="D17" s="84">
         <f ca="1">'le mois 03'!T21</f>
         <v>0</v>
       </c>
-      <c r="E17" s="162">
+      <c r="E17" s="84">
         <f ca="1">'le mois 03'!U21</f>
         <v>0</v>
       </c>
-      <c r="F17" s="162">
+      <c r="F17" s="84">
         <f ca="1">'le mois 03'!V21</f>
         <v>0</v>
       </c>
-      <c r="G17" s="162">
+      <c r="G17" s="84">
         <f ca="1">'le mois 03'!W21</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="161">
+      <c r="A18" s="83">
         <f>'le mois 03'!A22</f>
         <v>45733</v>
       </c>
-      <c r="B18" s="162">
+      <c r="B18" s="84">
         <f ca="1">'le mois 03'!R22</f>
         <v>0</v>
       </c>
-      <c r="C18" s="162">
+      <c r="C18" s="84">
         <f ca="1">'le mois 03'!S22</f>
         <v>0</v>
       </c>
-      <c r="D18" s="162">
+      <c r="D18" s="84">
         <f ca="1">'le mois 03'!T22</f>
         <v>0</v>
       </c>
-      <c r="E18" s="162">
+      <c r="E18" s="84">
         <f ca="1">'le mois 03'!U22</f>
         <v>0</v>
       </c>
-      <c r="F18" s="162">
+      <c r="F18" s="84">
         <f ca="1">'le mois 03'!V22</f>
         <v>0</v>
       </c>
-      <c r="G18" s="162">
+      <c r="G18" s="84">
         <f ca="1">'le mois 03'!W22</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="161">
+      <c r="A19" s="83">
         <f>'le mois 03'!A23</f>
         <v>45734</v>
       </c>
-      <c r="B19" s="162">
+      <c r="B19" s="84">
         <f ca="1">'le mois 03'!R23</f>
         <v>0</v>
       </c>
-      <c r="C19" s="162">
+      <c r="C19" s="84">
         <f ca="1">'le mois 03'!S23</f>
         <v>0</v>
       </c>
-      <c r="D19" s="162">
+      <c r="D19" s="84">
         <f ca="1">'le mois 03'!T23</f>
         <v>0</v>
       </c>
-      <c r="E19" s="162">
+      <c r="E19" s="84">
         <f ca="1">'le mois 03'!U23</f>
         <v>0</v>
       </c>
-      <c r="F19" s="162">
+      <c r="F19" s="84">
         <f ca="1">'le mois 03'!V23</f>
         <v>0</v>
       </c>
-      <c r="G19" s="162">
+      <c r="G19" s="84">
         <f ca="1">'le mois 03'!W23</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="161">
+      <c r="A20" s="83">
         <f>'le mois 03'!A24</f>
         <v>45735</v>
       </c>
-      <c r="B20" s="162">
+      <c r="B20" s="84">
         <f>'le mois 03'!R24</f>
         <v>11.733333333333334</v>
       </c>
-      <c r="C20" s="162">
+      <c r="C20" s="84">
         <f>'le mois 03'!S24</f>
         <v>32166.666666666668</v>
       </c>
-      <c r="D20" s="162">
+      <c r="D20" s="84">
         <f>'le mois 03'!T24</f>
         <v>5.4533333333333331</v>
       </c>
-      <c r="E20" s="162">
+      <c r="E20" s="84">
         <f>'le mois 03'!U24</f>
         <v>0.44666666666666671</v>
       </c>
-      <c r="F20" s="162">
+      <c r="F20" s="84">
         <f>'le mois 03'!V24</f>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="G20" s="162">
+      <c r="G20" s="84">
         <f>'le mois 03'!W24</f>
         <v>115.43333333333332</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="161">
+      <c r="A21" s="83">
         <f>'le mois 03'!A25</f>
         <v>45736</v>
       </c>
-      <c r="B21" s="162">
+      <c r="B21" s="84">
         <f ca="1">'le mois 03'!R25</f>
         <v>0</v>
       </c>
-      <c r="C21" s="162">
+      <c r="C21" s="84">
         <f ca="1">'le mois 03'!S25</f>
         <v>0</v>
       </c>
-      <c r="D21" s="162">
+      <c r="D21" s="84">
         <f ca="1">'le mois 03'!T25</f>
         <v>0</v>
       </c>
-      <c r="E21" s="162">
+      <c r="E21" s="84">
         <f ca="1">'le mois 03'!U25</f>
         <v>0</v>
       </c>
-      <c r="F21" s="162">
+      <c r="F21" s="84">
         <f ca="1">'le mois 03'!V25</f>
         <v>0</v>
       </c>
-      <c r="G21" s="162">
+      <c r="G21" s="84">
         <f ca="1">'le mois 03'!W25</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="161">
+      <c r="A22" s="83">
         <f>'le mois 03'!A26</f>
         <v>45737</v>
       </c>
-      <c r="B22" s="162">
+      <c r="B22" s="84">
         <f ca="1">'le mois 03'!R26</f>
         <v>0</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="84">
         <f ca="1">'le mois 03'!S26</f>
         <v>0</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="84">
         <f ca="1">'le mois 03'!T26</f>
         <v>0</v>
       </c>
-      <c r="E22" s="162">
+      <c r="E22" s="84">
         <f ca="1">'le mois 03'!U26</f>
         <v>0</v>
       </c>
-      <c r="F22" s="162">
+      <c r="F22" s="84">
         <f ca="1">'le mois 03'!V26</f>
         <v>0</v>
       </c>
-      <c r="G22" s="162">
+      <c r="G22" s="84">
         <f ca="1">'le mois 03'!W26</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="161">
+      <c r="A23" s="83">
         <f>'le mois 03'!A27</f>
         <v>45738</v>
       </c>
-      <c r="B23" s="162">
+      <c r="B23" s="84">
         <f ca="1">'le mois 03'!R27</f>
         <v>0</v>
       </c>
-      <c r="C23" s="162">
+      <c r="C23" s="84">
         <f ca="1">'le mois 03'!S27</f>
         <v>0</v>
       </c>
-      <c r="D23" s="162">
+      <c r="D23" s="84">
         <f ca="1">'le mois 03'!T27</f>
         <v>0</v>
       </c>
-      <c r="E23" s="162">
+      <c r="E23" s="84">
         <f ca="1">'le mois 03'!U27</f>
         <v>0</v>
       </c>
-      <c r="F23" s="162">
+      <c r="F23" s="84">
         <f ca="1">'le mois 03'!V27</f>
         <v>0</v>
       </c>
-      <c r="G23" s="162">
+      <c r="G23" s="84">
         <f ca="1">'le mois 03'!W27</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="161">
+      <c r="A24" s="83">
         <f>'le mois 03'!A28</f>
         <v>45739</v>
       </c>
-      <c r="B24" s="162">
+      <c r="B24" s="84">
         <f ca="1">'le mois 03'!R28</f>
         <v>0</v>
       </c>
-      <c r="C24" s="162">
+      <c r="C24" s="84">
         <f ca="1">'le mois 03'!S28</f>
         <v>0</v>
       </c>
-      <c r="D24" s="162">
+      <c r="D24" s="84">
         <f ca="1">'le mois 03'!T28</f>
         <v>0</v>
       </c>
-      <c r="E24" s="162">
+      <c r="E24" s="84">
         <f ca="1">'le mois 03'!U28</f>
         <v>0</v>
       </c>
-      <c r="F24" s="162">
+      <c r="F24" s="84">
         <f ca="1">'le mois 03'!V28</f>
         <v>0</v>
       </c>
-      <c r="G24" s="162">
+      <c r="G24" s="84">
         <f ca="1">'le mois 03'!W28</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="161">
+      <c r="A25" s="83">
         <f>'le mois 03'!A29</f>
         <v>45740</v>
       </c>
-      <c r="B25" s="162">
+      <c r="B25" s="84">
         <f ca="1">'le mois 03'!R29</f>
         <v>0</v>
       </c>
-      <c r="C25" s="162">
+      <c r="C25" s="84">
         <f ca="1">'le mois 03'!S29</f>
         <v>0</v>
       </c>
-      <c r="D25" s="162">
+      <c r="D25" s="84">
         <f ca="1">'le mois 03'!T29</f>
         <v>0</v>
       </c>
-      <c r="E25" s="162">
+      <c r="E25" s="84">
         <f ca="1">'le mois 03'!U29</f>
         <v>0</v>
       </c>
-      <c r="F25" s="162">
+      <c r="F25" s="84">
         <f ca="1">'le mois 03'!V29</f>
         <v>0</v>
       </c>
-      <c r="G25" s="162">
+      <c r="G25" s="84">
         <f ca="1">'le mois 03'!W29</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="161">
+      <c r="A26" s="83">
         <f>'le mois 03'!A30</f>
         <v>45741</v>
       </c>
-      <c r="B26" s="162">
+      <c r="B26" s="84">
         <f ca="1">'le mois 03'!R30</f>
         <v>0</v>
       </c>
-      <c r="C26" s="162">
+      <c r="C26" s="84">
         <f ca="1">'le mois 03'!S30</f>
         <v>0</v>
       </c>
-      <c r="D26" s="162">
+      <c r="D26" s="84">
         <f ca="1">'le mois 03'!T30</f>
         <v>0</v>
       </c>
-      <c r="E26" s="162">
+      <c r="E26" s="84">
         <f ca="1">'le mois 03'!U30</f>
         <v>0</v>
       </c>
-      <c r="F26" s="162">
+      <c r="F26" s="84">
         <f ca="1">'le mois 03'!V30</f>
         <v>0</v>
       </c>
-      <c r="G26" s="162">
+      <c r="G26" s="84">
         <f ca="1">'le mois 03'!W30</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="161">
+      <c r="A27" s="83">
         <f>'le mois 03'!A31</f>
         <v>45742</v>
       </c>
-      <c r="B27" s="162">
+      <c r="B27" s="84">
         <f ca="1">'le mois 03'!R31</f>
         <v>0</v>
       </c>
-      <c r="C27" s="162">
+      <c r="C27" s="84">
         <f ca="1">'le mois 03'!S31</f>
         <v>0</v>
       </c>
-      <c r="D27" s="162">
+      <c r="D27" s="84">
         <f ca="1">'le mois 03'!T31</f>
         <v>0</v>
       </c>
-      <c r="E27" s="162">
+      <c r="E27" s="84">
         <f ca="1">'le mois 03'!U31</f>
         <v>0</v>
       </c>
-      <c r="F27" s="162">
+      <c r="F27" s="84">
         <f ca="1">'le mois 03'!V31</f>
         <v>0</v>
       </c>
-      <c r="G27" s="162">
+      <c r="G27" s="84">
         <f ca="1">'le mois 03'!W31</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="161">
+      <c r="A28" s="83">
         <f>'le mois 03'!A32</f>
         <v>45743</v>
       </c>
-      <c r="B28" s="162">
+      <c r="B28" s="84">
         <f ca="1">'le mois 03'!R32</f>
         <v>0</v>
       </c>
-      <c r="C28" s="162">
+      <c r="C28" s="84">
         <f ca="1">'le mois 03'!S32</f>
         <v>0</v>
       </c>
-      <c r="D28" s="162">
+      <c r="D28" s="84">
         <f ca="1">'le mois 03'!T32</f>
         <v>0</v>
       </c>
-      <c r="E28" s="162">
+      <c r="E28" s="84">
         <f ca="1">'le mois 03'!U32</f>
         <v>0</v>
       </c>
-      <c r="F28" s="162">
+      <c r="F28" s="84">
         <f ca="1">'le mois 03'!V32</f>
         <v>0</v>
       </c>
-      <c r="G28" s="162">
+      <c r="G28" s="84">
         <f ca="1">'le mois 03'!W32</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="161">
+      <c r="A29" s="83">
         <f>'le mois 03'!A33</f>
         <v>45744</v>
       </c>
-      <c r="B29" s="162">
+      <c r="B29" s="84">
         <f ca="1">'le mois 03'!R33</f>
         <v>0</v>
       </c>
-      <c r="C29" s="162">
+      <c r="C29" s="84">
         <f ca="1">'le mois 03'!S33</f>
         <v>0</v>
       </c>
-      <c r="D29" s="162">
+      <c r="D29" s="84">
         <f ca="1">'le mois 03'!T33</f>
         <v>0</v>
       </c>
-      <c r="E29" s="162">
+      <c r="E29" s="84">
         <f ca="1">'le mois 03'!U33</f>
         <v>0</v>
       </c>
-      <c r="F29" s="162">
+      <c r="F29" s="84">
         <f ca="1">'le mois 03'!V33</f>
         <v>0</v>
       </c>
-      <c r="G29" s="162">
+      <c r="G29" s="84">
         <f ca="1">'le mois 03'!W33</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="161">
+      <c r="A30" s="83">
         <f>'le mois 03'!A34</f>
         <v>45745</v>
       </c>
-      <c r="B30" s="162">
+      <c r="B30" s="84">
         <f ca="1">'le mois 03'!R34</f>
         <v>0</v>
       </c>
-      <c r="C30" s="162">
+      <c r="C30" s="84">
         <f ca="1">'le mois 03'!S34</f>
         <v>0</v>
       </c>
-      <c r="D30" s="162">
+      <c r="D30" s="84">
         <f ca="1">'le mois 03'!T34</f>
         <v>0</v>
       </c>
-      <c r="E30" s="162">
+      <c r="E30" s="84">
         <f ca="1">'le mois 03'!U34</f>
         <v>0</v>
       </c>
-      <c r="F30" s="162">
+      <c r="F30" s="84">
         <f ca="1">'le mois 03'!V34</f>
         <v>0</v>
       </c>
-      <c r="G30" s="162">
+      <c r="G30" s="84">
         <f ca="1">'le mois 03'!W34</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="161">
+      <c r="A31" s="83">
         <f>'le mois 03'!A35</f>
         <v>45746</v>
       </c>
-      <c r="B31" s="162">
+      <c r="B31" s="84">
         <f ca="1">'le mois 03'!R35</f>
         <v>0</v>
       </c>
-      <c r="C31" s="162">
+      <c r="C31" s="84">
         <f ca="1">'le mois 03'!S35</f>
         <v>0</v>
       </c>
-      <c r="D31" s="162">
+      <c r="D31" s="84">
         <f ca="1">'le mois 03'!T35</f>
         <v>0</v>
       </c>
-      <c r="E31" s="162">
+      <c r="E31" s="84">
         <f ca="1">'le mois 03'!U35</f>
         <v>0</v>
       </c>
-      <c r="F31" s="162">
+      <c r="F31" s="84">
         <f ca="1">'le mois 03'!V35</f>
         <v>0</v>
       </c>
-      <c r="G31" s="162">
+      <c r="G31" s="84">
         <f ca="1">'le mois 03'!W35</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="161">
+      <c r="A32" s="83">
         <f>'le mois 03'!A36</f>
         <v>45747</v>
       </c>
-      <c r="B32" s="162">
+      <c r="B32" s="84">
         <f ca="1">'le mois 03'!R36</f>
         <v>0</v>
       </c>
-      <c r="C32" s="162">
+      <c r="C32" s="84">
         <f ca="1">'le mois 03'!S36</f>
         <v>0</v>
       </c>
-      <c r="D32" s="162">
+      <c r="D32" s="84">
         <f ca="1">'le mois 03'!T36</f>
         <v>0</v>
       </c>
-      <c r="E32" s="162">
+      <c r="E32" s="84">
         <f ca="1">'le mois 03'!U36</f>
         <v>0</v>
       </c>
-      <c r="F32" s="162">
+      <c r="F32" s="84">
         <f ca="1">'le mois 03'!V36</f>
         <v>0</v>
       </c>
-      <c r="G32" s="162">
+      <c r="G32" s="84">
         <f ca="1">'le mois 03'!W36</f>
         <v>0</v>
       </c>
@@ -12451,7 +12451,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.21875" style="161" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" style="83" customWidth="1"/>
     <col min="2" max="2" width="22.109375" customWidth="1"/>
     <col min="3" max="3" width="23.77734375" customWidth="1"/>
     <col min="4" max="4" width="21.5546875" customWidth="1"/>
@@ -12463,7 +12463,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="85" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -12492,1179 +12492,1179 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="161">
+      <c r="A2" s="83">
         <f>'le mois 03'!A6</f>
         <v>45717</v>
       </c>
-      <c r="B2" s="162">
+      <c r="B2" s="84">
         <f ca="1">'le mois 03'!X6</f>
         <v>0</v>
       </c>
-      <c r="C2" s="162">
+      <c r="C2" s="84">
         <f ca="1">'le mois 03'!Y6</f>
         <v>0</v>
       </c>
-      <c r="D2" s="162">
+      <c r="D2" s="84">
         <f ca="1">'le mois 03'!Z6</f>
         <v>0</v>
       </c>
-      <c r="E2" s="162">
+      <c r="E2" s="84">
         <f ca="1">'le mois 03'!AA6</f>
         <v>0</v>
       </c>
-      <c r="F2" s="162">
+      <c r="F2" s="84">
         <f ca="1">'le mois 03'!AB6</f>
         <v>0</v>
       </c>
-      <c r="G2" s="162">
+      <c r="G2" s="84">
         <f ca="1">'le mois 03'!AC6</f>
         <v>0</v>
       </c>
-      <c r="H2" s="162">
+      <c r="H2" s="84">
         <f ca="1">'le mois 03'!AD6</f>
         <v>0</v>
       </c>
-      <c r="I2" s="162">
+      <c r="I2" s="84">
         <f ca="1">'le mois 03'!AE6</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="161">
+      <c r="A3" s="83">
         <f>'le mois 03'!A7</f>
         <v>45718</v>
       </c>
-      <c r="B3" s="162">
+      <c r="B3" s="84">
         <f ca="1">'le mois 03'!X7</f>
         <v>0</v>
       </c>
-      <c r="C3" s="162">
+      <c r="C3" s="84">
         <f ca="1">'le mois 03'!Y7</f>
         <v>0</v>
       </c>
-      <c r="D3" s="162">
+      <c r="D3" s="84">
         <f ca="1">'le mois 03'!Z7</f>
         <v>0</v>
       </c>
-      <c r="E3" s="162">
+      <c r="E3" s="84">
         <f ca="1">'le mois 03'!AA7</f>
         <v>0</v>
       </c>
-      <c r="F3" s="162">
+      <c r="F3" s="84">
         <f ca="1">'le mois 03'!AB7</f>
         <v>0</v>
       </c>
-      <c r="G3" s="162">
+      <c r="G3" s="84">
         <f ca="1">'le mois 03'!AC7</f>
         <v>0</v>
       </c>
-      <c r="H3" s="162">
+      <c r="H3" s="84">
         <f ca="1">'le mois 03'!AD7</f>
         <v>0</v>
       </c>
-      <c r="I3" s="162">
+      <c r="I3" s="84">
         <f ca="1">'le mois 03'!AE7</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="161">
+      <c r="A4" s="83">
         <f>'le mois 03'!A8</f>
         <v>45719</v>
       </c>
-      <c r="B4" s="162">
+      <c r="B4" s="84">
         <f ca="1">'le mois 03'!X8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="162">
+      <c r="C4" s="84">
         <f ca="1">'le mois 03'!Y8</f>
         <v>0</v>
       </c>
-      <c r="D4" s="162">
+      <c r="D4" s="84">
         <f ca="1">'le mois 03'!Z8</f>
         <v>0</v>
       </c>
-      <c r="E4" s="162">
+      <c r="E4" s="84">
         <f ca="1">'le mois 03'!AA8</f>
         <v>0</v>
       </c>
-      <c r="F4" s="162">
+      <c r="F4" s="84">
         <f ca="1">'le mois 03'!AB8</f>
         <v>0</v>
       </c>
-      <c r="G4" s="162">
+      <c r="G4" s="84">
         <f ca="1">'le mois 03'!AC8</f>
         <v>0</v>
       </c>
-      <c r="H4" s="162">
+      <c r="H4" s="84">
         <f ca="1">'le mois 03'!AD8</f>
         <v>0</v>
       </c>
-      <c r="I4" s="162">
+      <c r="I4" s="84">
         <f ca="1">'le mois 03'!AE8</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="161">
+      <c r="A5" s="83">
         <f>'le mois 03'!A9</f>
         <v>45720</v>
       </c>
-      <c r="B5" s="162">
+      <c r="B5" s="84">
         <f ca="1">'le mois 03'!X9</f>
         <v>0</v>
       </c>
-      <c r="C5" s="162">
+      <c r="C5" s="84">
         <f ca="1">'le mois 03'!Y9</f>
         <v>0</v>
       </c>
-      <c r="D5" s="162">
+      <c r="D5" s="84">
         <f ca="1">'le mois 03'!Z9</f>
         <v>0</v>
       </c>
-      <c r="E5" s="162">
+      <c r="E5" s="84">
         <f ca="1">'le mois 03'!AA9</f>
         <v>0</v>
       </c>
-      <c r="F5" s="162">
+      <c r="F5" s="84">
         <f ca="1">'le mois 03'!AB9</f>
         <v>0</v>
       </c>
-      <c r="G5" s="162">
+      <c r="G5" s="84">
         <f ca="1">'le mois 03'!AC9</f>
         <v>0</v>
       </c>
-      <c r="H5" s="162">
+      <c r="H5" s="84">
         <f ca="1">'le mois 03'!AD9</f>
         <v>0</v>
       </c>
-      <c r="I5" s="162">
+      <c r="I5" s="84">
         <f ca="1">'le mois 03'!AE9</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="161">
+      <c r="A6" s="83">
         <f>'le mois 03'!A10</f>
         <v>45721</v>
       </c>
-      <c r="B6" s="162">
+      <c r="B6" s="84">
         <f ca="1">'le mois 03'!X10</f>
         <v>0</v>
       </c>
-      <c r="C6" s="162">
+      <c r="C6" s="84">
         <f ca="1">'le mois 03'!Y10</f>
         <v>0</v>
       </c>
-      <c r="D6" s="162">
+      <c r="D6" s="84">
         <f ca="1">'le mois 03'!Z10</f>
         <v>0</v>
       </c>
-      <c r="E6" s="162">
+      <c r="E6" s="84">
         <f ca="1">'le mois 03'!AA10</f>
         <v>0</v>
       </c>
-      <c r="F6" s="162">
+      <c r="F6" s="84">
         <f ca="1">'le mois 03'!AB10</f>
         <v>0</v>
       </c>
-      <c r="G6" s="162">
+      <c r="G6" s="84">
         <f ca="1">'le mois 03'!AC10</f>
         <v>0</v>
       </c>
-      <c r="H6" s="162">
+      <c r="H6" s="84">
         <f ca="1">'le mois 03'!AD10</f>
         <v>0</v>
       </c>
-      <c r="I6" s="162">
+      <c r="I6" s="84">
         <f ca="1">'le mois 03'!AE10</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="161">
+      <c r="A7" s="83">
         <f>'le mois 03'!A11</f>
         <v>45722</v>
       </c>
-      <c r="B7" s="162">
+      <c r="B7" s="84">
         <f ca="1">'le mois 03'!X11</f>
         <v>0</v>
       </c>
-      <c r="C7" s="162">
+      <c r="C7" s="84">
         <f ca="1">'le mois 03'!Y11</f>
         <v>0</v>
       </c>
-      <c r="D7" s="162">
+      <c r="D7" s="84">
         <f ca="1">'le mois 03'!Z11</f>
         <v>0</v>
       </c>
-      <c r="E7" s="162">
+      <c r="E7" s="84">
         <f ca="1">'le mois 03'!AA11</f>
         <v>0</v>
       </c>
-      <c r="F7" s="162">
+      <c r="F7" s="84">
         <f ca="1">'le mois 03'!AB11</f>
         <v>0</v>
       </c>
-      <c r="G7" s="162">
+      <c r="G7" s="84">
         <f ca="1">'le mois 03'!AC11</f>
         <v>0</v>
       </c>
-      <c r="H7" s="162">
+      <c r="H7" s="84">
         <f ca="1">'le mois 03'!AD11</f>
         <v>0</v>
       </c>
-      <c r="I7" s="162">
+      <c r="I7" s="84">
         <f ca="1">'le mois 03'!AE11</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="161">
+      <c r="A8" s="83">
         <f>'le mois 03'!A12</f>
         <v>45723</v>
       </c>
-      <c r="B8" s="162">
+      <c r="B8" s="84">
         <f ca="1">'le mois 03'!X12</f>
         <v>0</v>
       </c>
-      <c r="C8" s="162">
+      <c r="C8" s="84">
         <f ca="1">'le mois 03'!Y12</f>
         <v>0</v>
       </c>
-      <c r="D8" s="162">
+      <c r="D8" s="84">
         <f ca="1">'le mois 03'!Z12</f>
         <v>0</v>
       </c>
-      <c r="E8" s="162">
+      <c r="E8" s="84">
         <f ca="1">'le mois 03'!AA12</f>
         <v>0</v>
       </c>
-      <c r="F8" s="162">
+      <c r="F8" s="84">
         <f ca="1">'le mois 03'!AB12</f>
         <v>0</v>
       </c>
-      <c r="G8" s="162">
+      <c r="G8" s="84">
         <f ca="1">'le mois 03'!AC12</f>
         <v>0</v>
       </c>
-      <c r="H8" s="162">
+      <c r="H8" s="84">
         <f ca="1">'le mois 03'!AD12</f>
         <v>0</v>
       </c>
-      <c r="I8" s="162">
+      <c r="I8" s="84">
         <f ca="1">'le mois 03'!AE12</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="161">
+      <c r="A9" s="83">
         <f>'le mois 03'!A13</f>
         <v>45724</v>
       </c>
-      <c r="B9" s="162">
+      <c r="B9" s="84">
         <f ca="1">'le mois 03'!X13</f>
         <v>0</v>
       </c>
-      <c r="C9" s="162">
+      <c r="C9" s="84">
         <f ca="1">'le mois 03'!Y13</f>
         <v>0</v>
       </c>
-      <c r="D9" s="162">
+      <c r="D9" s="84">
         <f ca="1">'le mois 03'!Z13</f>
         <v>0</v>
       </c>
-      <c r="E9" s="162">
+      <c r="E9" s="84">
         <f ca="1">'le mois 03'!AA13</f>
         <v>0</v>
       </c>
-      <c r="F9" s="162">
+      <c r="F9" s="84">
         <f ca="1">'le mois 03'!AB13</f>
         <v>0</v>
       </c>
-      <c r="G9" s="162">
+      <c r="G9" s="84">
         <f ca="1">'le mois 03'!AC13</f>
         <v>0</v>
       </c>
-      <c r="H9" s="162">
+      <c r="H9" s="84">
         <f ca="1">'le mois 03'!AD13</f>
         <v>0</v>
       </c>
-      <c r="I9" s="162">
+      <c r="I9" s="84">
         <f ca="1">'le mois 03'!AE13</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="161">
+      <c r="A10" s="83">
         <f>'le mois 03'!A14</f>
         <v>45725</v>
       </c>
-      <c r="B10" s="162">
+      <c r="B10" s="84">
         <f ca="1">'le mois 03'!X14</f>
         <v>0</v>
       </c>
-      <c r="C10" s="162">
+      <c r="C10" s="84">
         <f ca="1">'le mois 03'!Y14</f>
         <v>0</v>
       </c>
-      <c r="D10" s="162">
+      <c r="D10" s="84">
         <f ca="1">'le mois 03'!Z14</f>
         <v>0</v>
       </c>
-      <c r="E10" s="162">
+      <c r="E10" s="84">
         <f ca="1">'le mois 03'!AA14</f>
         <v>0</v>
       </c>
-      <c r="F10" s="162">
+      <c r="F10" s="84">
         <f ca="1">'le mois 03'!AB14</f>
         <v>0</v>
       </c>
-      <c r="G10" s="162">
+      <c r="G10" s="84">
         <f ca="1">'le mois 03'!AC14</f>
         <v>0</v>
       </c>
-      <c r="H10" s="162">
+      <c r="H10" s="84">
         <f ca="1">'le mois 03'!AD14</f>
         <v>0</v>
       </c>
-      <c r="I10" s="162">
+      <c r="I10" s="84">
         <f ca="1">'le mois 03'!AE14</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="161">
+      <c r="A11" s="83">
         <f>'le mois 03'!A15</f>
         <v>45726</v>
       </c>
-      <c r="B11" s="162">
+      <c r="B11" s="84">
         <f ca="1">'le mois 03'!X15</f>
         <v>0</v>
       </c>
-      <c r="C11" s="162">
+      <c r="C11" s="84">
         <f ca="1">'le mois 03'!Y15</f>
         <v>0</v>
       </c>
-      <c r="D11" s="162">
+      <c r="D11" s="84">
         <f ca="1">'le mois 03'!Z15</f>
         <v>0</v>
       </c>
-      <c r="E11" s="162">
+      <c r="E11" s="84">
         <f ca="1">'le mois 03'!AA15</f>
         <v>0</v>
       </c>
-      <c r="F11" s="162">
+      <c r="F11" s="84">
         <f ca="1">'le mois 03'!AB15</f>
         <v>0</v>
       </c>
-      <c r="G11" s="162">
+      <c r="G11" s="84">
         <f ca="1">'le mois 03'!AC15</f>
         <v>0</v>
       </c>
-      <c r="H11" s="162">
+      <c r="H11" s="84">
         <f ca="1">'le mois 03'!AD15</f>
         <v>0</v>
       </c>
-      <c r="I11" s="162">
+      <c r="I11" s="84">
         <f ca="1">'le mois 03'!AE15</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="161">
+      <c r="A12" s="83">
         <f>'le mois 03'!A16</f>
         <v>45727</v>
       </c>
-      <c r="B12" s="162">
+      <c r="B12" s="84">
         <f ca="1">'le mois 03'!X16</f>
         <v>0</v>
       </c>
-      <c r="C12" s="162">
+      <c r="C12" s="84">
         <f ca="1">'le mois 03'!Y16</f>
         <v>0</v>
       </c>
-      <c r="D12" s="162">
+      <c r="D12" s="84">
         <f ca="1">'le mois 03'!Z16</f>
         <v>0</v>
       </c>
-      <c r="E12" s="162">
+      <c r="E12" s="84">
         <f ca="1">'le mois 03'!AA16</f>
         <v>0</v>
       </c>
-      <c r="F12" s="162">
+      <c r="F12" s="84">
         <f ca="1">'le mois 03'!AB16</f>
         <v>0</v>
       </c>
-      <c r="G12" s="162">
+      <c r="G12" s="84">
         <f ca="1">'le mois 03'!AC16</f>
         <v>0</v>
       </c>
-      <c r="H12" s="162">
+      <c r="H12" s="84">
         <f ca="1">'le mois 03'!AD16</f>
         <v>0</v>
       </c>
-      <c r="I12" s="162">
+      <c r="I12" s="84">
         <f ca="1">'le mois 03'!AE16</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="161">
+      <c r="A13" s="83">
         <f>'le mois 03'!A17</f>
         <v>45728</v>
       </c>
-      <c r="B13" s="162">
+      <c r="B13" s="84">
         <f ca="1">'le mois 03'!X17</f>
         <v>0</v>
       </c>
-      <c r="C13" s="162">
+      <c r="C13" s="84">
         <f ca="1">'le mois 03'!Y17</f>
         <v>0</v>
       </c>
-      <c r="D13" s="162">
+      <c r="D13" s="84">
         <f ca="1">'le mois 03'!Z17</f>
         <v>0</v>
       </c>
-      <c r="E13" s="162">
+      <c r="E13" s="84">
         <f ca="1">'le mois 03'!AA17</f>
         <v>0</v>
       </c>
-      <c r="F13" s="162">
+      <c r="F13" s="84">
         <f ca="1">'le mois 03'!AB17</f>
         <v>0</v>
       </c>
-      <c r="G13" s="162">
+      <c r="G13" s="84">
         <f ca="1">'le mois 03'!AC17</f>
         <v>0</v>
       </c>
-      <c r="H13" s="162">
+      <c r="H13" s="84">
         <f ca="1">'le mois 03'!AD17</f>
         <v>0</v>
       </c>
-      <c r="I13" s="162">
+      <c r="I13" s="84">
         <f ca="1">'le mois 03'!AE17</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="161">
+      <c r="A14" s="83">
         <f>'le mois 03'!A18</f>
         <v>45729</v>
       </c>
-      <c r="B14" s="162">
+      <c r="B14" s="84">
         <f ca="1">'le mois 03'!X18</f>
         <v>0</v>
       </c>
-      <c r="C14" s="162">
+      <c r="C14" s="84">
         <f ca="1">'le mois 03'!Y18</f>
         <v>0</v>
       </c>
-      <c r="D14" s="162">
+      <c r="D14" s="84">
         <f ca="1">'le mois 03'!Z18</f>
         <v>0</v>
       </c>
-      <c r="E14" s="162">
+      <c r="E14" s="84">
         <f ca="1">'le mois 03'!AA18</f>
         <v>0</v>
       </c>
-      <c r="F14" s="162">
+      <c r="F14" s="84">
         <f ca="1">'le mois 03'!AB18</f>
         <v>0</v>
       </c>
-      <c r="G14" s="162">
+      <c r="G14" s="84">
         <f ca="1">'le mois 03'!AC18</f>
         <v>0</v>
       </c>
-      <c r="H14" s="162">
+      <c r="H14" s="84">
         <f ca="1">'le mois 03'!AD18</f>
         <v>0</v>
       </c>
-      <c r="I14" s="162">
+      <c r="I14" s="84">
         <f ca="1">'le mois 03'!AE18</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="161">
+      <c r="A15" s="83">
         <f>'le mois 03'!A19</f>
         <v>45730</v>
       </c>
-      <c r="B15" s="162">
+      <c r="B15" s="84">
         <f ca="1">'le mois 03'!X19</f>
         <v>0</v>
       </c>
-      <c r="C15" s="162">
+      <c r="C15" s="84">
         <f ca="1">'le mois 03'!Y19</f>
         <v>0</v>
       </c>
-      <c r="D15" s="162">
+      <c r="D15" s="84">
         <f ca="1">'le mois 03'!Z19</f>
         <v>0</v>
       </c>
-      <c r="E15" s="162">
+      <c r="E15" s="84">
         <f ca="1">'le mois 03'!AA19</f>
         <v>0</v>
       </c>
-      <c r="F15" s="162">
+      <c r="F15" s="84">
         <f ca="1">'le mois 03'!AB19</f>
         <v>0</v>
       </c>
-      <c r="G15" s="162">
+      <c r="G15" s="84">
         <f ca="1">'le mois 03'!AC19</f>
         <v>0</v>
       </c>
-      <c r="H15" s="162">
+      <c r="H15" s="84">
         <f ca="1">'le mois 03'!AD19</f>
         <v>0</v>
       </c>
-      <c r="I15" s="162">
+      <c r="I15" s="84">
         <f ca="1">'le mois 03'!AE19</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="161">
+      <c r="A16" s="83">
         <f>'le mois 03'!A20</f>
         <v>45731</v>
       </c>
-      <c r="B16" s="162">
+      <c r="B16" s="84">
         <f ca="1">'le mois 03'!X20</f>
         <v>0</v>
       </c>
-      <c r="C16" s="162">
+      <c r="C16" s="84">
         <f ca="1">'le mois 03'!Y20</f>
         <v>0</v>
       </c>
-      <c r="D16" s="162">
+      <c r="D16" s="84">
         <f ca="1">'le mois 03'!Z20</f>
         <v>0</v>
       </c>
-      <c r="E16" s="162">
+      <c r="E16" s="84">
         <f ca="1">'le mois 03'!AA20</f>
         <v>0</v>
       </c>
-      <c r="F16" s="162">
+      <c r="F16" s="84">
         <f ca="1">'le mois 03'!AB20</f>
         <v>0</v>
       </c>
-      <c r="G16" s="162">
+      <c r="G16" s="84">
         <f ca="1">'le mois 03'!AC20</f>
         <v>0</v>
       </c>
-      <c r="H16" s="162">
+      <c r="H16" s="84">
         <f ca="1">'le mois 03'!AD20</f>
         <v>0</v>
       </c>
-      <c r="I16" s="162">
+      <c r="I16" s="84">
         <f ca="1">'le mois 03'!AE20</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="161">
+      <c r="A17" s="83">
         <f>'le mois 03'!A21</f>
         <v>45732</v>
       </c>
-      <c r="B17" s="162">
+      <c r="B17" s="84">
         <f ca="1">'le mois 03'!X21</f>
         <v>0</v>
       </c>
-      <c r="C17" s="162">
+      <c r="C17" s="84">
         <f ca="1">'le mois 03'!Y21</f>
         <v>0</v>
       </c>
-      <c r="D17" s="162">
+      <c r="D17" s="84">
         <f ca="1">'le mois 03'!Z21</f>
         <v>0</v>
       </c>
-      <c r="E17" s="162">
+      <c r="E17" s="84">
         <f ca="1">'le mois 03'!AA21</f>
         <v>0</v>
       </c>
-      <c r="F17" s="162">
+      <c r="F17" s="84">
         <f ca="1">'le mois 03'!AB21</f>
         <v>0</v>
       </c>
-      <c r="G17" s="162">
+      <c r="G17" s="84">
         <f ca="1">'le mois 03'!AC21</f>
         <v>0</v>
       </c>
-      <c r="H17" s="162">
+      <c r="H17" s="84">
         <f ca="1">'le mois 03'!AD21</f>
         <v>0</v>
       </c>
-      <c r="I17" s="162">
+      <c r="I17" s="84">
         <f ca="1">'le mois 03'!AE21</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="161">
+      <c r="A18" s="83">
         <f>'le mois 03'!A22</f>
         <v>45733</v>
       </c>
-      <c r="B18" s="162">
+      <c r="B18" s="84">
         <f ca="1">'le mois 03'!X22</f>
         <v>0</v>
       </c>
-      <c r="C18" s="162">
+      <c r="C18" s="84">
         <f ca="1">'le mois 03'!Y22</f>
         <v>0</v>
       </c>
-      <c r="D18" s="162">
+      <c r="D18" s="84">
         <f ca="1">'le mois 03'!Z22</f>
         <v>0</v>
       </c>
-      <c r="E18" s="162">
+      <c r="E18" s="84">
         <f ca="1">'le mois 03'!AA22</f>
         <v>0</v>
       </c>
-      <c r="F18" s="162">
+      <c r="F18" s="84">
         <f ca="1">'le mois 03'!AB22</f>
         <v>0</v>
       </c>
-      <c r="G18" s="162">
+      <c r="G18" s="84">
         <f ca="1">'le mois 03'!AC22</f>
         <v>0</v>
       </c>
-      <c r="H18" s="162">
+      <c r="H18" s="84">
         <f ca="1">'le mois 03'!AD22</f>
         <v>0</v>
       </c>
-      <c r="I18" s="162">
+      <c r="I18" s="84">
         <f ca="1">'le mois 03'!AE22</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="161">
+      <c r="A19" s="83">
         <f>'le mois 03'!A23</f>
         <v>45734</v>
       </c>
-      <c r="B19" s="162">
+      <c r="B19" s="84">
         <f ca="1">'le mois 03'!X23</f>
         <v>0</v>
       </c>
-      <c r="C19" s="162">
+      <c r="C19" s="84">
         <f ca="1">'le mois 03'!Y23</f>
         <v>0</v>
       </c>
-      <c r="D19" s="162">
+      <c r="D19" s="84">
         <f ca="1">'le mois 03'!Z23</f>
         <v>0</v>
       </c>
-      <c r="E19" s="162">
+      <c r="E19" s="84">
         <f ca="1">'le mois 03'!AA23</f>
         <v>0</v>
       </c>
-      <c r="F19" s="162">
+      <c r="F19" s="84">
         <f ca="1">'le mois 03'!AB23</f>
         <v>0</v>
       </c>
-      <c r="G19" s="162">
+      <c r="G19" s="84">
         <f ca="1">'le mois 03'!AC23</f>
         <v>0</v>
       </c>
-      <c r="H19" s="162">
+      <c r="H19" s="84">
         <f ca="1">'le mois 03'!AD23</f>
         <v>0</v>
       </c>
-      <c r="I19" s="162">
+      <c r="I19" s="84">
         <f ca="1">'le mois 03'!AE23</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="161">
+      <c r="A20" s="83">
         <f>'le mois 03'!A24</f>
         <v>45735</v>
       </c>
-      <c r="B20" s="162">
+      <c r="B20" s="84">
         <f>'le mois 03'!X24</f>
         <v>351</v>
       </c>
-      <c r="C20" s="162">
+      <c r="C20" s="84">
         <f>'le mois 03'!Y24</f>
         <v>192</v>
       </c>
-      <c r="D20" s="162">
+      <c r="D20" s="84">
         <f>'le mois 03'!Z24</f>
         <v>129</v>
       </c>
-      <c r="E20" s="162">
+      <c r="E20" s="84">
         <f>'le mois 03'!AA24</f>
         <v>102.33333333333333</v>
       </c>
-      <c r="F20" s="162">
+      <c r="F20" s="84">
         <f>'le mois 03'!AB24</f>
         <v>0</v>
       </c>
-      <c r="G20" s="162">
+      <c r="G20" s="84">
         <f>'le mois 03'!AC24</f>
         <v>88.666666666666671</v>
       </c>
-      <c r="H20" s="162">
+      <c r="H20" s="84">
         <f>'le mois 03'!AD24</f>
         <v>114.66666666666667</v>
       </c>
-      <c r="I20" s="162">
+      <c r="I20" s="84">
         <f>'le mois 03'!AE24</f>
         <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="161">
+      <c r="A21" s="83">
         <f>'le mois 03'!A25</f>
         <v>45736</v>
       </c>
-      <c r="B21" s="162">
+      <c r="B21" s="84">
         <f ca="1">'le mois 03'!X25</f>
         <v>0</v>
       </c>
-      <c r="C21" s="162">
+      <c r="C21" s="84">
         <f ca="1">'le mois 03'!Y25</f>
         <v>0</v>
       </c>
-      <c r="D21" s="162">
+      <c r="D21" s="84">
         <f ca="1">'le mois 03'!Z25</f>
         <v>0</v>
       </c>
-      <c r="E21" s="162">
+      <c r="E21" s="84">
         <f ca="1">'le mois 03'!AA25</f>
         <v>0</v>
       </c>
-      <c r="F21" s="162">
+      <c r="F21" s="84">
         <f ca="1">'le mois 03'!AB25</f>
         <v>0</v>
       </c>
-      <c r="G21" s="162">
+      <c r="G21" s="84">
         <f ca="1">'le mois 03'!AC25</f>
         <v>0</v>
       </c>
-      <c r="H21" s="162">
+      <c r="H21" s="84">
         <f ca="1">'le mois 03'!AD25</f>
         <v>0</v>
       </c>
-      <c r="I21" s="162">
+      <c r="I21" s="84">
         <f ca="1">'le mois 03'!AE25</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="161">
+      <c r="A22" s="83">
         <f>'le mois 03'!A26</f>
         <v>45737</v>
       </c>
-      <c r="B22" s="162">
+      <c r="B22" s="84">
         <f ca="1">'le mois 03'!X26</f>
         <v>0</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="84">
         <f ca="1">'le mois 03'!Y26</f>
         <v>0</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="84">
         <f ca="1">'le mois 03'!Z26</f>
         <v>0</v>
       </c>
-      <c r="E22" s="162">
+      <c r="E22" s="84">
         <f ca="1">'le mois 03'!AA26</f>
         <v>0</v>
       </c>
-      <c r="F22" s="162">
+      <c r="F22" s="84">
         <f ca="1">'le mois 03'!AB26</f>
         <v>0</v>
       </c>
-      <c r="G22" s="162">
+      <c r="G22" s="84">
         <f ca="1">'le mois 03'!AC26</f>
         <v>0</v>
       </c>
-      <c r="H22" s="162">
+      <c r="H22" s="84">
         <f ca="1">'le mois 03'!AD26</f>
         <v>0</v>
       </c>
-      <c r="I22" s="162">
+      <c r="I22" s="84">
         <f ca="1">'le mois 03'!AE26</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="161">
+      <c r="A23" s="83">
         <f>'le mois 03'!A27</f>
         <v>45738</v>
       </c>
-      <c r="B23" s="162">
+      <c r="B23" s="84">
         <f ca="1">'le mois 03'!X27</f>
         <v>0</v>
       </c>
-      <c r="C23" s="162">
+      <c r="C23" s="84">
         <f ca="1">'le mois 03'!Y27</f>
         <v>0</v>
       </c>
-      <c r="D23" s="162">
+      <c r="D23" s="84">
         <f ca="1">'le mois 03'!Z27</f>
         <v>0</v>
       </c>
-      <c r="E23" s="162">
+      <c r="E23" s="84">
         <f ca="1">'le mois 03'!AA27</f>
         <v>0</v>
       </c>
-      <c r="F23" s="162">
+      <c r="F23" s="84">
         <f ca="1">'le mois 03'!AB27</f>
         <v>0</v>
       </c>
-      <c r="G23" s="162">
+      <c r="G23" s="84">
         <f ca="1">'le mois 03'!AC27</f>
         <v>0</v>
       </c>
-      <c r="H23" s="162">
+      <c r="H23" s="84">
         <f ca="1">'le mois 03'!AD27</f>
         <v>0</v>
       </c>
-      <c r="I23" s="162">
+      <c r="I23" s="84">
         <f ca="1">'le mois 03'!AE27</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="161">
+      <c r="A24" s="83">
         <f>'le mois 03'!A28</f>
         <v>45739</v>
       </c>
-      <c r="B24" s="162">
+      <c r="B24" s="84">
         <f ca="1">'le mois 03'!X28</f>
         <v>0</v>
       </c>
-      <c r="C24" s="162">
+      <c r="C24" s="84">
         <f ca="1">'le mois 03'!Y28</f>
         <v>0</v>
       </c>
-      <c r="D24" s="162">
+      <c r="D24" s="84">
         <f ca="1">'le mois 03'!Z28</f>
         <v>0</v>
       </c>
-      <c r="E24" s="162">
+      <c r="E24" s="84">
         <f ca="1">'le mois 03'!AA28</f>
         <v>0</v>
       </c>
-      <c r="F24" s="162">
+      <c r="F24" s="84">
         <f ca="1">'le mois 03'!AB28</f>
         <v>0</v>
       </c>
-      <c r="G24" s="162">
+      <c r="G24" s="84">
         <f ca="1">'le mois 03'!AC28</f>
         <v>0</v>
       </c>
-      <c r="H24" s="162">
+      <c r="H24" s="84">
         <f ca="1">'le mois 03'!AD28</f>
         <v>0</v>
       </c>
-      <c r="I24" s="162">
+      <c r="I24" s="84">
         <f ca="1">'le mois 03'!AE28</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="161">
+      <c r="A25" s="83">
         <f>'le mois 03'!A29</f>
         <v>45740</v>
       </c>
-      <c r="B25" s="162">
+      <c r="B25" s="84">
         <f ca="1">'le mois 03'!X29</f>
         <v>0</v>
       </c>
-      <c r="C25" s="162">
+      <c r="C25" s="84">
         <f ca="1">'le mois 03'!Y29</f>
         <v>0</v>
       </c>
-      <c r="D25" s="162">
+      <c r="D25" s="84">
         <f ca="1">'le mois 03'!Z29</f>
         <v>0</v>
       </c>
-      <c r="E25" s="162">
+      <c r="E25" s="84">
         <f ca="1">'le mois 03'!AA29</f>
         <v>0</v>
       </c>
-      <c r="F25" s="162">
+      <c r="F25" s="84">
         <f ca="1">'le mois 03'!AB29</f>
         <v>0</v>
       </c>
-      <c r="G25" s="162">
+      <c r="G25" s="84">
         <f ca="1">'le mois 03'!AC29</f>
         <v>0</v>
       </c>
-      <c r="H25" s="162">
+      <c r="H25" s="84">
         <f ca="1">'le mois 03'!AD29</f>
         <v>0</v>
       </c>
-      <c r="I25" s="162">
+      <c r="I25" s="84">
         <f ca="1">'le mois 03'!AE29</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="161">
+      <c r="A26" s="83">
         <f>'le mois 03'!A30</f>
         <v>45741</v>
       </c>
-      <c r="B26" s="162">
+      <c r="B26" s="84">
         <f ca="1">'le mois 03'!X30</f>
         <v>0</v>
       </c>
-      <c r="C26" s="162">
+      <c r="C26" s="84">
         <f ca="1">'le mois 03'!Y30</f>
         <v>0</v>
       </c>
-      <c r="D26" s="162">
+      <c r="D26" s="84">
         <f ca="1">'le mois 03'!Z30</f>
         <v>0</v>
       </c>
-      <c r="E26" s="162">
+      <c r="E26" s="84">
         <f ca="1">'le mois 03'!AA30</f>
         <v>0</v>
       </c>
-      <c r="F26" s="162">
+      <c r="F26" s="84">
         <f ca="1">'le mois 03'!AB30</f>
         <v>0</v>
       </c>
-      <c r="G26" s="162">
+      <c r="G26" s="84">
         <f ca="1">'le mois 03'!AC30</f>
         <v>0</v>
       </c>
-      <c r="H26" s="162">
+      <c r="H26" s="84">
         <f ca="1">'le mois 03'!AD30</f>
         <v>0</v>
       </c>
-      <c r="I26" s="162">
+      <c r="I26" s="84">
         <f ca="1">'le mois 03'!AE30</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="161">
+      <c r="A27" s="83">
         <f>'le mois 03'!A31</f>
         <v>45742</v>
       </c>
-      <c r="B27" s="162">
+      <c r="B27" s="84">
         <f ca="1">'le mois 03'!X31</f>
         <v>0</v>
       </c>
-      <c r="C27" s="162">
+      <c r="C27" s="84">
         <f ca="1">'le mois 03'!Y31</f>
         <v>0</v>
       </c>
-      <c r="D27" s="162">
+      <c r="D27" s="84">
         <f ca="1">'le mois 03'!Z31</f>
         <v>0</v>
       </c>
-      <c r="E27" s="162">
+      <c r="E27" s="84">
         <f ca="1">'le mois 03'!AA31</f>
         <v>0</v>
       </c>
-      <c r="F27" s="162">
+      <c r="F27" s="84">
         <f ca="1">'le mois 03'!AB31</f>
         <v>0</v>
       </c>
-      <c r="G27" s="162">
+      <c r="G27" s="84">
         <f ca="1">'le mois 03'!AC31</f>
         <v>0</v>
       </c>
-      <c r="H27" s="162">
+      <c r="H27" s="84">
         <f ca="1">'le mois 03'!AD31</f>
         <v>0</v>
       </c>
-      <c r="I27" s="162">
+      <c r="I27" s="84">
         <f ca="1">'le mois 03'!AE31</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="161">
+      <c r="A28" s="83">
         <f>'le mois 03'!A32</f>
         <v>45743</v>
       </c>
-      <c r="B28" s="162">
+      <c r="B28" s="84">
         <f ca="1">'le mois 03'!X32</f>
         <v>0</v>
       </c>
-      <c r="C28" s="162">
+      <c r="C28" s="84">
         <f ca="1">'le mois 03'!Y32</f>
         <v>0</v>
       </c>
-      <c r="D28" s="162">
+      <c r="D28" s="84">
         <f ca="1">'le mois 03'!Z32</f>
         <v>0</v>
       </c>
-      <c r="E28" s="162">
+      <c r="E28" s="84">
         <f ca="1">'le mois 03'!AA32</f>
         <v>0</v>
       </c>
-      <c r="F28" s="162">
+      <c r="F28" s="84">
         <f ca="1">'le mois 03'!AB32</f>
         <v>0</v>
       </c>
-      <c r="G28" s="162">
+      <c r="G28" s="84">
         <f ca="1">'le mois 03'!AC32</f>
         <v>0</v>
       </c>
-      <c r="H28" s="162">
+      <c r="H28" s="84">
         <f ca="1">'le mois 03'!AD32</f>
         <v>0</v>
       </c>
-      <c r="I28" s="162">
+      <c r="I28" s="84">
         <f ca="1">'le mois 03'!AE32</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="161">
+      <c r="A29" s="83">
         <f>'le mois 03'!A33</f>
         <v>45744</v>
       </c>
-      <c r="B29" s="162">
+      <c r="B29" s="84">
         <f ca="1">'le mois 03'!X33</f>
         <v>0</v>
       </c>
-      <c r="C29" s="162">
+      <c r="C29" s="84">
         <f ca="1">'le mois 03'!Y33</f>
         <v>0</v>
       </c>
-      <c r="D29" s="162">
+      <c r="D29" s="84">
         <f ca="1">'le mois 03'!Z33</f>
         <v>0</v>
       </c>
-      <c r="E29" s="162">
+      <c r="E29" s="84">
         <f ca="1">'le mois 03'!AA33</f>
         <v>0</v>
       </c>
-      <c r="F29" s="162">
+      <c r="F29" s="84">
         <f ca="1">'le mois 03'!AB33</f>
         <v>0</v>
       </c>
-      <c r="G29" s="162">
+      <c r="G29" s="84">
         <f ca="1">'le mois 03'!AC33</f>
         <v>0</v>
       </c>
-      <c r="H29" s="162">
+      <c r="H29" s="84">
         <f ca="1">'le mois 03'!AD33</f>
         <v>0</v>
       </c>
-      <c r="I29" s="162">
+      <c r="I29" s="84">
         <f ca="1">'le mois 03'!AE33</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="161">
+      <c r="A30" s="83">
         <f>'le mois 03'!A34</f>
         <v>45745</v>
       </c>
-      <c r="B30" s="162">
+      <c r="B30" s="84">
         <f ca="1">'le mois 03'!X34</f>
         <v>0</v>
       </c>
-      <c r="C30" s="162">
+      <c r="C30" s="84">
         <f ca="1">'le mois 03'!Y34</f>
         <v>0</v>
       </c>
-      <c r="D30" s="162">
+      <c r="D30" s="84">
         <f ca="1">'le mois 03'!Z34</f>
         <v>0</v>
       </c>
-      <c r="E30" s="162">
+      <c r="E30" s="84">
         <f ca="1">'le mois 03'!AA34</f>
         <v>0</v>
       </c>
-      <c r="F30" s="162">
+      <c r="F30" s="84">
         <f ca="1">'le mois 03'!AB34</f>
         <v>0</v>
       </c>
-      <c r="G30" s="162">
+      <c r="G30" s="84">
         <f ca="1">'le mois 03'!AC34</f>
         <v>0</v>
       </c>
-      <c r="H30" s="162">
+      <c r="H30" s="84">
         <f ca="1">'le mois 03'!AD34</f>
         <v>0</v>
       </c>
-      <c r="I30" s="162">
+      <c r="I30" s="84">
         <f ca="1">'le mois 03'!AE34</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="161">
+      <c r="A31" s="83">
         <f>'le mois 03'!A35</f>
         <v>45746</v>
       </c>
-      <c r="B31" s="162">
+      <c r="B31" s="84">
         <f ca="1">'le mois 03'!X35</f>
         <v>0</v>
       </c>
-      <c r="C31" s="162">
+      <c r="C31" s="84">
         <f ca="1">'le mois 03'!Y35</f>
         <v>0</v>
       </c>
-      <c r="D31" s="162">
+      <c r="D31" s="84">
         <f ca="1">'le mois 03'!Z35</f>
         <v>0</v>
       </c>
-      <c r="E31" s="162">
+      <c r="E31" s="84">
         <f ca="1">'le mois 03'!AA35</f>
         <v>0</v>
       </c>
-      <c r="F31" s="162">
+      <c r="F31" s="84">
         <f ca="1">'le mois 03'!AB35</f>
         <v>0</v>
       </c>
-      <c r="G31" s="162">
+      <c r="G31" s="84">
         <f ca="1">'le mois 03'!AC35</f>
         <v>0</v>
       </c>
-      <c r="H31" s="162">
+      <c r="H31" s="84">
         <f ca="1">'le mois 03'!AD35</f>
         <v>0</v>
       </c>
-      <c r="I31" s="162">
+      <c r="I31" s="84">
         <f ca="1">'le mois 03'!AE35</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="161">
+      <c r="A32" s="83">
         <f>'le mois 03'!A36</f>
         <v>45747</v>
       </c>
-      <c r="B32" s="162">
+      <c r="B32" s="84">
         <f ca="1">'le mois 03'!X36</f>
         <v>0</v>
       </c>
-      <c r="C32" s="162">
+      <c r="C32" s="84">
         <f ca="1">'le mois 03'!Y36</f>
         <v>0</v>
       </c>
-      <c r="D32" s="162">
+      <c r="D32" s="84">
         <f ca="1">'le mois 03'!Z36</f>
         <v>0</v>
       </c>
-      <c r="E32" s="162">
+      <c r="E32" s="84">
         <f ca="1">'le mois 03'!AA36</f>
         <v>0</v>
       </c>
-      <c r="F32" s="162">
+      <c r="F32" s="84">
         <f ca="1">'le mois 03'!AB36</f>
         <v>0</v>
       </c>
-      <c r="G32" s="162">
+      <c r="G32" s="84">
         <f ca="1">'le mois 03'!AC36</f>
         <v>0</v>
       </c>
-      <c r="H32" s="162">
+      <c r="H32" s="84">
         <f ca="1">'le mois 03'!AD36</f>
         <v>0</v>
       </c>
-      <c r="I32" s="162">
+      <c r="I32" s="84">
         <f ca="1">'le mois 03'!AE36</f>
         <v>0</v>
       </c>
@@ -13691,7 +13691,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="85" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="16" t="s">
@@ -13702,435 +13702,435 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="161">
+      <c r="A2" s="83">
         <f>'le mois 03'!A6</f>
         <v>45717</v>
       </c>
-      <c r="B2" s="162">
+      <c r="B2" s="84">
         <f ca="1">'le mois 03'!AF6</f>
         <v>0</v>
       </c>
-      <c r="C2" s="162">
+      <c r="C2" s="84">
         <f ca="1">'le mois 03'!AG6</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="161">
+      <c r="A3" s="83">
         <f>'le mois 03'!A7</f>
         <v>45718</v>
       </c>
-      <c r="B3" s="162">
+      <c r="B3" s="84">
         <f ca="1">'le mois 03'!AF7</f>
         <v>0</v>
       </c>
-      <c r="C3" s="162">
+      <c r="C3" s="84">
         <f ca="1">'le mois 03'!AG7</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="161">
+      <c r="A4" s="83">
         <f>'le mois 03'!A8</f>
         <v>45719</v>
       </c>
-      <c r="B4" s="162">
+      <c r="B4" s="84">
         <f ca="1">'le mois 03'!AF8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="162">
+      <c r="C4" s="84">
         <f ca="1">'le mois 03'!AG8</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="161">
+      <c r="A5" s="83">
         <f>'le mois 03'!A9</f>
         <v>45720</v>
       </c>
-      <c r="B5" s="162">
+      <c r="B5" s="84">
         <f ca="1">'le mois 03'!AF9</f>
         <v>0</v>
       </c>
-      <c r="C5" s="162">
+      <c r="C5" s="84">
         <f ca="1">'le mois 03'!AG9</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="161">
+      <c r="A6" s="83">
         <f>'le mois 03'!A10</f>
         <v>45721</v>
       </c>
-      <c r="B6" s="162">
+      <c r="B6" s="84">
         <f ca="1">'le mois 03'!AF10</f>
         <v>0</v>
       </c>
-      <c r="C6" s="162">
+      <c r="C6" s="84">
         <f ca="1">'le mois 03'!AG10</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="161">
+      <c r="A7" s="83">
         <f>'le mois 03'!A11</f>
         <v>45722</v>
       </c>
-      <c r="B7" s="162">
+      <c r="B7" s="84">
         <f ca="1">'le mois 03'!AF11</f>
         <v>0</v>
       </c>
-      <c r="C7" s="162">
+      <c r="C7" s="84">
         <f ca="1">'le mois 03'!AG11</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="161">
+      <c r="A8" s="83">
         <f>'le mois 03'!A12</f>
         <v>45723</v>
       </c>
-      <c r="B8" s="162">
+      <c r="B8" s="84">
         <f ca="1">'le mois 03'!AF12</f>
         <v>0</v>
       </c>
-      <c r="C8" s="162">
+      <c r="C8" s="84">
         <f ca="1">'le mois 03'!AG12</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="161">
+      <c r="A9" s="83">
         <f>'le mois 03'!A13</f>
         <v>45724</v>
       </c>
-      <c r="B9" s="162">
+      <c r="B9" s="84">
         <f ca="1">'le mois 03'!AF13</f>
         <v>0</v>
       </c>
-      <c r="C9" s="162">
+      <c r="C9" s="84">
         <f ca="1">'le mois 03'!AG13</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="161">
+      <c r="A10" s="83">
         <f>'le mois 03'!A14</f>
         <v>45725</v>
       </c>
-      <c r="B10" s="162">
+      <c r="B10" s="84">
         <f ca="1">'le mois 03'!AF14</f>
         <v>0</v>
       </c>
-      <c r="C10" s="162">
+      <c r="C10" s="84">
         <f ca="1">'le mois 03'!AG14</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="161">
+      <c r="A11" s="83">
         <f>'le mois 03'!A15</f>
         <v>45726</v>
       </c>
-      <c r="B11" s="162">
+      <c r="B11" s="84">
         <f ca="1">'le mois 03'!AF15</f>
         <v>0</v>
       </c>
-      <c r="C11" s="162">
+      <c r="C11" s="84">
         <f ca="1">'le mois 03'!AG15</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="161">
+      <c r="A12" s="83">
         <f>'le mois 03'!A16</f>
         <v>45727</v>
       </c>
-      <c r="B12" s="162">
+      <c r="B12" s="84">
         <f ca="1">'le mois 03'!AF16</f>
         <v>0</v>
       </c>
-      <c r="C12" s="162">
+      <c r="C12" s="84">
         <f ca="1">'le mois 03'!AG16</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="161">
+      <c r="A13" s="83">
         <f>'le mois 03'!A17</f>
         <v>45728</v>
       </c>
-      <c r="B13" s="162">
+      <c r="B13" s="84">
         <f ca="1">'le mois 03'!AF17</f>
         <v>0</v>
       </c>
-      <c r="C13" s="162">
+      <c r="C13" s="84">
         <f ca="1">'le mois 03'!AG17</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="161">
+      <c r="A14" s="83">
         <f>'le mois 03'!A18</f>
         <v>45729</v>
       </c>
-      <c r="B14" s="162">
+      <c r="B14" s="84">
         <f ca="1">'le mois 03'!AF18</f>
         <v>0</v>
       </c>
-      <c r="C14" s="162">
+      <c r="C14" s="84">
         <f ca="1">'le mois 03'!AG18</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="161">
+      <c r="A15" s="83">
         <f>'le mois 03'!A19</f>
         <v>45730</v>
       </c>
-      <c r="B15" s="162">
+      <c r="B15" s="84">
         <f ca="1">'le mois 03'!AF19</f>
         <v>0</v>
       </c>
-      <c r="C15" s="162">
+      <c r="C15" s="84">
         <f ca="1">'le mois 03'!AG19</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="161">
+      <c r="A16" s="83">
         <f>'le mois 03'!A20</f>
         <v>45731</v>
       </c>
-      <c r="B16" s="162">
+      <c r="B16" s="84">
         <f ca="1">'le mois 03'!AF20</f>
         <v>0</v>
       </c>
-      <c r="C16" s="162">
+      <c r="C16" s="84">
         <f ca="1">'le mois 03'!AG20</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="161">
+      <c r="A17" s="83">
         <f>'le mois 03'!A21</f>
         <v>45732</v>
       </c>
-      <c r="B17" s="162">
+      <c r="B17" s="84">
         <f ca="1">'le mois 03'!AF21</f>
         <v>0</v>
       </c>
-      <c r="C17" s="162">
+      <c r="C17" s="84">
         <f ca="1">'le mois 03'!AG21</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="161">
+      <c r="A18" s="83">
         <f>'le mois 03'!A22</f>
         <v>45733</v>
       </c>
-      <c r="B18" s="162">
+      <c r="B18" s="84">
         <f ca="1">'le mois 03'!AF22</f>
         <v>0</v>
       </c>
-      <c r="C18" s="162">
+      <c r="C18" s="84">
         <f ca="1">'le mois 03'!AG22</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="161">
+      <c r="A19" s="83">
         <f>'le mois 03'!A23</f>
         <v>45734</v>
       </c>
-      <c r="B19" s="162">
+      <c r="B19" s="84">
         <f ca="1">'le mois 03'!AF23</f>
         <v>0</v>
       </c>
-      <c r="C19" s="162">
+      <c r="C19" s="84">
         <f ca="1">'le mois 03'!AG23</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="161">
+      <c r="A20" s="83">
         <f>'le mois 03'!A24</f>
         <v>45735</v>
       </c>
-      <c r="B20" s="162">
+      <c r="B20" s="84">
         <f>'le mois 03'!AF24</f>
         <v>129</v>
       </c>
-      <c r="C20" s="162">
+      <c r="C20" s="84">
         <f>'le mois 03'!AG24</f>
         <v>1.99</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="161">
+      <c r="A21" s="83">
         <f>'le mois 03'!A25</f>
         <v>45736</v>
       </c>
-      <c r="B21" s="162">
+      <c r="B21" s="84">
         <f ca="1">'le mois 03'!AF25</f>
         <v>0</v>
       </c>
-      <c r="C21" s="162">
+      <c r="C21" s="84">
         <f ca="1">'le mois 03'!AG25</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="161">
+      <c r="A22" s="83">
         <f>'le mois 03'!A26</f>
         <v>45737</v>
       </c>
-      <c r="B22" s="162">
+      <c r="B22" s="84">
         <f ca="1">'le mois 03'!AF26</f>
         <v>0</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="84">
         <f ca="1">'le mois 03'!AG26</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="161">
+      <c r="A23" s="83">
         <f>'le mois 03'!A27</f>
         <v>45738</v>
       </c>
-      <c r="B23" s="162">
+      <c r="B23" s="84">
         <f ca="1">'le mois 03'!AF27</f>
         <v>0</v>
       </c>
-      <c r="C23" s="162">
+      <c r="C23" s="84">
         <f ca="1">'le mois 03'!AG27</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="161">
+      <c r="A24" s="83">
         <f>'le mois 03'!A28</f>
         <v>45739</v>
       </c>
-      <c r="B24" s="162">
+      <c r="B24" s="84">
         <f ca="1">'le mois 03'!AF28</f>
         <v>0</v>
       </c>
-      <c r="C24" s="162">
+      <c r="C24" s="84">
         <f ca="1">'le mois 03'!AG28</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="161">
+      <c r="A25" s="83">
         <f>'le mois 03'!A29</f>
         <v>45740</v>
       </c>
-      <c r="B25" s="162">
+      <c r="B25" s="84">
         <f ca="1">'le mois 03'!AF29</f>
         <v>0</v>
       </c>
-      <c r="C25" s="162">
+      <c r="C25" s="84">
         <f ca="1">'le mois 03'!AG29</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="161">
+      <c r="A26" s="83">
         <f>'le mois 03'!A30</f>
         <v>45741</v>
       </c>
-      <c r="B26" s="162">
+      <c r="B26" s="84">
         <f ca="1">'le mois 03'!AF30</f>
         <v>0</v>
       </c>
-      <c r="C26" s="162">
+      <c r="C26" s="84">
         <f ca="1">'le mois 03'!AG30</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="161">
+      <c r="A27" s="83">
         <f>'le mois 03'!A31</f>
         <v>45742</v>
       </c>
-      <c r="B27" s="162">
+      <c r="B27" s="84">
         <f ca="1">'le mois 03'!AF31</f>
         <v>0</v>
       </c>
-      <c r="C27" s="162">
+      <c r="C27" s="84">
         <f ca="1">'le mois 03'!AG31</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="161">
+      <c r="A28" s="83">
         <f>'le mois 03'!A32</f>
         <v>45743</v>
       </c>
-      <c r="B28" s="162">
+      <c r="B28" s="84">
         <f ca="1">'le mois 03'!AF32</f>
         <v>0</v>
       </c>
-      <c r="C28" s="162">
+      <c r="C28" s="84">
         <f ca="1">'le mois 03'!AG32</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="161">
+      <c r="A29" s="83">
         <f>'le mois 03'!A33</f>
         <v>45744</v>
       </c>
-      <c r="B29" s="162">
+      <c r="B29" s="84">
         <f ca="1">'le mois 03'!AF33</f>
         <v>0</v>
       </c>
-      <c r="C29" s="162">
+      <c r="C29" s="84">
         <f ca="1">'le mois 03'!AG33</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="161">
+      <c r="A30" s="83">
         <f>'le mois 03'!A34</f>
         <v>45745</v>
       </c>
-      <c r="B30" s="162">
+      <c r="B30" s="84">
         <f ca="1">'le mois 03'!AF34</f>
         <v>0</v>
       </c>
-      <c r="C30" s="162">
+      <c r="C30" s="84">
         <f ca="1">'le mois 03'!AG34</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="161">
+      <c r="A31" s="83">
         <f>'le mois 03'!A35</f>
         <v>45746</v>
       </c>
-      <c r="B31" s="162">
+      <c r="B31" s="84">
         <f ca="1">'le mois 03'!AF35</f>
         <v>0</v>
       </c>
-      <c r="C31" s="162">
+      <c r="C31" s="84">
         <f ca="1">'le mois 03'!AG35</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="161">
+      <c r="A32" s="83">
         <f>'le mois 03'!A36</f>
         <v>45747</v>
       </c>
-      <c r="B32" s="162">
+      <c r="B32" s="84">
         <f ca="1">'le mois 03'!AF36</f>
         <v>0</v>
       </c>
-      <c r="C32" s="162">
+      <c r="C32" s="84">
         <f ca="1">'le mois 03'!AG36</f>
         <v>0</v>
       </c>

--- a/suivi qualité.xlsx
+++ b/suivi qualité.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5352065D-8612-484C-80E5-679AC467C547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99B0D25-4B4C-4C3A-A24E-EFFB5E65FBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="5" activeTab="12" xr2:uid="{FA7E5F9C-5449-459A-B8AF-8BD521A737EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{FA7E5F9C-5449-459A-B8AF-8BD521A737EC}"/>
   </bookViews>
   <sheets>
     <sheet name="UF feed" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
   <si>
     <t>date</t>
   </si>
@@ -353,6 +353,9 @@
       <t xml:space="preserve"> (mg/l) s-P3</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -2035,33 +2038,21 @@
           <cell r="B107" t="str">
             <v>17.7</v>
           </cell>
-          <cell r="C107"/>
-          <cell r="D107"/>
           <cell r="E107" t="str">
             <v>8.25</v>
           </cell>
-          <cell r="F107"/>
-          <cell r="G107"/>
           <cell r="H107">
             <v>50100</v>
           </cell>
-          <cell r="I107"/>
-          <cell r="J107"/>
           <cell r="K107" t="str">
             <v>3.5</v>
           </cell>
-          <cell r="L107"/>
-          <cell r="M107"/>
           <cell r="N107">
             <v>0</v>
           </cell>
-          <cell r="O107"/>
-          <cell r="P107"/>
-          <cell r="Q107"/>
           <cell r="R107" t="str">
             <v>167.9</v>
           </cell>
-          <cell r="S107"/>
         </row>
       </sheetData>
       <sheetData sheetId="1">
@@ -2670,13 +2661,9 @@
           <cell r="B108">
             <v>0</v>
           </cell>
-          <cell r="C108"/>
-          <cell r="D108"/>
           <cell r="E108" t="str">
             <v>0.73</v>
           </cell>
-          <cell r="F108"/>
-          <cell r="G108"/>
         </row>
       </sheetData>
       <sheetData sheetId="2">
@@ -2869,8 +2856,6 @@
           <cell r="B95" t="str">
             <v>3.57</v>
           </cell>
-          <cell r="C95"/>
-          <cell r="D95"/>
         </row>
         <row r="96">
           <cell r="A96">
@@ -3047,8 +3032,6 @@
           <cell r="B108" t="str">
             <v>2.92</v>
           </cell>
-          <cell r="C108"/>
-          <cell r="D108"/>
         </row>
       </sheetData>
       <sheetData sheetId="3">
@@ -3241,8 +3224,6 @@
           <cell r="B94" t="str">
             <v>3.49</v>
           </cell>
-          <cell r="C94"/>
-          <cell r="D94"/>
         </row>
         <row r="95">
           <cell r="A95">
@@ -3419,8 +3400,6 @@
           <cell r="B107" t="str">
             <v>2.78</v>
           </cell>
-          <cell r="C107"/>
-          <cell r="D107"/>
         </row>
       </sheetData>
       <sheetData sheetId="4">
@@ -3434,33 +3413,24 @@
           <cell r="U447">
             <v>20.3</v>
           </cell>
-          <cell r="V447"/>
           <cell r="W447">
             <v>47700</v>
           </cell>
           <cell r="X447">
             <v>48100</v>
           </cell>
-          <cell r="Y447"/>
           <cell r="Z447">
             <v>7.98</v>
           </cell>
           <cell r="AA447">
             <v>8.1199999999999992</v>
           </cell>
-          <cell r="AB447"/>
-          <cell r="AC447"/>
-          <cell r="AD447"/>
-          <cell r="AE447"/>
-          <cell r="AF447"/>
-          <cell r="AH447"/>
           <cell r="AI447">
             <v>180.4</v>
           </cell>
           <cell r="AJ447">
             <v>173.4</v>
           </cell>
-          <cell r="AK447"/>
         </row>
         <row r="448">
           <cell r="A448">
@@ -4869,32 +4839,21 @@
           <cell r="T473" t="str">
             <v>17.7</v>
           </cell>
-          <cell r="U473"/>
-          <cell r="V473"/>
           <cell r="W473">
             <v>48400</v>
           </cell>
-          <cell r="X473"/>
-          <cell r="Y473"/>
           <cell r="Z473" t="str">
             <v>8.18</v>
           </cell>
-          <cell r="AA473"/>
-          <cell r="AB473"/>
           <cell r="AC473" t="str">
             <v>0.59</v>
           </cell>
-          <cell r="AD473"/>
-          <cell r="AE473"/>
           <cell r="AF473" t="str">
             <v>0.0</v>
           </cell>
-          <cell r="AH473"/>
           <cell r="AI473" t="str">
             <v>168.2</v>
           </cell>
-          <cell r="AJ473"/>
-          <cell r="AK473"/>
         </row>
       </sheetData>
       <sheetData sheetId="5">
@@ -6375,7 +6334,6 @@
           <cell r="S100" t="str">
             <v>-</v>
           </cell>
-          <cell r="T100"/>
           <cell r="U100">
             <v>209</v>
           </cell>
@@ -6977,56 +6935,35 @@
           <cell r="A108">
             <v>45390</v>
           </cell>
-          <cell r="G108"/>
           <cell r="I108" t="str">
             <v>-</v>
           </cell>
-          <cell r="J108"/>
-          <cell r="K108"/>
           <cell r="L108">
             <v>307</v>
           </cell>
-          <cell r="M108"/>
-          <cell r="N108"/>
           <cell r="O108">
             <v>350</v>
           </cell>
-          <cell r="P108"/>
-          <cell r="Q108"/>
           <cell r="R108" t="str">
             <v>-</v>
           </cell>
-          <cell r="S108"/>
-          <cell r="T108"/>
           <cell r="U108">
             <v>242</v>
           </cell>
-          <cell r="V108"/>
-          <cell r="W108"/>
           <cell r="X108" t="str">
             <v>-</v>
           </cell>
-          <cell r="Y108"/>
-          <cell r="Z108"/>
           <cell r="AA108">
             <v>273</v>
           </cell>
-          <cell r="AB108"/>
-          <cell r="AC108"/>
           <cell r="AD108">
             <v>346</v>
           </cell>
-          <cell r="AE108"/>
-          <cell r="AF108"/>
         </row>
         <row r="109">
           <cell r="A109">
             <v>45391</v>
           </cell>
-          <cell r="G109"/>
-          <cell r="I109"/>
-          <cell r="J109"/>
-          <cell r="K109"/>
         </row>
       </sheetData>
       <sheetData sheetId="6"/>
@@ -7333,10 +7270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D57971A-9DAF-4A0C-B1A8-23E52A4E789C}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:S28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9504,6 +9441,11 @@
       <c r="S28" s="5">
         <f>'[1]UF feed'!S107</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -11402,8 +11344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095539F8-27EC-4AF8-8FF5-C117543FCF4F}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/suivi qualité.xlsx
+++ b/suivi qualité.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99B0D25-4B4C-4C3A-A24E-EFFB5E65FBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFEF314-EBC7-4302-956D-2D8D93939265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{FA7E5F9C-5449-459A-B8AF-8BD521A737EC}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{FA7E5F9C-5449-459A-B8AF-8BD521A737EC}"/>
   </bookViews>
   <sheets>
     <sheet name="UF feed" sheetId="1" r:id="rId1"/>
@@ -7273,7 +7273,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11974,7 +11974,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:G28"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
